--- a/ExcelToXML/UploadExcels/Statement_117904113 (2).xlsx
+++ b/ExcelToXML/UploadExcels/Statement_117904113 (2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20339"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmosidze\Desktop\BANK XML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE3763C-F356-4955-AEE9-7D8A627D62D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CA1430-7BC3-D442-9EED-D05D25157C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="-240" windowWidth="19020" windowHeight="4185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="32580" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement of Account" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="89">
   <si>
     <t>ამონაწერი</t>
   </si>
@@ -287,49 +287,7 @@
     <t>20,027.93</t>
   </si>
   <si>
-    <t>თუ არ უწერია GE, მაშინ არის კონვერტაცია</t>
-  </si>
-  <si>
-    <t>ამ ველის მიხედვით განისაზღვრება კრედიტორი</t>
-  </si>
-  <si>
-    <t>select vatnumber,crdnr,debnr from cicmpy</t>
-  </si>
-  <si>
-    <t>select max (bkstnr) from gbkmut</t>
-  </si>
-  <si>
-    <t>where dagbknr='202'</t>
-  </si>
-  <si>
-    <t>Emtry Number</t>
-  </si>
-  <si>
-    <t>და კონვერტაციის დროს კრედიტორი არის 3</t>
-  </si>
-  <si>
     <t>&lt;Name&gt;Ї^Ќ^іЃ¤¦ђЅЇ `ѓґє¦Ї ^ЇЅњѓ^њѓ^ ^^ѓѕ&lt;/Name&gt;</t>
-  </si>
-  <si>
-    <t>XML Notepad</t>
-  </si>
-  <si>
-    <t>CCO GL Account=129000</t>
-  </si>
-  <si>
-    <t>CCO Creditor=3</t>
-  </si>
-  <si>
-    <t>select max(bkstnr) from gbkmut</t>
-  </si>
-  <si>
-    <t>where dagbknr='202'      ცალკეული გატარებისათვის EntryNumber</t>
-  </si>
-  <si>
-    <t>GL Account in Entry Line= if com then 741011, if cco then 129000,  other 311010</t>
-  </si>
-  <si>
-    <t>GL Account in BanktStatement=121003</t>
   </si>
 </sst>
 </file>
@@ -339,7 +297,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[Black]#,##0.00;[Red]\(#,##0.00\);[Black]#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,7 +532,839 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[Black]#,##0.00;[Red]\(#,##0.00\);[Black]#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[Black]#,##0.00;[Red]\(#,##0.00\);[Black]#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[Black]#,##0.00;[Red]\(#,##0.00\);[Black]#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[Black]#,##0.00;[Red]\(#,##0.00\);[Black]#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[Black]#,##0.00;[Red]\(#,##0.00\);[Black]#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[Black]#,##0.00;[Red]\(#,##0.00\);[Black]#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[Black]#,##0.00;[Red]\(#,##0.00\);[Black]#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[Black]#,##0.00;[Red]\(#,##0.00\);[Black]#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -695,32 +1485,32 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tableStatement" displayName="tableStatement" ref="A13:Z21" totalsRowCount="1">
   <autoFilter ref="A13:Z20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="თარიღი" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="საბუთის N"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="მოკორესპოდენტო ანგარიში"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="დებეტი" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="კრედიტი" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="ოპერაციის შინაარსი" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ოპერაციის ტიპი"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ოპერაციის იდ"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Ref"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="გამგზავნის დასახელება"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="გამგზავნის საიდენტიფიკაციო კოდი"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="გამგზავნის ანგარიშის ნომერი"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="გამგზავნი ბანკის კოდი"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="გამგზავნი ბანკის დასახელება"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="მიმღების დასახელება"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="მიმღების საიდენტიფიკაციო კოდი" dataDxfId="0"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="მიმღების ანგარიშის ნომერი"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="მიმღები ბანკის კოდი"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="მიმღები ბანკის დასახელება"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="დანიშნულება"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="დამატებითი ინფორმაცია"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="თანხა"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="ბრუნვა დებეტი"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="ბრუნვა კრედიტი"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="ნაშთი დღის ბოლოს"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="ნაშთი ოპერაციის ბოლოს"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="თარიღი" dataDxfId="30" totalsRowDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="საბუთის N" totalsRowDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="მოკორესპოდენტო ანგარიში" totalsRowDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="დებეტი" dataDxfId="29" totalsRowDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="კრედიტი" dataDxfId="28" totalsRowDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="ოპერაციის შინაარსი" dataDxfId="27" totalsRowDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ოპერაციის ტიპი" totalsRowDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ოპერაციის იდ" totalsRowDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Ref" totalsRowDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="გამგზავნის დასახელება" totalsRowDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="გამგზავნის საიდენტიფიკაციო კოდი" totalsRowDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="გამგზავნის ანგარიშის ნომერი" totalsRowDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="გამგზავნი ბანკის კოდი" totalsRowDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="გამგზავნი ბანკის დასახელება" totalsRowDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="მიმღების დასახელება" totalsRowDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="მიმღების საიდენტიფიკაციო კოდი" dataDxfId="26" totalsRowDxfId="10"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="მიმღების ანგარიშის ნომერი" totalsRowDxfId="9"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="მიმღები ბანკის კოდი" totalsRowDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="მიმღები ბანკის დასახელება" totalsRowDxfId="7"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="დანიშნულება" totalsRowDxfId="6"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="დამატებითი ინფორმაცია" totalsRowDxfId="5"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="თანხა" totalsRowDxfId="4"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="ბრუნვა დებეტი" totalsRowDxfId="3"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="ბრუნვა კრედიტი" totalsRowDxfId="2"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="ნაშთი დღის ბოლოს" totalsRowDxfId="1"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="ნაშთი ოპერაციის ბოლოს" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1047,44 +1837,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:AG36"/>
+  <dimension ref="A4:AG21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12" style="6" customWidth="1"/>
     <col min="2" max="2" width="18" style="8" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="86.5703125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="86.5" style="13" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="10" customWidth="1"/>
     <col min="8" max="8" width="16" style="18" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="35.28515625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="28.42578125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="10" customWidth="1"/>
-    <col min="14" max="14" width="31.28515625" style="10" customWidth="1"/>
-    <col min="15" max="15" width="35.5703125" style="10" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="8" customWidth="1"/>
-    <col min="17" max="17" width="28.5703125" style="8" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" style="10" customWidth="1"/>
-    <col min="19" max="19" width="31.5703125" style="10" customWidth="1"/>
-    <col min="20" max="20" width="42.7109375" style="8" customWidth="1"/>
-    <col min="21" max="21" width="43.140625" style="10" customWidth="1"/>
-    <col min="22" max="22" width="15.42578125" style="13" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" style="13" customWidth="1"/>
-    <col min="24" max="24" width="15.85546875" style="13" customWidth="1"/>
-    <col min="25" max="33" width="15.7109375" style="13" customWidth="1"/>
-    <col min="34" max="34" width="9.140625" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="15.5" style="10" customWidth="1"/>
+    <col min="10" max="10" width="35.33203125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="8" customWidth="1"/>
+    <col min="12" max="12" width="28.5" style="8" customWidth="1"/>
+    <col min="13" max="13" width="14.5" style="10" customWidth="1"/>
+    <col min="14" max="14" width="31.33203125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="35.5" style="10" customWidth="1"/>
+    <col min="16" max="16" width="14.5" style="8" customWidth="1"/>
+    <col min="17" max="17" width="28.5" style="8" customWidth="1"/>
+    <col min="18" max="18" width="14.1640625" style="10" customWidth="1"/>
+    <col min="19" max="19" width="31.5" style="10" customWidth="1"/>
+    <col min="20" max="20" width="42.6640625" style="8" customWidth="1"/>
+    <col min="21" max="21" width="43.1640625" style="10" customWidth="1"/>
+    <col min="22" max="22" width="15.5" style="13" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" style="13" customWidth="1"/>
+    <col min="24" max="24" width="15.83203125" style="13" customWidth="1"/>
+    <col min="25" max="33" width="15.6640625" style="13" customWidth="1"/>
+    <col min="34" max="34" width="9.1640625" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="15" customHeight="1">
       <c r="A4" s="32" t="s">
         <v>0</v>
       </c>
@@ -1097,7 +1887,7 @@
       <c r="H4" s="22"/>
       <c r="I4" s="21"/>
     </row>
-    <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="15" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="9" t="s">
         <v>1</v>
@@ -1112,7 +1902,7 @@
       <c r="H5" s="23"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="15" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="9" t="s">
         <v>3</v>
@@ -1127,7 +1917,7 @@
       <c r="H6" s="23"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" ht="15" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="9" t="s">
         <v>5</v>
@@ -1142,7 +1932,7 @@
       <c r="H7" s="23"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="15" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="9" t="s">
         <v>7</v>
@@ -1157,7 +1947,7 @@
       <c r="H8" s="23"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" ht="15" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="9" t="s">
         <v>9</v>
@@ -1172,7 +1962,7 @@
       <c r="H9" s="23"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" ht="15" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="9" t="s">
         <v>11</v>
@@ -1187,7 +1977,7 @@
       <c r="H10" s="23"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" ht="15" customHeight="1">
       <c r="A11" s="7"/>
       <c r="B11" s="9" t="s">
         <v>12</v>
@@ -1202,7 +1992,7 @@
       <c r="H11" s="23"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="15" customHeight="1">
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1225,7 +2015,7 @@
       <c r="AF12" s="16"/>
       <c r="AG12" s="16"/>
     </row>
-    <row r="13" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" ht="15" customHeight="1">
       <c r="A13" s="28" t="s">
         <v>13</v>
       </c>
@@ -1314,7 +2104,7 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" ht="14">
       <c r="A14" s="29">
         <v>44595</v>
       </c>
@@ -1392,7 +2182,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" ht="14">
       <c r="A15" s="29">
         <v>44595</v>
       </c>
@@ -1470,7 +2260,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" ht="14">
       <c r="A16" s="29">
         <v>44595</v>
       </c>
@@ -1548,7 +2338,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="14">
       <c r="A17" s="29">
         <v>44595</v>
       </c>
@@ -1626,7 +2416,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="14">
       <c r="A18" s="29">
         <v>44595</v>
       </c>
@@ -1704,7 +2494,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="14">
       <c r="A19" s="29">
         <v>44595</v>
       </c>
@@ -1782,7 +2572,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="14">
       <c r="A20" s="29">
         <v>44595</v>
       </c>
@@ -1860,147 +2650,33 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="R21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="S21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="T21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="U21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="V21" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="W21" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="X21" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y21" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z21" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="P23" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="P24" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="10" t="s">
-        <v>102</v>
-      </c>
+    <row r="21" spans="1:26">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2023,11 +2699,11 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="27" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToXML/UploadExcels/Statement_117904113 (2).xlsx
+++ b/ExcelToXML/UploadExcels/Statement_117904113 (2).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azenaishvili.MOLHSA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CA1430-7BC3-D442-9EED-D05D25157C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="500" windowWidth="32580" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="Statement of Account" sheetId="2" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="91">
   <si>
     <t>ამონაწერი</t>
   </si>
@@ -188,9 +187,6 @@
     <t>შპს ესდიესსი</t>
   </si>
   <si>
-    <t>405335025</t>
-  </si>
-  <si>
     <t>ბიომრავალფეროვნების, ჰიდროლოგიური გარემოს და კლიმატის კვლევის ჩასატარებლად. ხელშეკრულება 460, მიღებაჩაბარების აქტი 83376. CC103</t>
   </si>
   <si>
@@ -207,9 +203,6 @@
   </si>
   <si>
     <t>საქართველოს ბიზნეს ასოციაცია - ააიპ</t>
-  </si>
-  <si>
-    <t>205282781</t>
   </si>
   <si>
     <t>GE84TB7887336080100001</t>
@@ -251,9 +244,6 @@
     <t>ჟუჩკოვი არტიომ</t>
   </si>
   <si>
-    <t>01791018194</t>
-  </si>
-  <si>
     <t>სამსახურებრივი ბარათი 83103</t>
   </si>
   <si>
@@ -267,9 +257,6 @@
   </si>
   <si>
     <t>შპს გსქ კულა</t>
-  </si>
-  <si>
-    <t>218083197</t>
   </si>
   <si>
     <t>GE02TB7076036020100012</t>
@@ -287,13 +274,31 @@
     <t>20,027.93</t>
   </si>
   <si>
-    <t>&lt;Name&gt;Ї^Ќ^іЃ¤¦ђЅЇ `ѓґє¦Ї ^ЇЅњѓ^њѓ^ ^^ѓѕ&lt;/Name&gt;</t>
+    <t>202462218</t>
+  </si>
+  <si>
+    <t>1024064873</t>
+  </si>
+  <si>
+    <t>26001008155</t>
+  </si>
+  <si>
+    <t>40001002221</t>
+  </si>
+  <si>
+    <t>26001026819</t>
+  </si>
+  <si>
+    <t>1017006382</t>
+  </si>
+  <si>
+    <t>416298875</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[Black]#,##0.00;[Red]\(#,##0.00\);[Black]#,##0.00"/>
   </numFmts>
@@ -532,839 +537,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[Black]#,##0.00;[Red]\(#,##0.00\);[Black]#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[Black]#,##0.00;[Red]\(#,##0.00\);[Black]#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[Black]#,##0.00;[Red]\(#,##0.00\);[Black]#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[Black]#,##0.00;[Red]\(#,##0.00\);[Black]#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[Black]#,##0.00;[Red]\(#,##0.00\);[Black]#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[Black]#,##0.00;[Red]\(#,##0.00\);[Black]#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[Black]#,##0.00;[Red]\(#,##0.00\);[Black]#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[Black]#,##0.00;[Red]\(#,##0.00\);[Black]#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1482,35 +655,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tableStatement" displayName="tableStatement" ref="A13:Z21" totalsRowCount="1">
-  <autoFilter ref="A13:Z20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tableStatement" displayName="tableStatement" ref="A13:Z20" totalsRowShown="0">
+  <autoFilter ref="A13:Z20"/>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="თარიღი" dataDxfId="30" totalsRowDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="საბუთის N" totalsRowDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="მოკორესპოდენტო ანგარიში" totalsRowDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="დებეტი" dataDxfId="29" totalsRowDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="კრედიტი" dataDxfId="28" totalsRowDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="ოპერაციის შინაარსი" dataDxfId="27" totalsRowDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ოპერაციის ტიპი" totalsRowDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ოპერაციის იდ" totalsRowDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Ref" totalsRowDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="გამგზავნის დასახელება" totalsRowDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="გამგზავნის საიდენტიფიკაციო კოდი" totalsRowDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="გამგზავნის ანგარიშის ნომერი" totalsRowDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="გამგზავნი ბანკის კოდი" totalsRowDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="გამგზავნი ბანკის დასახელება" totalsRowDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="მიმღების დასახელება" totalsRowDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="მიმღების საიდენტიფიკაციო კოდი" dataDxfId="26" totalsRowDxfId="10"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="მიმღების ანგარიშის ნომერი" totalsRowDxfId="9"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="მიმღები ბანკის კოდი" totalsRowDxfId="8"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="მიმღები ბანკის დასახელება" totalsRowDxfId="7"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="დანიშნულება" totalsRowDxfId="6"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="დამატებითი ინფორმაცია" totalsRowDxfId="5"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="თანხა" totalsRowDxfId="4"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="ბრუნვა დებეტი" totalsRowDxfId="3"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="ბრუნვა კრედიტი" totalsRowDxfId="2"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="ნაშთი დღის ბოლოს" totalsRowDxfId="1"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="ნაშთი ოპერაციის ბოლოს" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="თარიღი" dataDxfId="4"/>
+    <tableColumn id="2" name="საბუთის N"/>
+    <tableColumn id="3" name="მოკორესპოდენტო ანგარიში"/>
+    <tableColumn id="4" name="დებეტი" dataDxfId="3"/>
+    <tableColumn id="5" name="კრედიტი" dataDxfId="2"/>
+    <tableColumn id="6" name="ოპერაციის შინაარსი" dataDxfId="1"/>
+    <tableColumn id="7" name="ოპერაციის ტიპი"/>
+    <tableColumn id="8" name="ოპერაციის იდ"/>
+    <tableColumn id="9" name="Ref"/>
+    <tableColumn id="10" name="გამგზავნის დასახელება"/>
+    <tableColumn id="11" name="გამგზავნის საიდენტიფიკაციო კოდი"/>
+    <tableColumn id="12" name="გამგზავნის ანგარიშის ნომერი"/>
+    <tableColumn id="13" name="გამგზავნი ბანკის კოდი"/>
+    <tableColumn id="14" name="გამგზავნი ბანკის დასახელება"/>
+    <tableColumn id="15" name="მიმღების დასახელება"/>
+    <tableColumn id="16" name="მიმღების საიდენტიფიკაციო კოდი" dataDxfId="0"/>
+    <tableColumn id="17" name="მიმღების ანგარიშის ნომერი"/>
+    <tableColumn id="18" name="მიმღები ბანკის კოდი"/>
+    <tableColumn id="19" name="მიმღები ბანკის დასახელება"/>
+    <tableColumn id="20" name="დანიშნულება"/>
+    <tableColumn id="21" name="დამატებითი ინფორმაცია"/>
+    <tableColumn id="22" name="თანხა"/>
+    <tableColumn id="23" name="ბრუნვა დებეტი"/>
+    <tableColumn id="24" name="ბრუნვა კრედიტი"/>
+    <tableColumn id="25" name="ნაშთი დღის ბოლოს"/>
+    <tableColumn id="26" name="ნაშთი ოპერაციის ბოლოს"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1592,23 +765,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1644,23 +800,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1836,42 +975,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:AG21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:AG316"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12" style="6" customWidth="1"/>
     <col min="2" max="2" width="18" style="8" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="13" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="86.5" style="13" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="86.5703125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="10" customWidth="1"/>
     <col min="8" max="8" width="16" style="18" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="10" customWidth="1"/>
-    <col min="10" max="10" width="35.33203125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="14.5" style="8" customWidth="1"/>
-    <col min="12" max="12" width="28.5" style="8" customWidth="1"/>
-    <col min="13" max="13" width="14.5" style="10" customWidth="1"/>
-    <col min="14" max="14" width="31.33203125" style="10" customWidth="1"/>
-    <col min="15" max="15" width="35.5" style="10" customWidth="1"/>
-    <col min="16" max="16" width="14.5" style="8" customWidth="1"/>
-    <col min="17" max="17" width="28.5" style="8" customWidth="1"/>
-    <col min="18" max="18" width="14.1640625" style="10" customWidth="1"/>
-    <col min="19" max="19" width="31.5" style="10" customWidth="1"/>
-    <col min="20" max="20" width="42.6640625" style="8" customWidth="1"/>
-    <col min="21" max="21" width="43.1640625" style="10" customWidth="1"/>
-    <col min="22" max="22" width="15.5" style="13" customWidth="1"/>
-    <col min="23" max="23" width="15.6640625" style="13" customWidth="1"/>
-    <col min="24" max="24" width="15.83203125" style="13" customWidth="1"/>
-    <col min="25" max="33" width="15.6640625" style="13" customWidth="1"/>
-    <col min="34" max="34" width="9.1640625" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="9.1640625" style="1"/>
+    <col min="9" max="9" width="15.5703125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="35.28515625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="28.42578125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="31.28515625" style="10" customWidth="1"/>
+    <col min="15" max="15" width="35.5703125" style="10" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="28.5703125" style="8" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" style="10" customWidth="1"/>
+    <col min="19" max="19" width="31.5703125" style="10" customWidth="1"/>
+    <col min="20" max="20" width="42.7109375" style="8" customWidth="1"/>
+    <col min="21" max="21" width="43.140625" style="10" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" style="13" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" style="13" customWidth="1"/>
+    <col min="24" max="24" width="15.85546875" style="13" customWidth="1"/>
+    <col min="25" max="33" width="15.7109375" style="13" customWidth="1"/>
+    <col min="34" max="34" width="9.140625" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:33" ht="15" customHeight="1">
@@ -2104,7 +1243,7 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="14">
+    <row r="14" spans="1:33" ht="12.75">
       <c r="A14" s="29">
         <v>44595</v>
       </c>
@@ -2149,7 +1288,7 @@
         <v>2</v>
       </c>
       <c r="P14" s="31" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="8" t="s">
         <v>47</v>
@@ -2182,7 +1321,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="14">
+    <row r="15" spans="1:33" ht="12.75">
       <c r="A15" s="29">
         <v>44595</v>
       </c>
@@ -2227,7 +1366,7 @@
         <v>54</v>
       </c>
       <c r="P15" s="31" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="Q15" s="8" t="s">
         <v>51</v>
@@ -2239,10 +1378,10 @@
         <v>46</v>
       </c>
       <c r="T15" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V15" s="13">
         <v>-11339.32</v>
@@ -2257,25 +1396,25 @@
         <v>13057.87</v>
       </c>
       <c r="Z15" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" ht="14">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" ht="12.75">
       <c r="A16" s="29">
         <v>44595</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="D16" s="30">
         <v>30286</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>53</v>
@@ -2302,25 +1441,25 @@
         <v>46</v>
       </c>
       <c r="O16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q16" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="P16" s="31" t="s">
+      <c r="R16" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="Q16" s="8" t="s">
+      <c r="S16" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="R16" s="10" t="s">
+      <c r="T16" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="S16" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="T16" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="U16" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V16" s="13">
         <v>-30286</v>
@@ -2335,28 +1474,28 @@
         <v>13057.87</v>
       </c>
       <c r="Z16" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="14">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" ht="12.75">
       <c r="A17" s="29">
         <v>44595</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D17" s="30">
         <v>15.14</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H17" s="18">
         <v>48150858702</v>
@@ -2380,25 +1519,25 @@
         <v>46</v>
       </c>
       <c r="O17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q17" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="P17" s="31" t="s">
+      <c r="R17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="Q17" s="8" t="s">
+      <c r="S17" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="R17" s="10" t="s">
+      <c r="T17" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="S17" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="T17" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="U17" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V17" s="13">
         <v>-15.14</v>
@@ -2413,25 +1552,25 @@
         <v>13057.87</v>
       </c>
       <c r="Z17" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="14">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" ht="12.75">
       <c r="A18" s="29">
         <v>44595</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D18" s="30">
         <v>862</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>53</v>
@@ -2458,13 +1597,13 @@
         <v>46</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R18" s="10" t="s">
         <v>45</v>
@@ -2473,10 +1612,10 @@
         <v>46</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="V18" s="13">
         <v>-862</v>
@@ -2491,25 +1630,25 @@
         <v>13057.87</v>
       </c>
       <c r="Z18" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="14">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" ht="12.75">
       <c r="A19" s="29">
         <v>44595</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="30">
         <v>9497.6</v>
       </c>
       <c r="E19" s="30"/>
       <c r="F19" s="30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>53</v>
@@ -2536,25 +1675,25 @@
         <v>46</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P19" s="31" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="R19" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="V19" s="13">
         <v>-9497.6</v>
@@ -2569,28 +1708,28 @@
         <v>13057.87</v>
       </c>
       <c r="Z19" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="14">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" ht="12.75">
       <c r="A20" s="29">
         <v>44595</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D20" s="30">
         <v>4.75</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="30" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H20" s="18">
         <v>48159943502</v>
@@ -2614,25 +1753,25 @@
         <v>46</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P20" s="31" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T20" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="V20" s="13">
         <v>-4.75</v>
@@ -2647,36 +1786,7248 @@
         <v>13057.87</v>
       </c>
       <c r="Z20" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-      <c r="W21"/>
-      <c r="X21"/>
-      <c r="Y21"/>
-      <c r="Z21"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" ht="15" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+    </row>
+    <row r="22" spans="1:33" ht="15" customHeight="1">
+      <c r="A22" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="H22" s="8"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+    </row>
+    <row r="23" spans="1:33" ht="15" customHeight="1">
+      <c r="A23" s="10"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="H23" s="8"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+    </row>
+    <row r="24" spans="1:33" ht="15" customHeight="1">
+      <c r="A24" s="10"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="H24" s="8"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+    </row>
+    <row r="25" spans="1:33" ht="15" customHeight="1">
+      <c r="A25" s="10"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+    </row>
+    <row r="26" spans="1:33" ht="15" customHeight="1">
+      <c r="A26" s="10"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+    </row>
+    <row r="27" spans="1:33" ht="15" customHeight="1">
+      <c r="A27" s="10"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+    </row>
+    <row r="28" spans="1:33" ht="15" customHeight="1">
+      <c r="A28" s="10"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+    </row>
+    <row r="29" spans="1:33" ht="15" customHeight="1">
+      <c r="A29" s="10"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+    </row>
+    <row r="30" spans="1:33" ht="15" customHeight="1">
+      <c r="A30" s="10"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+    </row>
+    <row r="31" spans="1:33" ht="15" customHeight="1">
+      <c r="A31" s="10"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+    </row>
+    <row r="32" spans="1:33" ht="15" customHeight="1">
+      <c r="A32" s="10"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+    </row>
+    <row r="33" spans="1:33" ht="15" customHeight="1">
+      <c r="A33" s="10"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+    </row>
+    <row r="34" spans="1:33" ht="15" customHeight="1">
+      <c r="A34" s="10"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+    </row>
+    <row r="35" spans="1:33" ht="15" customHeight="1">
+      <c r="A35" s="10"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+    </row>
+    <row r="36" spans="1:33" ht="15" customHeight="1">
+      <c r="A36" s="10"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+    </row>
+    <row r="37" spans="1:33" ht="15" customHeight="1">
+      <c r="A37" s="10"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+    </row>
+    <row r="38" spans="1:33" ht="15" customHeight="1">
+      <c r="A38" s="10"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+    </row>
+    <row r="39" spans="1:33" ht="15" customHeight="1">
+      <c r="A39" s="10"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+    </row>
+    <row r="40" spans="1:33" ht="15" customHeight="1">
+      <c r="L40" s="13"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+    </row>
+    <row r="41" spans="1:33" ht="15" customHeight="1">
+      <c r="L41" s="13"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+    </row>
+    <row r="42" spans="1:33" ht="15" customHeight="1">
+      <c r="L42" s="13"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+    </row>
+    <row r="43" spans="1:33" ht="15" customHeight="1">
+      <c r="L43" s="13"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+    </row>
+    <row r="44" spans="1:33" ht="15" customHeight="1">
+      <c r="L44" s="13"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1"/>
+    </row>
+    <row r="45" spans="1:33" ht="15" customHeight="1">
+      <c r="L45" s="13"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+    </row>
+    <row r="46" spans="1:33" ht="15" customHeight="1">
+      <c r="L46" s="13"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+    </row>
+    <row r="47" spans="1:33" ht="15" customHeight="1">
+      <c r="L47" s="13"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+    </row>
+    <row r="48" spans="1:33" ht="15" customHeight="1">
+      <c r="L48" s="13"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+    </row>
+    <row r="49" spans="12:33" ht="15" customHeight="1">
+      <c r="L49" s="13"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1"/>
+    </row>
+    <row r="50" spans="12:33" ht="15" customHeight="1">
+      <c r="L50" s="13"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+    </row>
+    <row r="51" spans="12:33" ht="15" customHeight="1">
+      <c r="L51" s="13"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1"/>
+    </row>
+    <row r="52" spans="12:33" ht="15" customHeight="1">
+      <c r="L52" s="13"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+    </row>
+    <row r="53" spans="12:33" ht="15" customHeight="1">
+      <c r="L53" s="13"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1"/>
+    </row>
+    <row r="54" spans="12:33" ht="15" customHeight="1">
+      <c r="L54" s="13"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="1"/>
+    </row>
+    <row r="55" spans="12:33" ht="15" customHeight="1">
+      <c r="L55" s="13"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1"/>
+    </row>
+    <row r="56" spans="12:33" ht="15" customHeight="1">
+      <c r="L56" s="13"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1"/>
+      <c r="AF56" s="1"/>
+      <c r="AG56" s="1"/>
+    </row>
+    <row r="57" spans="12:33" ht="15" customHeight="1">
+      <c r="L57" s="13"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="1"/>
+    </row>
+    <row r="58" spans="12:33" ht="15" customHeight="1">
+      <c r="L58" s="13"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1"/>
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="1"/>
+    </row>
+    <row r="59" spans="12:33" ht="15" customHeight="1">
+      <c r="L59" s="13"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="1"/>
+    </row>
+    <row r="60" spans="12:33" ht="15" customHeight="1">
+      <c r="L60" s="13"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+      <c r="AG60" s="1"/>
+    </row>
+    <row r="61" spans="12:33" ht="15" customHeight="1">
+      <c r="L61" s="13"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
+      <c r="AF61" s="1"/>
+      <c r="AG61" s="1"/>
+    </row>
+    <row r="62" spans="12:33" ht="15" customHeight="1">
+      <c r="L62" s="13"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
+      <c r="AC62" s="1"/>
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="1"/>
+      <c r="AF62" s="1"/>
+      <c r="AG62" s="1"/>
+    </row>
+    <row r="63" spans="12:33" ht="15" customHeight="1">
+      <c r="L63" s="13"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
+      <c r="AF63" s="1"/>
+      <c r="AG63" s="1"/>
+    </row>
+    <row r="64" spans="12:33" ht="15" customHeight="1">
+      <c r="L64" s="13"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="1"/>
+      <c r="AF64" s="1"/>
+      <c r="AG64" s="1"/>
+    </row>
+    <row r="65" spans="12:33" ht="15" customHeight="1">
+      <c r="L65" s="13"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="1"/>
+      <c r="AF65" s="1"/>
+      <c r="AG65" s="1"/>
+    </row>
+    <row r="66" spans="12:33" ht="15" customHeight="1">
+      <c r="L66" s="13"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1"/>
+      <c r="AC66" s="1"/>
+      <c r="AD66" s="1"/>
+      <c r="AE66" s="1"/>
+      <c r="AF66" s="1"/>
+      <c r="AG66" s="1"/>
+    </row>
+    <row r="67" spans="12:33" ht="15" customHeight="1">
+      <c r="L67" s="13"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="1"/>
+      <c r="AG67" s="1"/>
+    </row>
+    <row r="68" spans="12:33" ht="15" customHeight="1">
+      <c r="L68" s="13"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+      <c r="AF68" s="1"/>
+      <c r="AG68" s="1"/>
+    </row>
+    <row r="69" spans="12:33" ht="15" customHeight="1">
+      <c r="L69" s="13"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="1"/>
+    </row>
+    <row r="70" spans="12:33" ht="15" customHeight="1">
+      <c r="L70" s="13"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1"/>
+      <c r="AC70" s="1"/>
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="1"/>
+      <c r="AF70" s="1"/>
+      <c r="AG70" s="1"/>
+    </row>
+    <row r="71" spans="12:33" ht="15" customHeight="1">
+      <c r="L71" s="13"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1"/>
+      <c r="AF71" s="1"/>
+      <c r="AG71" s="1"/>
+    </row>
+    <row r="72" spans="12:33" ht="15" customHeight="1">
+      <c r="L72" s="13"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+      <c r="AB72" s="1"/>
+      <c r="AC72" s="1"/>
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="1"/>
+      <c r="AF72" s="1"/>
+      <c r="AG72" s="1"/>
+    </row>
+    <row r="73" spans="12:33" ht="15" customHeight="1">
+      <c r="L73" s="13"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="1"/>
+      <c r="AD73" s="1"/>
+      <c r="AE73" s="1"/>
+      <c r="AF73" s="1"/>
+      <c r="AG73" s="1"/>
+    </row>
+    <row r="74" spans="12:33" ht="15" customHeight="1">
+      <c r="L74" s="13"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
+      <c r="AD74" s="1"/>
+      <c r="AE74" s="1"/>
+      <c r="AF74" s="1"/>
+      <c r="AG74" s="1"/>
+    </row>
+    <row r="75" spans="12:33" ht="15" customHeight="1">
+      <c r="L75" s="13"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="1"/>
+      <c r="AF75" s="1"/>
+      <c r="AG75" s="1"/>
+    </row>
+    <row r="76" spans="12:33" ht="15" customHeight="1">
+      <c r="L76" s="13"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
+      <c r="AC76" s="1"/>
+      <c r="AD76" s="1"/>
+      <c r="AE76" s="1"/>
+      <c r="AF76" s="1"/>
+      <c r="AG76" s="1"/>
+    </row>
+    <row r="77" spans="12:33" ht="15" customHeight="1">
+      <c r="L77" s="13"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="1"/>
+      <c r="AC77" s="1"/>
+      <c r="AD77" s="1"/>
+      <c r="AE77" s="1"/>
+      <c r="AF77" s="1"/>
+      <c r="AG77" s="1"/>
+    </row>
+    <row r="78" spans="12:33" ht="15" customHeight="1">
+      <c r="L78" s="13"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="1"/>
+    </row>
+    <row r="79" spans="12:33" ht="15" customHeight="1">
+      <c r="L79" s="13"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
+      <c r="AF79" s="1"/>
+      <c r="AG79" s="1"/>
+    </row>
+    <row r="80" spans="12:33" ht="15" customHeight="1">
+      <c r="L80" s="13"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="1"/>
+      <c r="AF80" s="1"/>
+      <c r="AG80" s="1"/>
+    </row>
+    <row r="81" spans="12:33" ht="15" customHeight="1">
+      <c r="L81" s="13"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="1"/>
+      <c r="AA81" s="1"/>
+      <c r="AB81" s="1"/>
+      <c r="AC81" s="1"/>
+      <c r="AD81" s="1"/>
+      <c r="AE81" s="1"/>
+      <c r="AF81" s="1"/>
+      <c r="AG81" s="1"/>
+    </row>
+    <row r="82" spans="12:33" ht="15" customHeight="1">
+      <c r="L82" s="13"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
+      <c r="AD82" s="1"/>
+      <c r="AE82" s="1"/>
+      <c r="AF82" s="1"/>
+      <c r="AG82" s="1"/>
+    </row>
+    <row r="83" spans="12:33" ht="15" customHeight="1">
+      <c r="L83" s="13"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="1"/>
+      <c r="AF83" s="1"/>
+      <c r="AG83" s="1"/>
+    </row>
+    <row r="84" spans="12:33" ht="15" customHeight="1">
+      <c r="L84" s="13"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1"/>
+      <c r="Z84" s="1"/>
+      <c r="AA84" s="1"/>
+      <c r="AB84" s="1"/>
+      <c r="AC84" s="1"/>
+      <c r="AD84" s="1"/>
+      <c r="AE84" s="1"/>
+      <c r="AF84" s="1"/>
+      <c r="AG84" s="1"/>
+    </row>
+    <row r="85" spans="12:33" ht="15" customHeight="1">
+      <c r="L85" s="13"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="1"/>
+      <c r="AA85" s="1"/>
+      <c r="AB85" s="1"/>
+      <c r="AC85" s="1"/>
+      <c r="AD85" s="1"/>
+      <c r="AE85" s="1"/>
+      <c r="AF85" s="1"/>
+      <c r="AG85" s="1"/>
+    </row>
+    <row r="86" spans="12:33" ht="15" customHeight="1">
+      <c r="L86" s="13"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
+      <c r="AA86" s="1"/>
+      <c r="AB86" s="1"/>
+      <c r="AC86" s="1"/>
+      <c r="AD86" s="1"/>
+      <c r="AE86" s="1"/>
+      <c r="AF86" s="1"/>
+      <c r="AG86" s="1"/>
+    </row>
+    <row r="87" spans="12:33" ht="15" customHeight="1">
+      <c r="L87" s="13"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
+      <c r="AA87" s="1"/>
+      <c r="AB87" s="1"/>
+      <c r="AC87" s="1"/>
+      <c r="AD87" s="1"/>
+      <c r="AE87" s="1"/>
+      <c r="AF87" s="1"/>
+      <c r="AG87" s="1"/>
+    </row>
+    <row r="88" spans="12:33" ht="15" customHeight="1">
+      <c r="L88" s="13"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
+      <c r="AA88" s="1"/>
+      <c r="AB88" s="1"/>
+      <c r="AC88" s="1"/>
+      <c r="AD88" s="1"/>
+      <c r="AE88" s="1"/>
+      <c r="AF88" s="1"/>
+      <c r="AG88" s="1"/>
+    </row>
+    <row r="89" spans="12:33" ht="15" customHeight="1">
+      <c r="L89" s="13"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1"/>
+      <c r="AA89" s="1"/>
+      <c r="AB89" s="1"/>
+      <c r="AC89" s="1"/>
+      <c r="AD89" s="1"/>
+      <c r="AE89" s="1"/>
+      <c r="AF89" s="1"/>
+      <c r="AG89" s="1"/>
+    </row>
+    <row r="90" spans="12:33" ht="15" customHeight="1">
+      <c r="L90" s="13"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
+      <c r="AB90" s="1"/>
+      <c r="AC90" s="1"/>
+      <c r="AD90" s="1"/>
+      <c r="AE90" s="1"/>
+      <c r="AF90" s="1"/>
+      <c r="AG90" s="1"/>
+    </row>
+    <row r="91" spans="12:33" ht="15" customHeight="1">
+      <c r="L91" s="13"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
+      <c r="AB91" s="1"/>
+      <c r="AC91" s="1"/>
+      <c r="AD91" s="1"/>
+      <c r="AE91" s="1"/>
+      <c r="AF91" s="1"/>
+      <c r="AG91" s="1"/>
+    </row>
+    <row r="92" spans="12:33" ht="15" customHeight="1">
+      <c r="L92" s="13"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+      <c r="Y92" s="1"/>
+      <c r="Z92" s="1"/>
+      <c r="AA92" s="1"/>
+      <c r="AB92" s="1"/>
+      <c r="AC92" s="1"/>
+      <c r="AD92" s="1"/>
+      <c r="AE92" s="1"/>
+      <c r="AF92" s="1"/>
+      <c r="AG92" s="1"/>
+    </row>
+    <row r="93" spans="12:33" ht="15" customHeight="1">
+      <c r="L93" s="13"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
+      <c r="AA93" s="1"/>
+      <c r="AB93" s="1"/>
+      <c r="AC93" s="1"/>
+      <c r="AD93" s="1"/>
+      <c r="AE93" s="1"/>
+      <c r="AF93" s="1"/>
+      <c r="AG93" s="1"/>
+    </row>
+    <row r="94" spans="12:33" ht="15" customHeight="1">
+      <c r="L94" s="13"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+      <c r="Y94" s="1"/>
+      <c r="Z94" s="1"/>
+      <c r="AA94" s="1"/>
+      <c r="AB94" s="1"/>
+      <c r="AC94" s="1"/>
+      <c r="AD94" s="1"/>
+      <c r="AE94" s="1"/>
+      <c r="AF94" s="1"/>
+      <c r="AG94" s="1"/>
+    </row>
+    <row r="95" spans="12:33" ht="15" customHeight="1">
+      <c r="L95" s="13"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+      <c r="Y95" s="1"/>
+      <c r="Z95" s="1"/>
+      <c r="AA95" s="1"/>
+      <c r="AB95" s="1"/>
+      <c r="AC95" s="1"/>
+      <c r="AD95" s="1"/>
+      <c r="AE95" s="1"/>
+      <c r="AF95" s="1"/>
+      <c r="AG95" s="1"/>
+    </row>
+    <row r="96" spans="12:33" ht="15" customHeight="1">
+      <c r="L96" s="13"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+      <c r="Y96" s="1"/>
+      <c r="Z96" s="1"/>
+      <c r="AA96" s="1"/>
+      <c r="AB96" s="1"/>
+      <c r="AC96" s="1"/>
+      <c r="AD96" s="1"/>
+      <c r="AE96" s="1"/>
+      <c r="AF96" s="1"/>
+      <c r="AG96" s="1"/>
+    </row>
+    <row r="97" spans="12:33" ht="15" customHeight="1">
+      <c r="L97" s="13"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
+      <c r="Y97" s="1"/>
+      <c r="Z97" s="1"/>
+      <c r="AA97" s="1"/>
+      <c r="AB97" s="1"/>
+      <c r="AC97" s="1"/>
+      <c r="AD97" s="1"/>
+      <c r="AE97" s="1"/>
+      <c r="AF97" s="1"/>
+      <c r="AG97" s="1"/>
+    </row>
+    <row r="98" spans="12:33" ht="15" customHeight="1">
+      <c r="L98" s="13"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+      <c r="AB98" s="1"/>
+      <c r="AC98" s="1"/>
+      <c r="AD98" s="1"/>
+      <c r="AE98" s="1"/>
+      <c r="AF98" s="1"/>
+      <c r="AG98" s="1"/>
+    </row>
+    <row r="99" spans="12:33" ht="15" customHeight="1">
+      <c r="L99" s="13"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="1"/>
+      <c r="AA99" s="1"/>
+      <c r="AB99" s="1"/>
+      <c r="AC99" s="1"/>
+      <c r="AD99" s="1"/>
+      <c r="AE99" s="1"/>
+      <c r="AF99" s="1"/>
+      <c r="AG99" s="1"/>
+    </row>
+    <row r="100" spans="12:33" ht="15" customHeight="1">
+      <c r="L100" s="13"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
+      <c r="Z100" s="1"/>
+      <c r="AA100" s="1"/>
+      <c r="AB100" s="1"/>
+      <c r="AC100" s="1"/>
+      <c r="AD100" s="1"/>
+      <c r="AE100" s="1"/>
+      <c r="AF100" s="1"/>
+      <c r="AG100" s="1"/>
+    </row>
+    <row r="101" spans="12:33" ht="15" customHeight="1">
+      <c r="L101" s="13"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="1"/>
+      <c r="AA101" s="1"/>
+      <c r="AB101" s="1"/>
+      <c r="AC101" s="1"/>
+      <c r="AD101" s="1"/>
+      <c r="AE101" s="1"/>
+      <c r="AF101" s="1"/>
+      <c r="AG101" s="1"/>
+    </row>
+    <row r="102" spans="12:33" ht="15" customHeight="1">
+      <c r="L102" s="13"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
+      <c r="Z102" s="1"/>
+      <c r="AA102" s="1"/>
+      <c r="AB102" s="1"/>
+      <c r="AC102" s="1"/>
+      <c r="AD102" s="1"/>
+      <c r="AE102" s="1"/>
+      <c r="AF102" s="1"/>
+      <c r="AG102" s="1"/>
+    </row>
+    <row r="103" spans="12:33" ht="15" customHeight="1">
+      <c r="L103" s="13"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
+      <c r="Y103" s="1"/>
+      <c r="Z103" s="1"/>
+      <c r="AA103" s="1"/>
+      <c r="AB103" s="1"/>
+      <c r="AC103" s="1"/>
+      <c r="AD103" s="1"/>
+      <c r="AE103" s="1"/>
+      <c r="AF103" s="1"/>
+      <c r="AG103" s="1"/>
+    </row>
+    <row r="104" spans="12:33" ht="15" customHeight="1">
+      <c r="L104" s="13"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="X104" s="1"/>
+      <c r="Y104" s="1"/>
+      <c r="Z104" s="1"/>
+      <c r="AA104" s="1"/>
+      <c r="AB104" s="1"/>
+      <c r="AC104" s="1"/>
+      <c r="AD104" s="1"/>
+      <c r="AE104" s="1"/>
+      <c r="AF104" s="1"/>
+      <c r="AG104" s="1"/>
+    </row>
+    <row r="105" spans="12:33" ht="15" customHeight="1">
+      <c r="L105" s="13"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+      <c r="Y105" s="1"/>
+      <c r="Z105" s="1"/>
+      <c r="AA105" s="1"/>
+      <c r="AB105" s="1"/>
+      <c r="AC105" s="1"/>
+      <c r="AD105" s="1"/>
+      <c r="AE105" s="1"/>
+      <c r="AF105" s="1"/>
+      <c r="AG105" s="1"/>
+    </row>
+    <row r="106" spans="12:33" ht="15" customHeight="1">
+      <c r="L106" s="13"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="X106" s="1"/>
+      <c r="Y106" s="1"/>
+      <c r="Z106" s="1"/>
+      <c r="AA106" s="1"/>
+      <c r="AB106" s="1"/>
+      <c r="AC106" s="1"/>
+      <c r="AD106" s="1"/>
+      <c r="AE106" s="1"/>
+      <c r="AF106" s="1"/>
+      <c r="AG106" s="1"/>
+    </row>
+    <row r="107" spans="12:33" ht="15" customHeight="1">
+      <c r="L107" s="13"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+      <c r="X107" s="1"/>
+      <c r="Y107" s="1"/>
+      <c r="Z107" s="1"/>
+      <c r="AA107" s="1"/>
+      <c r="AB107" s="1"/>
+      <c r="AC107" s="1"/>
+      <c r="AD107" s="1"/>
+      <c r="AE107" s="1"/>
+      <c r="AF107" s="1"/>
+      <c r="AG107" s="1"/>
+    </row>
+    <row r="108" spans="12:33" ht="15" customHeight="1">
+      <c r="L108" s="13"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
+      <c r="Y108" s="1"/>
+      <c r="Z108" s="1"/>
+      <c r="AA108" s="1"/>
+      <c r="AB108" s="1"/>
+      <c r="AC108" s="1"/>
+      <c r="AD108" s="1"/>
+      <c r="AE108" s="1"/>
+      <c r="AF108" s="1"/>
+      <c r="AG108" s="1"/>
+    </row>
+    <row r="109" spans="12:33" ht="15" customHeight="1">
+      <c r="L109" s="13"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="1"/>
+      <c r="Y109" s="1"/>
+      <c r="Z109" s="1"/>
+      <c r="AA109" s="1"/>
+      <c r="AB109" s="1"/>
+      <c r="AC109" s="1"/>
+      <c r="AD109" s="1"/>
+      <c r="AE109" s="1"/>
+      <c r="AF109" s="1"/>
+      <c r="AG109" s="1"/>
+    </row>
+    <row r="110" spans="12:33" ht="15" customHeight="1">
+      <c r="L110" s="13"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
+      <c r="X110" s="1"/>
+      <c r="Y110" s="1"/>
+      <c r="Z110" s="1"/>
+      <c r="AA110" s="1"/>
+      <c r="AB110" s="1"/>
+      <c r="AC110" s="1"/>
+      <c r="AD110" s="1"/>
+      <c r="AE110" s="1"/>
+      <c r="AF110" s="1"/>
+      <c r="AG110" s="1"/>
+    </row>
+    <row r="111" spans="12:33" ht="15" customHeight="1">
+      <c r="L111" s="13"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
+      <c r="U111" s="1"/>
+      <c r="V111" s="1"/>
+      <c r="W111" s="1"/>
+      <c r="X111" s="1"/>
+      <c r="Y111" s="1"/>
+      <c r="Z111" s="1"/>
+      <c r="AA111" s="1"/>
+      <c r="AB111" s="1"/>
+      <c r="AC111" s="1"/>
+      <c r="AD111" s="1"/>
+      <c r="AE111" s="1"/>
+      <c r="AF111" s="1"/>
+      <c r="AG111" s="1"/>
+    </row>
+    <row r="112" spans="12:33" ht="15" customHeight="1">
+      <c r="L112" s="13"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="1"/>
+      <c r="W112" s="1"/>
+      <c r="X112" s="1"/>
+      <c r="Y112" s="1"/>
+      <c r="Z112" s="1"/>
+      <c r="AA112" s="1"/>
+      <c r="AB112" s="1"/>
+      <c r="AC112" s="1"/>
+      <c r="AD112" s="1"/>
+      <c r="AE112" s="1"/>
+      <c r="AF112" s="1"/>
+      <c r="AG112" s="1"/>
+    </row>
+    <row r="113" spans="12:33" ht="15" customHeight="1">
+      <c r="L113" s="13"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+      <c r="T113" s="1"/>
+      <c r="U113" s="1"/>
+      <c r="V113" s="1"/>
+      <c r="W113" s="1"/>
+      <c r="X113" s="1"/>
+      <c r="Y113" s="1"/>
+      <c r="Z113" s="1"/>
+      <c r="AA113" s="1"/>
+      <c r="AB113" s="1"/>
+      <c r="AC113" s="1"/>
+      <c r="AD113" s="1"/>
+      <c r="AE113" s="1"/>
+      <c r="AF113" s="1"/>
+      <c r="AG113" s="1"/>
+    </row>
+    <row r="114" spans="12:33" ht="15" customHeight="1">
+      <c r="L114" s="13"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+      <c r="T114" s="1"/>
+      <c r="U114" s="1"/>
+      <c r="V114" s="1"/>
+      <c r="W114" s="1"/>
+      <c r="X114" s="1"/>
+      <c r="Y114" s="1"/>
+      <c r="Z114" s="1"/>
+      <c r="AA114" s="1"/>
+      <c r="AB114" s="1"/>
+      <c r="AC114" s="1"/>
+      <c r="AD114" s="1"/>
+      <c r="AE114" s="1"/>
+      <c r="AF114" s="1"/>
+      <c r="AG114" s="1"/>
+    </row>
+    <row r="115" spans="12:33" ht="15" customHeight="1">
+      <c r="L115" s="13"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+      <c r="T115" s="1"/>
+      <c r="U115" s="1"/>
+      <c r="V115" s="1"/>
+      <c r="W115" s="1"/>
+      <c r="X115" s="1"/>
+      <c r="Y115" s="1"/>
+      <c r="Z115" s="1"/>
+      <c r="AA115" s="1"/>
+      <c r="AB115" s="1"/>
+      <c r="AC115" s="1"/>
+      <c r="AD115" s="1"/>
+      <c r="AE115" s="1"/>
+      <c r="AF115" s="1"/>
+      <c r="AG115" s="1"/>
+    </row>
+    <row r="116" spans="12:33" ht="15" customHeight="1">
+      <c r="L116" s="13"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+      <c r="T116" s="1"/>
+      <c r="U116" s="1"/>
+      <c r="V116" s="1"/>
+      <c r="W116" s="1"/>
+      <c r="X116" s="1"/>
+      <c r="Y116" s="1"/>
+      <c r="Z116" s="1"/>
+      <c r="AA116" s="1"/>
+      <c r="AB116" s="1"/>
+      <c r="AC116" s="1"/>
+      <c r="AD116" s="1"/>
+      <c r="AE116" s="1"/>
+      <c r="AF116" s="1"/>
+      <c r="AG116" s="1"/>
+    </row>
+    <row r="117" spans="12:33" ht="15" customHeight="1">
+      <c r="L117" s="13"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="1"/>
+      <c r="U117" s="1"/>
+      <c r="V117" s="1"/>
+      <c r="W117" s="1"/>
+      <c r="X117" s="1"/>
+      <c r="Y117" s="1"/>
+      <c r="Z117" s="1"/>
+      <c r="AA117" s="1"/>
+      <c r="AB117" s="1"/>
+      <c r="AC117" s="1"/>
+      <c r="AD117" s="1"/>
+      <c r="AE117" s="1"/>
+      <c r="AF117" s="1"/>
+      <c r="AG117" s="1"/>
+    </row>
+    <row r="118" spans="12:33" ht="15" customHeight="1">
+      <c r="L118" s="13"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+      <c r="U118" s="1"/>
+      <c r="V118" s="1"/>
+      <c r="W118" s="1"/>
+      <c r="X118" s="1"/>
+      <c r="Y118" s="1"/>
+      <c r="Z118" s="1"/>
+      <c r="AA118" s="1"/>
+      <c r="AB118" s="1"/>
+      <c r="AC118" s="1"/>
+      <c r="AD118" s="1"/>
+      <c r="AE118" s="1"/>
+      <c r="AF118" s="1"/>
+      <c r="AG118" s="1"/>
+    </row>
+    <row r="119" spans="12:33" ht="15" customHeight="1">
+      <c r="L119" s="13"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
+      <c r="U119" s="1"/>
+      <c r="V119" s="1"/>
+      <c r="W119" s="1"/>
+      <c r="X119" s="1"/>
+      <c r="Y119" s="1"/>
+      <c r="Z119" s="1"/>
+      <c r="AA119" s="1"/>
+      <c r="AB119" s="1"/>
+      <c r="AC119" s="1"/>
+      <c r="AD119" s="1"/>
+      <c r="AE119" s="1"/>
+      <c r="AF119" s="1"/>
+      <c r="AG119" s="1"/>
+    </row>
+    <row r="120" spans="12:33" ht="15" customHeight="1">
+      <c r="L120" s="13"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
+      <c r="U120" s="1"/>
+      <c r="V120" s="1"/>
+      <c r="W120" s="1"/>
+      <c r="X120" s="1"/>
+      <c r="Y120" s="1"/>
+      <c r="Z120" s="1"/>
+      <c r="AA120" s="1"/>
+      <c r="AB120" s="1"/>
+      <c r="AC120" s="1"/>
+      <c r="AD120" s="1"/>
+      <c r="AE120" s="1"/>
+      <c r="AF120" s="1"/>
+      <c r="AG120" s="1"/>
+    </row>
+    <row r="121" spans="12:33" ht="15" customHeight="1">
+      <c r="L121" s="13"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
+      <c r="T121" s="1"/>
+      <c r="U121" s="1"/>
+      <c r="V121" s="1"/>
+      <c r="W121" s="1"/>
+      <c r="X121" s="1"/>
+      <c r="Y121" s="1"/>
+      <c r="Z121" s="1"/>
+      <c r="AA121" s="1"/>
+      <c r="AB121" s="1"/>
+      <c r="AC121" s="1"/>
+      <c r="AD121" s="1"/>
+      <c r="AE121" s="1"/>
+      <c r="AF121" s="1"/>
+      <c r="AG121" s="1"/>
+    </row>
+    <row r="122" spans="12:33" ht="15" customHeight="1">
+      <c r="L122" s="13"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
+      <c r="T122" s="1"/>
+      <c r="U122" s="1"/>
+      <c r="V122" s="1"/>
+      <c r="W122" s="1"/>
+      <c r="X122" s="1"/>
+      <c r="Y122" s="1"/>
+      <c r="Z122" s="1"/>
+      <c r="AA122" s="1"/>
+      <c r="AB122" s="1"/>
+      <c r="AC122" s="1"/>
+      <c r="AD122" s="1"/>
+      <c r="AE122" s="1"/>
+      <c r="AF122" s="1"/>
+      <c r="AG122" s="1"/>
+    </row>
+    <row r="123" spans="12:33" ht="15" customHeight="1">
+      <c r="L123" s="13"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
+      <c r="T123" s="1"/>
+      <c r="U123" s="1"/>
+      <c r="V123" s="1"/>
+      <c r="W123" s="1"/>
+      <c r="X123" s="1"/>
+      <c r="Y123" s="1"/>
+      <c r="Z123" s="1"/>
+      <c r="AA123" s="1"/>
+      <c r="AB123" s="1"/>
+      <c r="AC123" s="1"/>
+      <c r="AD123" s="1"/>
+      <c r="AE123" s="1"/>
+      <c r="AF123" s="1"/>
+      <c r="AG123" s="1"/>
+    </row>
+    <row r="124" spans="12:33" ht="15" customHeight="1">
+      <c r="L124" s="13"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
+      <c r="Q124" s="1"/>
+      <c r="R124" s="1"/>
+      <c r="S124" s="1"/>
+      <c r="T124" s="1"/>
+      <c r="U124" s="1"/>
+      <c r="V124" s="1"/>
+      <c r="W124" s="1"/>
+      <c r="X124" s="1"/>
+      <c r="Y124" s="1"/>
+      <c r="Z124" s="1"/>
+      <c r="AA124" s="1"/>
+      <c r="AB124" s="1"/>
+      <c r="AC124" s="1"/>
+      <c r="AD124" s="1"/>
+      <c r="AE124" s="1"/>
+      <c r="AF124" s="1"/>
+      <c r="AG124" s="1"/>
+    </row>
+    <row r="125" spans="12:33" ht="15" customHeight="1">
+      <c r="L125" s="13"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
+      <c r="Q125" s="1"/>
+      <c r="R125" s="1"/>
+      <c r="S125" s="1"/>
+      <c r="T125" s="1"/>
+      <c r="U125" s="1"/>
+      <c r="V125" s="1"/>
+      <c r="W125" s="1"/>
+      <c r="X125" s="1"/>
+      <c r="Y125" s="1"/>
+      <c r="Z125" s="1"/>
+      <c r="AA125" s="1"/>
+      <c r="AB125" s="1"/>
+      <c r="AC125" s="1"/>
+      <c r="AD125" s="1"/>
+      <c r="AE125" s="1"/>
+      <c r="AF125" s="1"/>
+      <c r="AG125" s="1"/>
+    </row>
+    <row r="126" spans="12:33" ht="15" customHeight="1">
+      <c r="L126" s="13"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="S126" s="1"/>
+      <c r="T126" s="1"/>
+      <c r="U126" s="1"/>
+      <c r="V126" s="1"/>
+      <c r="W126" s="1"/>
+      <c r="X126" s="1"/>
+      <c r="Y126" s="1"/>
+      <c r="Z126" s="1"/>
+      <c r="AA126" s="1"/>
+      <c r="AB126" s="1"/>
+      <c r="AC126" s="1"/>
+      <c r="AD126" s="1"/>
+      <c r="AE126" s="1"/>
+      <c r="AF126" s="1"/>
+      <c r="AG126" s="1"/>
+    </row>
+    <row r="127" spans="12:33" ht="15" customHeight="1">
+      <c r="L127" s="13"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="Q127" s="1"/>
+      <c r="R127" s="1"/>
+      <c r="S127" s="1"/>
+      <c r="T127" s="1"/>
+      <c r="U127" s="1"/>
+      <c r="V127" s="1"/>
+      <c r="W127" s="1"/>
+      <c r="X127" s="1"/>
+      <c r="Y127" s="1"/>
+      <c r="Z127" s="1"/>
+      <c r="AA127" s="1"/>
+      <c r="AB127" s="1"/>
+      <c r="AC127" s="1"/>
+      <c r="AD127" s="1"/>
+      <c r="AE127" s="1"/>
+      <c r="AF127" s="1"/>
+      <c r="AG127" s="1"/>
+    </row>
+    <row r="128" spans="12:33" ht="15" customHeight="1">
+      <c r="L128" s="13"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
+      <c r="Q128" s="1"/>
+      <c r="R128" s="1"/>
+      <c r="S128" s="1"/>
+      <c r="T128" s="1"/>
+      <c r="U128" s="1"/>
+      <c r="V128" s="1"/>
+      <c r="W128" s="1"/>
+      <c r="X128" s="1"/>
+      <c r="Y128" s="1"/>
+      <c r="Z128" s="1"/>
+      <c r="AA128" s="1"/>
+      <c r="AB128" s="1"/>
+      <c r="AC128" s="1"/>
+      <c r="AD128" s="1"/>
+      <c r="AE128" s="1"/>
+      <c r="AF128" s="1"/>
+      <c r="AG128" s="1"/>
+    </row>
+    <row r="129" spans="12:33" ht="15" customHeight="1">
+      <c r="L129" s="13"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
+      <c r="R129" s="1"/>
+      <c r="S129" s="1"/>
+      <c r="T129" s="1"/>
+      <c r="U129" s="1"/>
+      <c r="V129" s="1"/>
+      <c r="W129" s="1"/>
+      <c r="X129" s="1"/>
+      <c r="Y129" s="1"/>
+      <c r="Z129" s="1"/>
+      <c r="AA129" s="1"/>
+      <c r="AB129" s="1"/>
+      <c r="AC129" s="1"/>
+      <c r="AD129" s="1"/>
+      <c r="AE129" s="1"/>
+      <c r="AF129" s="1"/>
+      <c r="AG129" s="1"/>
+    </row>
+    <row r="130" spans="12:33" ht="15" customHeight="1">
+      <c r="L130" s="13"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="1"/>
+      <c r="Q130" s="1"/>
+      <c r="R130" s="1"/>
+      <c r="S130" s="1"/>
+      <c r="T130" s="1"/>
+      <c r="U130" s="1"/>
+      <c r="V130" s="1"/>
+      <c r="W130" s="1"/>
+      <c r="X130" s="1"/>
+      <c r="Y130" s="1"/>
+      <c r="Z130" s="1"/>
+      <c r="AA130" s="1"/>
+      <c r="AB130" s="1"/>
+      <c r="AC130" s="1"/>
+      <c r="AD130" s="1"/>
+      <c r="AE130" s="1"/>
+      <c r="AF130" s="1"/>
+      <c r="AG130" s="1"/>
+    </row>
+    <row r="131" spans="12:33" ht="15" customHeight="1">
+      <c r="L131" s="13"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="1"/>
+      <c r="Q131" s="1"/>
+      <c r="R131" s="1"/>
+      <c r="S131" s="1"/>
+      <c r="T131" s="1"/>
+      <c r="U131" s="1"/>
+      <c r="V131" s="1"/>
+      <c r="W131" s="1"/>
+      <c r="X131" s="1"/>
+      <c r="Y131" s="1"/>
+      <c r="Z131" s="1"/>
+      <c r="AA131" s="1"/>
+      <c r="AB131" s="1"/>
+      <c r="AC131" s="1"/>
+      <c r="AD131" s="1"/>
+      <c r="AE131" s="1"/>
+      <c r="AF131" s="1"/>
+      <c r="AG131" s="1"/>
+    </row>
+    <row r="132" spans="12:33" ht="15" customHeight="1">
+      <c r="L132" s="13"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+      <c r="O132" s="1"/>
+      <c r="P132" s="1"/>
+      <c r="Q132" s="1"/>
+      <c r="R132" s="1"/>
+      <c r="S132" s="1"/>
+      <c r="T132" s="1"/>
+      <c r="U132" s="1"/>
+      <c r="V132" s="1"/>
+      <c r="W132" s="1"/>
+      <c r="X132" s="1"/>
+      <c r="Y132" s="1"/>
+      <c r="Z132" s="1"/>
+      <c r="AA132" s="1"/>
+      <c r="AB132" s="1"/>
+      <c r="AC132" s="1"/>
+      <c r="AD132" s="1"/>
+      <c r="AE132" s="1"/>
+      <c r="AF132" s="1"/>
+      <c r="AG132" s="1"/>
+    </row>
+    <row r="133" spans="12:33" ht="15" customHeight="1">
+      <c r="L133" s="13"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+      <c r="O133" s="1"/>
+      <c r="P133" s="1"/>
+      <c r="Q133" s="1"/>
+      <c r="R133" s="1"/>
+      <c r="S133" s="1"/>
+      <c r="T133" s="1"/>
+      <c r="U133" s="1"/>
+      <c r="V133" s="1"/>
+      <c r="W133" s="1"/>
+      <c r="X133" s="1"/>
+      <c r="Y133" s="1"/>
+      <c r="Z133" s="1"/>
+      <c r="AA133" s="1"/>
+      <c r="AB133" s="1"/>
+      <c r="AC133" s="1"/>
+      <c r="AD133" s="1"/>
+      <c r="AE133" s="1"/>
+      <c r="AF133" s="1"/>
+      <c r="AG133" s="1"/>
+    </row>
+    <row r="134" spans="12:33" ht="15" customHeight="1">
+      <c r="L134" s="13"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
+      <c r="R134" s="1"/>
+      <c r="S134" s="1"/>
+      <c r="T134" s="1"/>
+      <c r="U134" s="1"/>
+      <c r="V134" s="1"/>
+      <c r="W134" s="1"/>
+      <c r="X134" s="1"/>
+      <c r="Y134" s="1"/>
+      <c r="Z134" s="1"/>
+      <c r="AA134" s="1"/>
+      <c r="AB134" s="1"/>
+      <c r="AC134" s="1"/>
+      <c r="AD134" s="1"/>
+      <c r="AE134" s="1"/>
+      <c r="AF134" s="1"/>
+      <c r="AG134" s="1"/>
+    </row>
+    <row r="135" spans="12:33" ht="15" customHeight="1">
+      <c r="L135" s="13"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+      <c r="O135" s="1"/>
+      <c r="P135" s="1"/>
+      <c r="Q135" s="1"/>
+      <c r="R135" s="1"/>
+      <c r="S135" s="1"/>
+      <c r="T135" s="1"/>
+      <c r="U135" s="1"/>
+      <c r="V135" s="1"/>
+      <c r="W135" s="1"/>
+      <c r="X135" s="1"/>
+      <c r="Y135" s="1"/>
+      <c r="Z135" s="1"/>
+      <c r="AA135" s="1"/>
+      <c r="AB135" s="1"/>
+      <c r="AC135" s="1"/>
+      <c r="AD135" s="1"/>
+      <c r="AE135" s="1"/>
+      <c r="AF135" s="1"/>
+      <c r="AG135" s="1"/>
+    </row>
+    <row r="136" spans="12:33" ht="15" customHeight="1">
+      <c r="L136" s="13"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+      <c r="O136" s="1"/>
+      <c r="P136" s="1"/>
+      <c r="Q136" s="1"/>
+      <c r="R136" s="1"/>
+      <c r="S136" s="1"/>
+      <c r="T136" s="1"/>
+      <c r="U136" s="1"/>
+      <c r="V136" s="1"/>
+      <c r="W136" s="1"/>
+      <c r="X136" s="1"/>
+      <c r="Y136" s="1"/>
+      <c r="Z136" s="1"/>
+      <c r="AA136" s="1"/>
+      <c r="AB136" s="1"/>
+      <c r="AC136" s="1"/>
+      <c r="AD136" s="1"/>
+      <c r="AE136" s="1"/>
+      <c r="AF136" s="1"/>
+      <c r="AG136" s="1"/>
+    </row>
+    <row r="137" spans="12:33" ht="15" customHeight="1">
+      <c r="L137" s="13"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+      <c r="O137" s="1"/>
+      <c r="P137" s="1"/>
+      <c r="Q137" s="1"/>
+      <c r="R137" s="1"/>
+      <c r="S137" s="1"/>
+      <c r="T137" s="1"/>
+      <c r="U137" s="1"/>
+      <c r="V137" s="1"/>
+      <c r="W137" s="1"/>
+      <c r="X137" s="1"/>
+      <c r="Y137" s="1"/>
+      <c r="Z137" s="1"/>
+      <c r="AA137" s="1"/>
+      <c r="AB137" s="1"/>
+      <c r="AC137" s="1"/>
+      <c r="AD137" s="1"/>
+      <c r="AE137" s="1"/>
+      <c r="AF137" s="1"/>
+      <c r="AG137" s="1"/>
+    </row>
+    <row r="138" spans="12:33" ht="15" customHeight="1">
+      <c r="L138" s="13"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+      <c r="O138" s="1"/>
+      <c r="P138" s="1"/>
+      <c r="Q138" s="1"/>
+      <c r="R138" s="1"/>
+      <c r="S138" s="1"/>
+      <c r="T138" s="1"/>
+      <c r="U138" s="1"/>
+      <c r="V138" s="1"/>
+      <c r="W138" s="1"/>
+      <c r="X138" s="1"/>
+      <c r="Y138" s="1"/>
+      <c r="Z138" s="1"/>
+      <c r="AA138" s="1"/>
+      <c r="AB138" s="1"/>
+      <c r="AC138" s="1"/>
+      <c r="AD138" s="1"/>
+      <c r="AE138" s="1"/>
+      <c r="AF138" s="1"/>
+      <c r="AG138" s="1"/>
+    </row>
+    <row r="139" spans="12:33" ht="15" customHeight="1">
+      <c r="L139" s="13"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+      <c r="O139" s="1"/>
+      <c r="P139" s="1"/>
+      <c r="Q139" s="1"/>
+      <c r="R139" s="1"/>
+      <c r="S139" s="1"/>
+      <c r="T139" s="1"/>
+      <c r="U139" s="1"/>
+      <c r="V139" s="1"/>
+      <c r="W139" s="1"/>
+      <c r="X139" s="1"/>
+      <c r="Y139" s="1"/>
+      <c r="Z139" s="1"/>
+      <c r="AA139" s="1"/>
+      <c r="AB139" s="1"/>
+      <c r="AC139" s="1"/>
+      <c r="AD139" s="1"/>
+      <c r="AE139" s="1"/>
+      <c r="AF139" s="1"/>
+      <c r="AG139" s="1"/>
+    </row>
+    <row r="140" spans="12:33" ht="15" customHeight="1">
+      <c r="L140" s="13"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+      <c r="O140" s="1"/>
+      <c r="P140" s="1"/>
+      <c r="Q140" s="1"/>
+      <c r="R140" s="1"/>
+      <c r="S140" s="1"/>
+      <c r="T140" s="1"/>
+      <c r="U140" s="1"/>
+      <c r="V140" s="1"/>
+      <c r="W140" s="1"/>
+      <c r="X140" s="1"/>
+      <c r="Y140" s="1"/>
+      <c r="Z140" s="1"/>
+      <c r="AA140" s="1"/>
+      <c r="AB140" s="1"/>
+      <c r="AC140" s="1"/>
+      <c r="AD140" s="1"/>
+      <c r="AE140" s="1"/>
+      <c r="AF140" s="1"/>
+      <c r="AG140" s="1"/>
+    </row>
+    <row r="141" spans="12:33" ht="15" customHeight="1">
+      <c r="L141" s="13"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+      <c r="O141" s="1"/>
+      <c r="P141" s="1"/>
+      <c r="Q141" s="1"/>
+      <c r="R141" s="1"/>
+      <c r="S141" s="1"/>
+      <c r="T141" s="1"/>
+      <c r="U141" s="1"/>
+      <c r="V141" s="1"/>
+      <c r="W141" s="1"/>
+      <c r="X141" s="1"/>
+      <c r="Y141" s="1"/>
+      <c r="Z141" s="1"/>
+      <c r="AA141" s="1"/>
+      <c r="AB141" s="1"/>
+      <c r="AC141" s="1"/>
+      <c r="AD141" s="1"/>
+      <c r="AE141" s="1"/>
+      <c r="AF141" s="1"/>
+      <c r="AG141" s="1"/>
+    </row>
+    <row r="142" spans="12:33" ht="15" customHeight="1">
+      <c r="L142" s="13"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+      <c r="O142" s="1"/>
+      <c r="P142" s="1"/>
+      <c r="Q142" s="1"/>
+      <c r="R142" s="1"/>
+      <c r="S142" s="1"/>
+      <c r="T142" s="1"/>
+      <c r="U142" s="1"/>
+      <c r="V142" s="1"/>
+      <c r="W142" s="1"/>
+      <c r="X142" s="1"/>
+      <c r="Y142" s="1"/>
+      <c r="Z142" s="1"/>
+      <c r="AA142" s="1"/>
+      <c r="AB142" s="1"/>
+      <c r="AC142" s="1"/>
+      <c r="AD142" s="1"/>
+      <c r="AE142" s="1"/>
+      <c r="AF142" s="1"/>
+      <c r="AG142" s="1"/>
+    </row>
+    <row r="143" spans="12:33" ht="15" customHeight="1">
+      <c r="L143" s="13"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+      <c r="O143" s="1"/>
+      <c r="P143" s="1"/>
+      <c r="Q143" s="1"/>
+      <c r="R143" s="1"/>
+      <c r="S143" s="1"/>
+      <c r="T143" s="1"/>
+      <c r="U143" s="1"/>
+      <c r="V143" s="1"/>
+      <c r="W143" s="1"/>
+      <c r="X143" s="1"/>
+      <c r="Y143" s="1"/>
+      <c r="Z143" s="1"/>
+      <c r="AA143" s="1"/>
+      <c r="AB143" s="1"/>
+      <c r="AC143" s="1"/>
+      <c r="AD143" s="1"/>
+      <c r="AE143" s="1"/>
+      <c r="AF143" s="1"/>
+      <c r="AG143" s="1"/>
+    </row>
+    <row r="144" spans="12:33" ht="15" customHeight="1">
+      <c r="L144" s="13"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+      <c r="O144" s="1"/>
+      <c r="P144" s="1"/>
+      <c r="Q144" s="1"/>
+      <c r="R144" s="1"/>
+      <c r="S144" s="1"/>
+      <c r="T144" s="1"/>
+      <c r="U144" s="1"/>
+      <c r="V144" s="1"/>
+      <c r="W144" s="1"/>
+      <c r="X144" s="1"/>
+      <c r="Y144" s="1"/>
+      <c r="Z144" s="1"/>
+      <c r="AA144" s="1"/>
+      <c r="AB144" s="1"/>
+      <c r="AC144" s="1"/>
+      <c r="AD144" s="1"/>
+      <c r="AE144" s="1"/>
+      <c r="AF144" s="1"/>
+      <c r="AG144" s="1"/>
+    </row>
+    <row r="145" spans="12:33" ht="15" customHeight="1">
+      <c r="L145" s="13"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="1"/>
+      <c r="Q145" s="1"/>
+      <c r="R145" s="1"/>
+      <c r="S145" s="1"/>
+      <c r="T145" s="1"/>
+      <c r="U145" s="1"/>
+      <c r="V145" s="1"/>
+      <c r="W145" s="1"/>
+      <c r="X145" s="1"/>
+      <c r="Y145" s="1"/>
+      <c r="Z145" s="1"/>
+      <c r="AA145" s="1"/>
+      <c r="AB145" s="1"/>
+      <c r="AC145" s="1"/>
+      <c r="AD145" s="1"/>
+      <c r="AE145" s="1"/>
+      <c r="AF145" s="1"/>
+      <c r="AG145" s="1"/>
+    </row>
+    <row r="146" spans="12:33" ht="15" customHeight="1">
+      <c r="L146" s="13"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+      <c r="O146" s="1"/>
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
+      <c r="R146" s="1"/>
+      <c r="S146" s="1"/>
+      <c r="T146" s="1"/>
+      <c r="U146" s="1"/>
+      <c r="V146" s="1"/>
+      <c r="W146" s="1"/>
+      <c r="X146" s="1"/>
+      <c r="Y146" s="1"/>
+      <c r="Z146" s="1"/>
+      <c r="AA146" s="1"/>
+      <c r="AB146" s="1"/>
+      <c r="AC146" s="1"/>
+      <c r="AD146" s="1"/>
+      <c r="AE146" s="1"/>
+      <c r="AF146" s="1"/>
+      <c r="AG146" s="1"/>
+    </row>
+    <row r="147" spans="12:33" ht="15" customHeight="1">
+      <c r="L147" s="13"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+      <c r="O147" s="1"/>
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
+      <c r="R147" s="1"/>
+      <c r="S147" s="1"/>
+      <c r="T147" s="1"/>
+      <c r="U147" s="1"/>
+      <c r="V147" s="1"/>
+      <c r="W147" s="1"/>
+      <c r="X147" s="1"/>
+      <c r="Y147" s="1"/>
+      <c r="Z147" s="1"/>
+      <c r="AA147" s="1"/>
+      <c r="AB147" s="1"/>
+      <c r="AC147" s="1"/>
+      <c r="AD147" s="1"/>
+      <c r="AE147" s="1"/>
+      <c r="AF147" s="1"/>
+      <c r="AG147" s="1"/>
+    </row>
+    <row r="148" spans="12:33" ht="15" customHeight="1">
+      <c r="L148" s="13"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+      <c r="O148" s="1"/>
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1"/>
+      <c r="R148" s="1"/>
+      <c r="S148" s="1"/>
+      <c r="T148" s="1"/>
+      <c r="U148" s="1"/>
+      <c r="V148" s="1"/>
+      <c r="W148" s="1"/>
+      <c r="X148" s="1"/>
+      <c r="Y148" s="1"/>
+      <c r="Z148" s="1"/>
+      <c r="AA148" s="1"/>
+      <c r="AB148" s="1"/>
+      <c r="AC148" s="1"/>
+      <c r="AD148" s="1"/>
+      <c r="AE148" s="1"/>
+      <c r="AF148" s="1"/>
+      <c r="AG148" s="1"/>
+    </row>
+    <row r="149" spans="12:33" ht="15" customHeight="1">
+      <c r="L149" s="13"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
+      <c r="P149" s="1"/>
+      <c r="Q149" s="1"/>
+      <c r="R149" s="1"/>
+      <c r="S149" s="1"/>
+      <c r="T149" s="1"/>
+      <c r="U149" s="1"/>
+      <c r="V149" s="1"/>
+      <c r="W149" s="1"/>
+      <c r="X149" s="1"/>
+      <c r="Y149" s="1"/>
+      <c r="Z149" s="1"/>
+      <c r="AA149" s="1"/>
+      <c r="AB149" s="1"/>
+      <c r="AC149" s="1"/>
+      <c r="AD149" s="1"/>
+      <c r="AE149" s="1"/>
+      <c r="AF149" s="1"/>
+      <c r="AG149" s="1"/>
+    </row>
+    <row r="150" spans="12:33" ht="15" customHeight="1">
+      <c r="L150" s="13"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+      <c r="R150" s="1"/>
+      <c r="S150" s="1"/>
+      <c r="T150" s="1"/>
+      <c r="U150" s="1"/>
+      <c r="V150" s="1"/>
+      <c r="W150" s="1"/>
+      <c r="X150" s="1"/>
+      <c r="Y150" s="1"/>
+      <c r="Z150" s="1"/>
+      <c r="AA150" s="1"/>
+      <c r="AB150" s="1"/>
+      <c r="AC150" s="1"/>
+      <c r="AD150" s="1"/>
+      <c r="AE150" s="1"/>
+      <c r="AF150" s="1"/>
+      <c r="AG150" s="1"/>
+    </row>
+    <row r="151" spans="12:33" ht="15" customHeight="1">
+      <c r="L151" s="13"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
+      <c r="R151" s="1"/>
+      <c r="S151" s="1"/>
+      <c r="T151" s="1"/>
+      <c r="U151" s="1"/>
+      <c r="V151" s="1"/>
+      <c r="W151" s="1"/>
+      <c r="X151" s="1"/>
+      <c r="Y151" s="1"/>
+      <c r="Z151" s="1"/>
+      <c r="AA151" s="1"/>
+      <c r="AB151" s="1"/>
+      <c r="AC151" s="1"/>
+      <c r="AD151" s="1"/>
+      <c r="AE151" s="1"/>
+      <c r="AF151" s="1"/>
+      <c r="AG151" s="1"/>
+    </row>
+    <row r="152" spans="12:33" ht="15" customHeight="1">
+      <c r="L152" s="13"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+      <c r="O152" s="1"/>
+      <c r="P152" s="1"/>
+      <c r="Q152" s="1"/>
+      <c r="R152" s="1"/>
+      <c r="S152" s="1"/>
+      <c r="T152" s="1"/>
+      <c r="U152" s="1"/>
+      <c r="V152" s="1"/>
+      <c r="W152" s="1"/>
+      <c r="X152" s="1"/>
+      <c r="Y152" s="1"/>
+      <c r="Z152" s="1"/>
+      <c r="AA152" s="1"/>
+      <c r="AB152" s="1"/>
+      <c r="AC152" s="1"/>
+      <c r="AD152" s="1"/>
+      <c r="AE152" s="1"/>
+      <c r="AF152" s="1"/>
+      <c r="AG152" s="1"/>
+    </row>
+    <row r="153" spans="12:33" ht="15" customHeight="1">
+      <c r="L153" s="13"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+      <c r="O153" s="1"/>
+      <c r="P153" s="1"/>
+      <c r="Q153" s="1"/>
+      <c r="R153" s="1"/>
+      <c r="S153" s="1"/>
+      <c r="T153" s="1"/>
+      <c r="U153" s="1"/>
+      <c r="V153" s="1"/>
+      <c r="W153" s="1"/>
+      <c r="X153" s="1"/>
+      <c r="Y153" s="1"/>
+      <c r="Z153" s="1"/>
+      <c r="AA153" s="1"/>
+      <c r="AB153" s="1"/>
+      <c r="AC153" s="1"/>
+      <c r="AD153" s="1"/>
+      <c r="AE153" s="1"/>
+      <c r="AF153" s="1"/>
+      <c r="AG153" s="1"/>
+    </row>
+    <row r="154" spans="12:33" ht="15" customHeight="1">
+      <c r="L154" s="13"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+      <c r="O154" s="1"/>
+      <c r="P154" s="1"/>
+      <c r="Q154" s="1"/>
+      <c r="R154" s="1"/>
+      <c r="S154" s="1"/>
+      <c r="T154" s="1"/>
+      <c r="U154" s="1"/>
+      <c r="V154" s="1"/>
+      <c r="W154" s="1"/>
+      <c r="X154" s="1"/>
+      <c r="Y154" s="1"/>
+      <c r="Z154" s="1"/>
+      <c r="AA154" s="1"/>
+      <c r="AB154" s="1"/>
+      <c r="AC154" s="1"/>
+      <c r="AD154" s="1"/>
+      <c r="AE154" s="1"/>
+      <c r="AF154" s="1"/>
+      <c r="AG154" s="1"/>
+    </row>
+    <row r="155" spans="12:33" ht="15" customHeight="1">
+      <c r="L155" s="13"/>
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
+      <c r="O155" s="1"/>
+      <c r="P155" s="1"/>
+      <c r="Q155" s="1"/>
+      <c r="R155" s="1"/>
+      <c r="S155" s="1"/>
+      <c r="T155" s="1"/>
+      <c r="U155" s="1"/>
+      <c r="V155" s="1"/>
+      <c r="W155" s="1"/>
+      <c r="X155" s="1"/>
+      <c r="Y155" s="1"/>
+      <c r="Z155" s="1"/>
+      <c r="AA155" s="1"/>
+      <c r="AB155" s="1"/>
+      <c r="AC155" s="1"/>
+      <c r="AD155" s="1"/>
+      <c r="AE155" s="1"/>
+      <c r="AF155" s="1"/>
+      <c r="AG155" s="1"/>
+    </row>
+    <row r="156" spans="12:33" ht="15" customHeight="1">
+      <c r="L156" s="13"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
+      <c r="P156" s="1"/>
+      <c r="Q156" s="1"/>
+      <c r="R156" s="1"/>
+      <c r="S156" s="1"/>
+      <c r="T156" s="1"/>
+      <c r="U156" s="1"/>
+      <c r="V156" s="1"/>
+      <c r="W156" s="1"/>
+      <c r="X156" s="1"/>
+      <c r="Y156" s="1"/>
+      <c r="Z156" s="1"/>
+      <c r="AA156" s="1"/>
+      <c r="AB156" s="1"/>
+      <c r="AC156" s="1"/>
+      <c r="AD156" s="1"/>
+      <c r="AE156" s="1"/>
+      <c r="AF156" s="1"/>
+      <c r="AG156" s="1"/>
+    </row>
+    <row r="157" spans="12:33" ht="15" customHeight="1">
+      <c r="L157" s="13"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
+      <c r="P157" s="1"/>
+      <c r="Q157" s="1"/>
+      <c r="R157" s="1"/>
+      <c r="S157" s="1"/>
+      <c r="T157" s="1"/>
+      <c r="U157" s="1"/>
+      <c r="V157" s="1"/>
+      <c r="W157" s="1"/>
+      <c r="X157" s="1"/>
+      <c r="Y157" s="1"/>
+      <c r="Z157" s="1"/>
+      <c r="AA157" s="1"/>
+      <c r="AB157" s="1"/>
+      <c r="AC157" s="1"/>
+      <c r="AD157" s="1"/>
+      <c r="AE157" s="1"/>
+      <c r="AF157" s="1"/>
+      <c r="AG157" s="1"/>
+    </row>
+    <row r="158" spans="12:33" ht="15" customHeight="1">
+      <c r="L158" s="13"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+      <c r="O158" s="1"/>
+      <c r="P158" s="1"/>
+      <c r="Q158" s="1"/>
+      <c r="R158" s="1"/>
+      <c r="S158" s="1"/>
+      <c r="T158" s="1"/>
+      <c r="U158" s="1"/>
+      <c r="V158" s="1"/>
+      <c r="W158" s="1"/>
+      <c r="X158" s="1"/>
+      <c r="Y158" s="1"/>
+      <c r="Z158" s="1"/>
+      <c r="AA158" s="1"/>
+      <c r="AB158" s="1"/>
+      <c r="AC158" s="1"/>
+      <c r="AD158" s="1"/>
+      <c r="AE158" s="1"/>
+      <c r="AF158" s="1"/>
+      <c r="AG158" s="1"/>
+    </row>
+    <row r="159" spans="12:33" ht="15" customHeight="1">
+      <c r="L159" s="13"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
+      <c r="P159" s="1"/>
+      <c r="Q159" s="1"/>
+      <c r="R159" s="1"/>
+      <c r="S159" s="1"/>
+      <c r="T159" s="1"/>
+      <c r="U159" s="1"/>
+      <c r="V159" s="1"/>
+      <c r="W159" s="1"/>
+      <c r="X159" s="1"/>
+      <c r="Y159" s="1"/>
+      <c r="Z159" s="1"/>
+      <c r="AA159" s="1"/>
+      <c r="AB159" s="1"/>
+      <c r="AC159" s="1"/>
+      <c r="AD159" s="1"/>
+      <c r="AE159" s="1"/>
+      <c r="AF159" s="1"/>
+      <c r="AG159" s="1"/>
+    </row>
+    <row r="160" spans="12:33" ht="15" customHeight="1">
+      <c r="L160" s="13"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+      <c r="O160" s="1"/>
+      <c r="P160" s="1"/>
+      <c r="Q160" s="1"/>
+      <c r="R160" s="1"/>
+      <c r="S160" s="1"/>
+      <c r="T160" s="1"/>
+      <c r="U160" s="1"/>
+      <c r="V160" s="1"/>
+      <c r="W160" s="1"/>
+      <c r="X160" s="1"/>
+      <c r="Y160" s="1"/>
+      <c r="Z160" s="1"/>
+      <c r="AA160" s="1"/>
+      <c r="AB160" s="1"/>
+      <c r="AC160" s="1"/>
+      <c r="AD160" s="1"/>
+      <c r="AE160" s="1"/>
+      <c r="AF160" s="1"/>
+      <c r="AG160" s="1"/>
+    </row>
+    <row r="161" spans="12:33" ht="15" customHeight="1">
+      <c r="L161" s="13"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+      <c r="O161" s="1"/>
+      <c r="P161" s="1"/>
+      <c r="Q161" s="1"/>
+      <c r="R161" s="1"/>
+      <c r="S161" s="1"/>
+      <c r="T161" s="1"/>
+      <c r="U161" s="1"/>
+      <c r="V161" s="1"/>
+      <c r="W161" s="1"/>
+      <c r="X161" s="1"/>
+      <c r="Y161" s="1"/>
+      <c r="Z161" s="1"/>
+      <c r="AA161" s="1"/>
+      <c r="AB161" s="1"/>
+      <c r="AC161" s="1"/>
+      <c r="AD161" s="1"/>
+      <c r="AE161" s="1"/>
+      <c r="AF161" s="1"/>
+      <c r="AG161" s="1"/>
+    </row>
+    <row r="162" spans="12:33" ht="15" customHeight="1">
+      <c r="L162" s="13"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+      <c r="O162" s="1"/>
+      <c r="P162" s="1"/>
+      <c r="Q162" s="1"/>
+      <c r="R162" s="1"/>
+      <c r="S162" s="1"/>
+      <c r="T162" s="1"/>
+      <c r="U162" s="1"/>
+      <c r="V162" s="1"/>
+      <c r="W162" s="1"/>
+      <c r="X162" s="1"/>
+      <c r="Y162" s="1"/>
+      <c r="Z162" s="1"/>
+      <c r="AA162" s="1"/>
+      <c r="AB162" s="1"/>
+      <c r="AC162" s="1"/>
+      <c r="AD162" s="1"/>
+      <c r="AE162" s="1"/>
+      <c r="AF162" s="1"/>
+      <c r="AG162" s="1"/>
+    </row>
+    <row r="163" spans="12:33" ht="15" customHeight="1">
+      <c r="L163" s="13"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+      <c r="O163" s="1"/>
+      <c r="P163" s="1"/>
+      <c r="Q163" s="1"/>
+      <c r="R163" s="1"/>
+      <c r="S163" s="1"/>
+      <c r="T163" s="1"/>
+      <c r="U163" s="1"/>
+      <c r="V163" s="1"/>
+      <c r="W163" s="1"/>
+      <c r="X163" s="1"/>
+      <c r="Y163" s="1"/>
+      <c r="Z163" s="1"/>
+      <c r="AA163" s="1"/>
+      <c r="AB163" s="1"/>
+      <c r="AC163" s="1"/>
+      <c r="AD163" s="1"/>
+      <c r="AE163" s="1"/>
+      <c r="AF163" s="1"/>
+      <c r="AG163" s="1"/>
+    </row>
+    <row r="164" spans="12:33" ht="15" customHeight="1">
+      <c r="L164" s="13"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+      <c r="O164" s="1"/>
+      <c r="P164" s="1"/>
+      <c r="Q164" s="1"/>
+      <c r="R164" s="1"/>
+      <c r="S164" s="1"/>
+      <c r="T164" s="1"/>
+      <c r="U164" s="1"/>
+      <c r="V164" s="1"/>
+      <c r="W164" s="1"/>
+      <c r="X164" s="1"/>
+      <c r="Y164" s="1"/>
+      <c r="Z164" s="1"/>
+      <c r="AA164" s="1"/>
+      <c r="AB164" s="1"/>
+      <c r="AC164" s="1"/>
+      <c r="AD164" s="1"/>
+      <c r="AE164" s="1"/>
+      <c r="AF164" s="1"/>
+      <c r="AG164" s="1"/>
+    </row>
+    <row r="165" spans="12:33" ht="15" customHeight="1">
+      <c r="L165" s="13"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+      <c r="O165" s="1"/>
+      <c r="P165" s="1"/>
+      <c r="Q165" s="1"/>
+      <c r="R165" s="1"/>
+      <c r="S165" s="1"/>
+      <c r="T165" s="1"/>
+      <c r="U165" s="1"/>
+      <c r="V165" s="1"/>
+      <c r="W165" s="1"/>
+      <c r="X165" s="1"/>
+      <c r="Y165" s="1"/>
+      <c r="Z165" s="1"/>
+      <c r="AA165" s="1"/>
+      <c r="AB165" s="1"/>
+      <c r="AC165" s="1"/>
+      <c r="AD165" s="1"/>
+      <c r="AE165" s="1"/>
+      <c r="AF165" s="1"/>
+      <c r="AG165" s="1"/>
+    </row>
+    <row r="166" spans="12:33" ht="15" customHeight="1">
+      <c r="L166" s="13"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+      <c r="O166" s="1"/>
+      <c r="P166" s="1"/>
+      <c r="Q166" s="1"/>
+      <c r="R166" s="1"/>
+      <c r="S166" s="1"/>
+      <c r="T166" s="1"/>
+      <c r="U166" s="1"/>
+      <c r="V166" s="1"/>
+      <c r="W166" s="1"/>
+      <c r="X166" s="1"/>
+      <c r="Y166" s="1"/>
+      <c r="Z166" s="1"/>
+      <c r="AA166" s="1"/>
+      <c r="AB166" s="1"/>
+      <c r="AC166" s="1"/>
+      <c r="AD166" s="1"/>
+      <c r="AE166" s="1"/>
+      <c r="AF166" s="1"/>
+      <c r="AG166" s="1"/>
+    </row>
+    <row r="167" spans="12:33" ht="15" customHeight="1">
+      <c r="L167" s="13"/>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+      <c r="O167" s="1"/>
+      <c r="P167" s="1"/>
+      <c r="Q167" s="1"/>
+      <c r="R167" s="1"/>
+      <c r="S167" s="1"/>
+      <c r="T167" s="1"/>
+      <c r="U167" s="1"/>
+      <c r="V167" s="1"/>
+      <c r="W167" s="1"/>
+      <c r="X167" s="1"/>
+      <c r="Y167" s="1"/>
+      <c r="Z167" s="1"/>
+      <c r="AA167" s="1"/>
+      <c r="AB167" s="1"/>
+      <c r="AC167" s="1"/>
+      <c r="AD167" s="1"/>
+      <c r="AE167" s="1"/>
+      <c r="AF167" s="1"/>
+      <c r="AG167" s="1"/>
+    </row>
+    <row r="168" spans="12:33" ht="15" customHeight="1">
+      <c r="L168" s="13"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+      <c r="O168" s="1"/>
+      <c r="P168" s="1"/>
+      <c r="Q168" s="1"/>
+      <c r="R168" s="1"/>
+      <c r="S168" s="1"/>
+      <c r="T168" s="1"/>
+      <c r="U168" s="1"/>
+      <c r="V168" s="1"/>
+      <c r="W168" s="1"/>
+      <c r="X168" s="1"/>
+      <c r="Y168" s="1"/>
+      <c r="Z168" s="1"/>
+      <c r="AA168" s="1"/>
+      <c r="AB168" s="1"/>
+      <c r="AC168" s="1"/>
+      <c r="AD168" s="1"/>
+      <c r="AE168" s="1"/>
+      <c r="AF168" s="1"/>
+      <c r="AG168" s="1"/>
+    </row>
+    <row r="169" spans="12:33" ht="15" customHeight="1">
+      <c r="L169" s="13"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+      <c r="O169" s="1"/>
+      <c r="P169" s="1"/>
+      <c r="Q169" s="1"/>
+      <c r="R169" s="1"/>
+      <c r="S169" s="1"/>
+      <c r="T169" s="1"/>
+      <c r="U169" s="1"/>
+      <c r="V169" s="1"/>
+      <c r="W169" s="1"/>
+      <c r="X169" s="1"/>
+      <c r="Y169" s="1"/>
+      <c r="Z169" s="1"/>
+      <c r="AA169" s="1"/>
+      <c r="AB169" s="1"/>
+      <c r="AC169" s="1"/>
+      <c r="AD169" s="1"/>
+      <c r="AE169" s="1"/>
+      <c r="AF169" s="1"/>
+      <c r="AG169" s="1"/>
+    </row>
+    <row r="170" spans="12:33" ht="15" customHeight="1">
+      <c r="L170" s="13"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+      <c r="O170" s="1"/>
+      <c r="P170" s="1"/>
+      <c r="Q170" s="1"/>
+      <c r="R170" s="1"/>
+      <c r="S170" s="1"/>
+      <c r="T170" s="1"/>
+      <c r="U170" s="1"/>
+      <c r="V170" s="1"/>
+      <c r="W170" s="1"/>
+      <c r="X170" s="1"/>
+      <c r="Y170" s="1"/>
+      <c r="Z170" s="1"/>
+      <c r="AA170" s="1"/>
+      <c r="AB170" s="1"/>
+      <c r="AC170" s="1"/>
+      <c r="AD170" s="1"/>
+      <c r="AE170" s="1"/>
+      <c r="AF170" s="1"/>
+      <c r="AG170" s="1"/>
+    </row>
+    <row r="171" spans="12:33" ht="15" customHeight="1">
+      <c r="L171" s="13"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+      <c r="O171" s="1"/>
+      <c r="P171" s="1"/>
+      <c r="Q171" s="1"/>
+      <c r="R171" s="1"/>
+      <c r="S171" s="1"/>
+      <c r="T171" s="1"/>
+      <c r="U171" s="1"/>
+      <c r="V171" s="1"/>
+      <c r="W171" s="1"/>
+      <c r="X171" s="1"/>
+      <c r="Y171" s="1"/>
+      <c r="Z171" s="1"/>
+      <c r="AA171" s="1"/>
+      <c r="AB171" s="1"/>
+      <c r="AC171" s="1"/>
+      <c r="AD171" s="1"/>
+      <c r="AE171" s="1"/>
+      <c r="AF171" s="1"/>
+      <c r="AG171" s="1"/>
+    </row>
+    <row r="172" spans="12:33" ht="15" customHeight="1">
+      <c r="L172" s="13"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+      <c r="O172" s="1"/>
+      <c r="P172" s="1"/>
+      <c r="Q172" s="1"/>
+      <c r="R172" s="1"/>
+      <c r="S172" s="1"/>
+      <c r="T172" s="1"/>
+      <c r="U172" s="1"/>
+      <c r="V172" s="1"/>
+      <c r="W172" s="1"/>
+      <c r="X172" s="1"/>
+      <c r="Y172" s="1"/>
+      <c r="Z172" s="1"/>
+      <c r="AA172" s="1"/>
+      <c r="AB172" s="1"/>
+      <c r="AC172" s="1"/>
+      <c r="AD172" s="1"/>
+      <c r="AE172" s="1"/>
+      <c r="AF172" s="1"/>
+      <c r="AG172" s="1"/>
+    </row>
+    <row r="173" spans="12:33" ht="15" customHeight="1">
+      <c r="L173" s="13"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+      <c r="O173" s="1"/>
+      <c r="P173" s="1"/>
+      <c r="Q173" s="1"/>
+      <c r="R173" s="1"/>
+      <c r="S173" s="1"/>
+      <c r="T173" s="1"/>
+      <c r="U173" s="1"/>
+      <c r="V173" s="1"/>
+      <c r="W173" s="1"/>
+      <c r="X173" s="1"/>
+      <c r="Y173" s="1"/>
+      <c r="Z173" s="1"/>
+      <c r="AA173" s="1"/>
+      <c r="AB173" s="1"/>
+      <c r="AC173" s="1"/>
+      <c r="AD173" s="1"/>
+      <c r="AE173" s="1"/>
+      <c r="AF173" s="1"/>
+      <c r="AG173" s="1"/>
+    </row>
+    <row r="174" spans="12:33" ht="15" customHeight="1">
+      <c r="L174" s="13"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+      <c r="O174" s="1"/>
+      <c r="P174" s="1"/>
+      <c r="Q174" s="1"/>
+      <c r="R174" s="1"/>
+      <c r="S174" s="1"/>
+      <c r="T174" s="1"/>
+      <c r="U174" s="1"/>
+      <c r="V174" s="1"/>
+      <c r="W174" s="1"/>
+      <c r="X174" s="1"/>
+      <c r="Y174" s="1"/>
+      <c r="Z174" s="1"/>
+      <c r="AA174" s="1"/>
+      <c r="AB174" s="1"/>
+      <c r="AC174" s="1"/>
+      <c r="AD174" s="1"/>
+      <c r="AE174" s="1"/>
+      <c r="AF174" s="1"/>
+      <c r="AG174" s="1"/>
+    </row>
+    <row r="175" spans="12:33" ht="15" customHeight="1">
+      <c r="L175" s="13"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+      <c r="O175" s="1"/>
+      <c r="P175" s="1"/>
+      <c r="Q175" s="1"/>
+      <c r="R175" s="1"/>
+      <c r="S175" s="1"/>
+      <c r="T175" s="1"/>
+      <c r="U175" s="1"/>
+      <c r="V175" s="1"/>
+      <c r="W175" s="1"/>
+      <c r="X175" s="1"/>
+      <c r="Y175" s="1"/>
+      <c r="Z175" s="1"/>
+      <c r="AA175" s="1"/>
+      <c r="AB175" s="1"/>
+      <c r="AC175" s="1"/>
+      <c r="AD175" s="1"/>
+      <c r="AE175" s="1"/>
+      <c r="AF175" s="1"/>
+      <c r="AG175" s="1"/>
+    </row>
+    <row r="176" spans="12:33" ht="15" customHeight="1">
+      <c r="L176" s="13"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+      <c r="O176" s="1"/>
+      <c r="P176" s="1"/>
+      <c r="Q176" s="1"/>
+      <c r="R176" s="1"/>
+      <c r="S176" s="1"/>
+      <c r="T176" s="1"/>
+      <c r="U176" s="1"/>
+      <c r="V176" s="1"/>
+      <c r="W176" s="1"/>
+      <c r="X176" s="1"/>
+      <c r="Y176" s="1"/>
+      <c r="Z176" s="1"/>
+      <c r="AA176" s="1"/>
+      <c r="AB176" s="1"/>
+      <c r="AC176" s="1"/>
+      <c r="AD176" s="1"/>
+      <c r="AE176" s="1"/>
+      <c r="AF176" s="1"/>
+      <c r="AG176" s="1"/>
+    </row>
+    <row r="177" spans="12:33" ht="15" customHeight="1">
+      <c r="L177" s="13"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+      <c r="O177" s="1"/>
+      <c r="P177" s="1"/>
+      <c r="Q177" s="1"/>
+      <c r="R177" s="1"/>
+      <c r="S177" s="1"/>
+      <c r="T177" s="1"/>
+      <c r="U177" s="1"/>
+      <c r="V177" s="1"/>
+      <c r="W177" s="1"/>
+      <c r="X177" s="1"/>
+      <c r="Y177" s="1"/>
+      <c r="Z177" s="1"/>
+      <c r="AA177" s="1"/>
+      <c r="AB177" s="1"/>
+      <c r="AC177" s="1"/>
+      <c r="AD177" s="1"/>
+      <c r="AE177" s="1"/>
+      <c r="AF177" s="1"/>
+      <c r="AG177" s="1"/>
+    </row>
+    <row r="178" spans="12:33" ht="15" customHeight="1">
+      <c r="L178" s="13"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+      <c r="O178" s="1"/>
+      <c r="P178" s="1"/>
+      <c r="Q178" s="1"/>
+      <c r="R178" s="1"/>
+      <c r="S178" s="1"/>
+      <c r="T178" s="1"/>
+      <c r="U178" s="1"/>
+      <c r="V178" s="1"/>
+      <c r="W178" s="1"/>
+      <c r="X178" s="1"/>
+      <c r="Y178" s="1"/>
+      <c r="Z178" s="1"/>
+      <c r="AA178" s="1"/>
+      <c r="AB178" s="1"/>
+      <c r="AC178" s="1"/>
+      <c r="AD178" s="1"/>
+      <c r="AE178" s="1"/>
+      <c r="AF178" s="1"/>
+      <c r="AG178" s="1"/>
+    </row>
+    <row r="179" spans="12:33" ht="15" customHeight="1">
+      <c r="L179" s="13"/>
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
+      <c r="O179" s="1"/>
+      <c r="P179" s="1"/>
+      <c r="Q179" s="1"/>
+      <c r="R179" s="1"/>
+      <c r="S179" s="1"/>
+      <c r="T179" s="1"/>
+      <c r="U179" s="1"/>
+      <c r="V179" s="1"/>
+      <c r="W179" s="1"/>
+      <c r="X179" s="1"/>
+      <c r="Y179" s="1"/>
+      <c r="Z179" s="1"/>
+      <c r="AA179" s="1"/>
+      <c r="AB179" s="1"/>
+      <c r="AC179" s="1"/>
+      <c r="AD179" s="1"/>
+      <c r="AE179" s="1"/>
+      <c r="AF179" s="1"/>
+      <c r="AG179" s="1"/>
+    </row>
+    <row r="180" spans="12:33" ht="15" customHeight="1">
+      <c r="L180" s="13"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+      <c r="O180" s="1"/>
+      <c r="P180" s="1"/>
+      <c r="Q180" s="1"/>
+      <c r="R180" s="1"/>
+      <c r="S180" s="1"/>
+      <c r="T180" s="1"/>
+      <c r="U180" s="1"/>
+      <c r="V180" s="1"/>
+      <c r="W180" s="1"/>
+      <c r="X180" s="1"/>
+      <c r="Y180" s="1"/>
+      <c r="Z180" s="1"/>
+      <c r="AA180" s="1"/>
+      <c r="AB180" s="1"/>
+      <c r="AC180" s="1"/>
+      <c r="AD180" s="1"/>
+      <c r="AE180" s="1"/>
+      <c r="AF180" s="1"/>
+      <c r="AG180" s="1"/>
+    </row>
+    <row r="181" spans="12:33" ht="15" customHeight="1">
+      <c r="L181" s="13"/>
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+      <c r="O181" s="1"/>
+      <c r="P181" s="1"/>
+      <c r="Q181" s="1"/>
+      <c r="R181" s="1"/>
+      <c r="S181" s="1"/>
+      <c r="T181" s="1"/>
+      <c r="U181" s="1"/>
+      <c r="V181" s="1"/>
+      <c r="W181" s="1"/>
+      <c r="X181" s="1"/>
+      <c r="Y181" s="1"/>
+      <c r="Z181" s="1"/>
+      <c r="AA181" s="1"/>
+      <c r="AB181" s="1"/>
+      <c r="AC181" s="1"/>
+      <c r="AD181" s="1"/>
+      <c r="AE181" s="1"/>
+      <c r="AF181" s="1"/>
+      <c r="AG181" s="1"/>
+    </row>
+    <row r="182" spans="12:33" ht="15" customHeight="1">
+      <c r="L182" s="13"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+      <c r="O182" s="1"/>
+      <c r="P182" s="1"/>
+      <c r="Q182" s="1"/>
+      <c r="R182" s="1"/>
+      <c r="S182" s="1"/>
+      <c r="T182" s="1"/>
+      <c r="U182" s="1"/>
+      <c r="V182" s="1"/>
+      <c r="W182" s="1"/>
+      <c r="X182" s="1"/>
+      <c r="Y182" s="1"/>
+      <c r="Z182" s="1"/>
+      <c r="AA182" s="1"/>
+      <c r="AB182" s="1"/>
+      <c r="AC182" s="1"/>
+      <c r="AD182" s="1"/>
+      <c r="AE182" s="1"/>
+      <c r="AF182" s="1"/>
+      <c r="AG182" s="1"/>
+    </row>
+    <row r="183" spans="12:33" ht="15" customHeight="1">
+      <c r="L183" s="13"/>
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
+      <c r="O183" s="1"/>
+      <c r="P183" s="1"/>
+      <c r="Q183" s="1"/>
+      <c r="R183" s="1"/>
+      <c r="S183" s="1"/>
+      <c r="T183" s="1"/>
+      <c r="U183" s="1"/>
+      <c r="V183" s="1"/>
+      <c r="W183" s="1"/>
+      <c r="X183" s="1"/>
+      <c r="Y183" s="1"/>
+      <c r="Z183" s="1"/>
+      <c r="AA183" s="1"/>
+      <c r="AB183" s="1"/>
+      <c r="AC183" s="1"/>
+      <c r="AD183" s="1"/>
+      <c r="AE183" s="1"/>
+      <c r="AF183" s="1"/>
+      <c r="AG183" s="1"/>
+    </row>
+    <row r="184" spans="12:33" ht="15" customHeight="1">
+      <c r="L184" s="13"/>
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
+      <c r="O184" s="1"/>
+      <c r="P184" s="1"/>
+      <c r="Q184" s="1"/>
+      <c r="R184" s="1"/>
+      <c r="S184" s="1"/>
+      <c r="T184" s="1"/>
+      <c r="U184" s="1"/>
+      <c r="V184" s="1"/>
+      <c r="W184" s="1"/>
+      <c r="X184" s="1"/>
+      <c r="Y184" s="1"/>
+      <c r="Z184" s="1"/>
+      <c r="AA184" s="1"/>
+      <c r="AB184" s="1"/>
+      <c r="AC184" s="1"/>
+      <c r="AD184" s="1"/>
+      <c r="AE184" s="1"/>
+      <c r="AF184" s="1"/>
+      <c r="AG184" s="1"/>
+    </row>
+    <row r="185" spans="12:33" ht="15" customHeight="1">
+      <c r="L185" s="13"/>
+      <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
+      <c r="O185" s="1"/>
+      <c r="P185" s="1"/>
+      <c r="Q185" s="1"/>
+      <c r="R185" s="1"/>
+      <c r="S185" s="1"/>
+      <c r="T185" s="1"/>
+      <c r="U185" s="1"/>
+      <c r="V185" s="1"/>
+      <c r="W185" s="1"/>
+      <c r="X185" s="1"/>
+      <c r="Y185" s="1"/>
+      <c r="Z185" s="1"/>
+      <c r="AA185" s="1"/>
+      <c r="AB185" s="1"/>
+      <c r="AC185" s="1"/>
+      <c r="AD185" s="1"/>
+      <c r="AE185" s="1"/>
+      <c r="AF185" s="1"/>
+      <c r="AG185" s="1"/>
+    </row>
+    <row r="186" spans="12:33" ht="15" customHeight="1">
+      <c r="L186" s="13"/>
+      <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
+      <c r="O186" s="1"/>
+      <c r="P186" s="1"/>
+      <c r="Q186" s="1"/>
+      <c r="R186" s="1"/>
+      <c r="S186" s="1"/>
+      <c r="T186" s="1"/>
+      <c r="U186" s="1"/>
+      <c r="V186" s="1"/>
+      <c r="W186" s="1"/>
+      <c r="X186" s="1"/>
+      <c r="Y186" s="1"/>
+      <c r="Z186" s="1"/>
+      <c r="AA186" s="1"/>
+      <c r="AB186" s="1"/>
+      <c r="AC186" s="1"/>
+      <c r="AD186" s="1"/>
+      <c r="AE186" s="1"/>
+      <c r="AF186" s="1"/>
+      <c r="AG186" s="1"/>
+    </row>
+    <row r="187" spans="12:33" ht="15" customHeight="1">
+      <c r="L187" s="13"/>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
+      <c r="O187" s="1"/>
+      <c r="P187" s="1"/>
+      <c r="Q187" s="1"/>
+      <c r="R187" s="1"/>
+      <c r="S187" s="1"/>
+      <c r="T187" s="1"/>
+      <c r="U187" s="1"/>
+      <c r="V187" s="1"/>
+      <c r="W187" s="1"/>
+      <c r="X187" s="1"/>
+      <c r="Y187" s="1"/>
+      <c r="Z187" s="1"/>
+      <c r="AA187" s="1"/>
+      <c r="AB187" s="1"/>
+      <c r="AC187" s="1"/>
+      <c r="AD187" s="1"/>
+      <c r="AE187" s="1"/>
+      <c r="AF187" s="1"/>
+      <c r="AG187" s="1"/>
+    </row>
+    <row r="188" spans="12:33" ht="15" customHeight="1">
+      <c r="L188" s="13"/>
+      <c r="M188" s="1"/>
+      <c r="N188" s="1"/>
+      <c r="O188" s="1"/>
+      <c r="P188" s="1"/>
+      <c r="Q188" s="1"/>
+      <c r="R188" s="1"/>
+      <c r="S188" s="1"/>
+      <c r="T188" s="1"/>
+      <c r="U188" s="1"/>
+      <c r="V188" s="1"/>
+      <c r="W188" s="1"/>
+      <c r="X188" s="1"/>
+      <c r="Y188" s="1"/>
+      <c r="Z188" s="1"/>
+      <c r="AA188" s="1"/>
+      <c r="AB188" s="1"/>
+      <c r="AC188" s="1"/>
+      <c r="AD188" s="1"/>
+      <c r="AE188" s="1"/>
+      <c r="AF188" s="1"/>
+      <c r="AG188" s="1"/>
+    </row>
+    <row r="189" spans="12:33" ht="15" customHeight="1">
+      <c r="L189" s="13"/>
+      <c r="M189" s="1"/>
+      <c r="N189" s="1"/>
+      <c r="O189" s="1"/>
+      <c r="P189" s="1"/>
+      <c r="Q189" s="1"/>
+      <c r="R189" s="1"/>
+      <c r="S189" s="1"/>
+      <c r="T189" s="1"/>
+      <c r="U189" s="1"/>
+      <c r="V189" s="1"/>
+      <c r="W189" s="1"/>
+      <c r="X189" s="1"/>
+      <c r="Y189" s="1"/>
+      <c r="Z189" s="1"/>
+      <c r="AA189" s="1"/>
+      <c r="AB189" s="1"/>
+      <c r="AC189" s="1"/>
+      <c r="AD189" s="1"/>
+      <c r="AE189" s="1"/>
+      <c r="AF189" s="1"/>
+      <c r="AG189" s="1"/>
+    </row>
+    <row r="190" spans="12:33" ht="15" customHeight="1">
+      <c r="L190" s="13"/>
+      <c r="M190" s="1"/>
+      <c r="N190" s="1"/>
+      <c r="O190" s="1"/>
+      <c r="P190" s="1"/>
+      <c r="Q190" s="1"/>
+      <c r="R190" s="1"/>
+      <c r="S190" s="1"/>
+      <c r="T190" s="1"/>
+      <c r="U190" s="1"/>
+      <c r="V190" s="1"/>
+      <c r="W190" s="1"/>
+      <c r="X190" s="1"/>
+      <c r="Y190" s="1"/>
+      <c r="Z190" s="1"/>
+      <c r="AA190" s="1"/>
+      <c r="AB190" s="1"/>
+      <c r="AC190" s="1"/>
+      <c r="AD190" s="1"/>
+      <c r="AE190" s="1"/>
+      <c r="AF190" s="1"/>
+      <c r="AG190" s="1"/>
+    </row>
+    <row r="191" spans="12:33" ht="15" customHeight="1">
+      <c r="L191" s="13"/>
+      <c r="M191" s="1"/>
+      <c r="N191" s="1"/>
+      <c r="O191" s="1"/>
+      <c r="P191" s="1"/>
+      <c r="Q191" s="1"/>
+      <c r="R191" s="1"/>
+      <c r="S191" s="1"/>
+      <c r="T191" s="1"/>
+      <c r="U191" s="1"/>
+      <c r="V191" s="1"/>
+      <c r="W191" s="1"/>
+      <c r="X191" s="1"/>
+      <c r="Y191" s="1"/>
+      <c r="Z191" s="1"/>
+      <c r="AA191" s="1"/>
+      <c r="AB191" s="1"/>
+      <c r="AC191" s="1"/>
+      <c r="AD191" s="1"/>
+      <c r="AE191" s="1"/>
+      <c r="AF191" s="1"/>
+      <c r="AG191" s="1"/>
+    </row>
+    <row r="192" spans="12:33" ht="15" customHeight="1">
+      <c r="L192" s="13"/>
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
+      <c r="O192" s="1"/>
+      <c r="P192" s="1"/>
+      <c r="Q192" s="1"/>
+      <c r="R192" s="1"/>
+      <c r="S192" s="1"/>
+      <c r="T192" s="1"/>
+      <c r="U192" s="1"/>
+      <c r="V192" s="1"/>
+      <c r="W192" s="1"/>
+      <c r="X192" s="1"/>
+      <c r="Y192" s="1"/>
+      <c r="Z192" s="1"/>
+      <c r="AA192" s="1"/>
+      <c r="AB192" s="1"/>
+      <c r="AC192" s="1"/>
+      <c r="AD192" s="1"/>
+      <c r="AE192" s="1"/>
+      <c r="AF192" s="1"/>
+      <c r="AG192" s="1"/>
+    </row>
+    <row r="193" spans="12:33" ht="15" customHeight="1">
+      <c r="L193" s="13"/>
+      <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
+      <c r="O193" s="1"/>
+      <c r="P193" s="1"/>
+      <c r="Q193" s="1"/>
+      <c r="R193" s="1"/>
+      <c r="S193" s="1"/>
+      <c r="T193" s="1"/>
+      <c r="U193" s="1"/>
+      <c r="V193" s="1"/>
+      <c r="W193" s="1"/>
+      <c r="X193" s="1"/>
+      <c r="Y193" s="1"/>
+      <c r="Z193" s="1"/>
+      <c r="AA193" s="1"/>
+      <c r="AB193" s="1"/>
+      <c r="AC193" s="1"/>
+      <c r="AD193" s="1"/>
+      <c r="AE193" s="1"/>
+      <c r="AF193" s="1"/>
+      <c r="AG193" s="1"/>
+    </row>
+    <row r="194" spans="12:33" ht="15" customHeight="1">
+      <c r="L194" s="13"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+      <c r="O194" s="1"/>
+      <c r="P194" s="1"/>
+      <c r="Q194" s="1"/>
+      <c r="R194" s="1"/>
+      <c r="S194" s="1"/>
+      <c r="T194" s="1"/>
+      <c r="U194" s="1"/>
+      <c r="V194" s="1"/>
+      <c r="W194" s="1"/>
+      <c r="X194" s="1"/>
+      <c r="Y194" s="1"/>
+      <c r="Z194" s="1"/>
+      <c r="AA194" s="1"/>
+      <c r="AB194" s="1"/>
+      <c r="AC194" s="1"/>
+      <c r="AD194" s="1"/>
+      <c r="AE194" s="1"/>
+      <c r="AF194" s="1"/>
+      <c r="AG194" s="1"/>
+    </row>
+    <row r="195" spans="12:33" ht="15" customHeight="1">
+      <c r="L195" s="13"/>
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
+      <c r="O195" s="1"/>
+      <c r="P195" s="1"/>
+      <c r="Q195" s="1"/>
+      <c r="R195" s="1"/>
+      <c r="S195" s="1"/>
+      <c r="T195" s="1"/>
+      <c r="U195" s="1"/>
+      <c r="V195" s="1"/>
+      <c r="W195" s="1"/>
+      <c r="X195" s="1"/>
+      <c r="Y195" s="1"/>
+      <c r="Z195" s="1"/>
+      <c r="AA195" s="1"/>
+      <c r="AB195" s="1"/>
+      <c r="AC195" s="1"/>
+      <c r="AD195" s="1"/>
+      <c r="AE195" s="1"/>
+      <c r="AF195" s="1"/>
+      <c r="AG195" s="1"/>
+    </row>
+    <row r="196" spans="12:33" ht="15" customHeight="1">
+      <c r="L196" s="13"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+      <c r="O196" s="1"/>
+      <c r="P196" s="1"/>
+      <c r="Q196" s="1"/>
+      <c r="R196" s="1"/>
+      <c r="S196" s="1"/>
+      <c r="T196" s="1"/>
+      <c r="U196" s="1"/>
+      <c r="V196" s="1"/>
+      <c r="W196" s="1"/>
+      <c r="X196" s="1"/>
+      <c r="Y196" s="1"/>
+      <c r="Z196" s="1"/>
+      <c r="AA196" s="1"/>
+      <c r="AB196" s="1"/>
+      <c r="AC196" s="1"/>
+      <c r="AD196" s="1"/>
+      <c r="AE196" s="1"/>
+      <c r="AF196" s="1"/>
+      <c r="AG196" s="1"/>
+    </row>
+    <row r="197" spans="12:33" ht="15" customHeight="1">
+      <c r="L197" s="13"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
+      <c r="O197" s="1"/>
+      <c r="P197" s="1"/>
+      <c r="Q197" s="1"/>
+      <c r="R197" s="1"/>
+      <c r="S197" s="1"/>
+      <c r="T197" s="1"/>
+      <c r="U197" s="1"/>
+      <c r="V197" s="1"/>
+      <c r="W197" s="1"/>
+      <c r="X197" s="1"/>
+      <c r="Y197" s="1"/>
+      <c r="Z197" s="1"/>
+      <c r="AA197" s="1"/>
+      <c r="AB197" s="1"/>
+      <c r="AC197" s="1"/>
+      <c r="AD197" s="1"/>
+      <c r="AE197" s="1"/>
+      <c r="AF197" s="1"/>
+      <c r="AG197" s="1"/>
+    </row>
+    <row r="198" spans="12:33" ht="15" customHeight="1">
+      <c r="L198" s="13"/>
+      <c r="M198" s="1"/>
+      <c r="N198" s="1"/>
+      <c r="O198" s="1"/>
+      <c r="P198" s="1"/>
+      <c r="Q198" s="1"/>
+      <c r="R198" s="1"/>
+      <c r="S198" s="1"/>
+      <c r="T198" s="1"/>
+      <c r="U198" s="1"/>
+      <c r="V198" s="1"/>
+      <c r="W198" s="1"/>
+      <c r="X198" s="1"/>
+      <c r="Y198" s="1"/>
+      <c r="Z198" s="1"/>
+      <c r="AA198" s="1"/>
+      <c r="AB198" s="1"/>
+      <c r="AC198" s="1"/>
+      <c r="AD198" s="1"/>
+      <c r="AE198" s="1"/>
+      <c r="AF198" s="1"/>
+      <c r="AG198" s="1"/>
+    </row>
+    <row r="199" spans="12:33" ht="15" customHeight="1">
+      <c r="L199" s="13"/>
+      <c r="M199" s="1"/>
+      <c r="N199" s="1"/>
+      <c r="O199" s="1"/>
+      <c r="P199" s="1"/>
+      <c r="Q199" s="1"/>
+      <c r="R199" s="1"/>
+      <c r="S199" s="1"/>
+      <c r="T199" s="1"/>
+      <c r="U199" s="1"/>
+      <c r="V199" s="1"/>
+      <c r="W199" s="1"/>
+      <c r="X199" s="1"/>
+      <c r="Y199" s="1"/>
+      <c r="Z199" s="1"/>
+      <c r="AA199" s="1"/>
+      <c r="AB199" s="1"/>
+      <c r="AC199" s="1"/>
+      <c r="AD199" s="1"/>
+      <c r="AE199" s="1"/>
+      <c r="AF199" s="1"/>
+      <c r="AG199" s="1"/>
+    </row>
+    <row r="200" spans="12:33" ht="15" customHeight="1">
+      <c r="L200" s="13"/>
+      <c r="M200" s="1"/>
+      <c r="N200" s="1"/>
+      <c r="O200" s="1"/>
+      <c r="P200" s="1"/>
+      <c r="Q200" s="1"/>
+      <c r="R200" s="1"/>
+      <c r="S200" s="1"/>
+      <c r="T200" s="1"/>
+      <c r="U200" s="1"/>
+      <c r="V200" s="1"/>
+      <c r="W200" s="1"/>
+      <c r="X200" s="1"/>
+      <c r="Y200" s="1"/>
+      <c r="Z200" s="1"/>
+      <c r="AA200" s="1"/>
+      <c r="AB200" s="1"/>
+      <c r="AC200" s="1"/>
+      <c r="AD200" s="1"/>
+      <c r="AE200" s="1"/>
+      <c r="AF200" s="1"/>
+      <c r="AG200" s="1"/>
+    </row>
+    <row r="201" spans="12:33" ht="15" customHeight="1">
+      <c r="L201" s="13"/>
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+      <c r="O201" s="1"/>
+      <c r="P201" s="1"/>
+      <c r="Q201" s="1"/>
+      <c r="R201" s="1"/>
+      <c r="S201" s="1"/>
+      <c r="T201" s="1"/>
+      <c r="U201" s="1"/>
+      <c r="V201" s="1"/>
+      <c r="W201" s="1"/>
+      <c r="X201" s="1"/>
+      <c r="Y201" s="1"/>
+      <c r="Z201" s="1"/>
+      <c r="AA201" s="1"/>
+      <c r="AB201" s="1"/>
+      <c r="AC201" s="1"/>
+      <c r="AD201" s="1"/>
+      <c r="AE201" s="1"/>
+      <c r="AF201" s="1"/>
+      <c r="AG201" s="1"/>
+    </row>
+    <row r="202" spans="12:33" ht="15" customHeight="1">
+      <c r="L202" s="13"/>
+      <c r="M202" s="1"/>
+      <c r="N202" s="1"/>
+      <c r="O202" s="1"/>
+      <c r="P202" s="1"/>
+      <c r="Q202" s="1"/>
+      <c r="R202" s="1"/>
+      <c r="S202" s="1"/>
+      <c r="T202" s="1"/>
+      <c r="U202" s="1"/>
+      <c r="V202" s="1"/>
+      <c r="W202" s="1"/>
+      <c r="X202" s="1"/>
+      <c r="Y202" s="1"/>
+      <c r="Z202" s="1"/>
+      <c r="AA202" s="1"/>
+      <c r="AB202" s="1"/>
+      <c r="AC202" s="1"/>
+      <c r="AD202" s="1"/>
+      <c r="AE202" s="1"/>
+      <c r="AF202" s="1"/>
+      <c r="AG202" s="1"/>
+    </row>
+    <row r="203" spans="12:33" ht="15" customHeight="1">
+      <c r="L203" s="13"/>
+      <c r="M203" s="1"/>
+      <c r="N203" s="1"/>
+      <c r="O203" s="1"/>
+      <c r="P203" s="1"/>
+      <c r="Q203" s="1"/>
+      <c r="R203" s="1"/>
+      <c r="S203" s="1"/>
+      <c r="T203" s="1"/>
+      <c r="U203" s="1"/>
+      <c r="V203" s="1"/>
+      <c r="W203" s="1"/>
+      <c r="X203" s="1"/>
+      <c r="Y203" s="1"/>
+      <c r="Z203" s="1"/>
+      <c r="AA203" s="1"/>
+      <c r="AB203" s="1"/>
+      <c r="AC203" s="1"/>
+      <c r="AD203" s="1"/>
+      <c r="AE203" s="1"/>
+      <c r="AF203" s="1"/>
+      <c r="AG203" s="1"/>
+    </row>
+    <row r="204" spans="12:33" ht="15" customHeight="1">
+      <c r="L204" s="13"/>
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+      <c r="O204" s="1"/>
+      <c r="P204" s="1"/>
+      <c r="Q204" s="1"/>
+      <c r="R204" s="1"/>
+      <c r="S204" s="1"/>
+      <c r="T204" s="1"/>
+      <c r="U204" s="1"/>
+      <c r="V204" s="1"/>
+      <c r="W204" s="1"/>
+      <c r="X204" s="1"/>
+      <c r="Y204" s="1"/>
+      <c r="Z204" s="1"/>
+      <c r="AA204" s="1"/>
+      <c r="AB204" s="1"/>
+      <c r="AC204" s="1"/>
+      <c r="AD204" s="1"/>
+      <c r="AE204" s="1"/>
+      <c r="AF204" s="1"/>
+      <c r="AG204" s="1"/>
+    </row>
+    <row r="205" spans="12:33" ht="15" customHeight="1">
+      <c r="L205" s="13"/>
+      <c r="M205" s="1"/>
+      <c r="N205" s="1"/>
+      <c r="O205" s="1"/>
+      <c r="P205" s="1"/>
+      <c r="Q205" s="1"/>
+      <c r="R205" s="1"/>
+      <c r="S205" s="1"/>
+      <c r="T205" s="1"/>
+      <c r="U205" s="1"/>
+      <c r="V205" s="1"/>
+      <c r="W205" s="1"/>
+      <c r="X205" s="1"/>
+      <c r="Y205" s="1"/>
+      <c r="Z205" s="1"/>
+      <c r="AA205" s="1"/>
+      <c r="AB205" s="1"/>
+      <c r="AC205" s="1"/>
+      <c r="AD205" s="1"/>
+      <c r="AE205" s="1"/>
+      <c r="AF205" s="1"/>
+      <c r="AG205" s="1"/>
+    </row>
+    <row r="206" spans="12:33" ht="15" customHeight="1">
+      <c r="L206" s="13"/>
+      <c r="M206" s="1"/>
+      <c r="N206" s="1"/>
+      <c r="O206" s="1"/>
+      <c r="P206" s="1"/>
+      <c r="Q206" s="1"/>
+      <c r="R206" s="1"/>
+      <c r="S206" s="1"/>
+      <c r="T206" s="1"/>
+      <c r="U206" s="1"/>
+      <c r="V206" s="1"/>
+      <c r="W206" s="1"/>
+      <c r="X206" s="1"/>
+      <c r="Y206" s="1"/>
+      <c r="Z206" s="1"/>
+      <c r="AA206" s="1"/>
+      <c r="AB206" s="1"/>
+      <c r="AC206" s="1"/>
+      <c r="AD206" s="1"/>
+      <c r="AE206" s="1"/>
+      <c r="AF206" s="1"/>
+      <c r="AG206" s="1"/>
+    </row>
+    <row r="207" spans="12:33" ht="15" customHeight="1">
+      <c r="L207" s="13"/>
+      <c r="M207" s="1"/>
+      <c r="N207" s="1"/>
+      <c r="O207" s="1"/>
+      <c r="P207" s="1"/>
+      <c r="Q207" s="1"/>
+      <c r="R207" s="1"/>
+      <c r="S207" s="1"/>
+      <c r="T207" s="1"/>
+      <c r="U207" s="1"/>
+      <c r="V207" s="1"/>
+      <c r="W207" s="1"/>
+      <c r="X207" s="1"/>
+      <c r="Y207" s="1"/>
+      <c r="Z207" s="1"/>
+      <c r="AA207" s="1"/>
+      <c r="AB207" s="1"/>
+      <c r="AC207" s="1"/>
+      <c r="AD207" s="1"/>
+      <c r="AE207" s="1"/>
+      <c r="AF207" s="1"/>
+      <c r="AG207" s="1"/>
+    </row>
+    <row r="208" spans="12:33" ht="15" customHeight="1">
+      <c r="L208" s="13"/>
+      <c r="M208" s="1"/>
+      <c r="N208" s="1"/>
+      <c r="O208" s="1"/>
+      <c r="P208" s="1"/>
+      <c r="Q208" s="1"/>
+      <c r="R208" s="1"/>
+      <c r="S208" s="1"/>
+      <c r="T208" s="1"/>
+      <c r="U208" s="1"/>
+      <c r="V208" s="1"/>
+      <c r="W208" s="1"/>
+      <c r="X208" s="1"/>
+      <c r="Y208" s="1"/>
+      <c r="Z208" s="1"/>
+      <c r="AA208" s="1"/>
+      <c r="AB208" s="1"/>
+      <c r="AC208" s="1"/>
+      <c r="AD208" s="1"/>
+      <c r="AE208" s="1"/>
+      <c r="AF208" s="1"/>
+      <c r="AG208" s="1"/>
+    </row>
+    <row r="209" spans="12:33" ht="15" customHeight="1">
+      <c r="L209" s="13"/>
+      <c r="M209" s="1"/>
+      <c r="N209" s="1"/>
+      <c r="O209" s="1"/>
+      <c r="P209" s="1"/>
+      <c r="Q209" s="1"/>
+      <c r="R209" s="1"/>
+      <c r="S209" s="1"/>
+      <c r="T209" s="1"/>
+      <c r="U209" s="1"/>
+      <c r="V209" s="1"/>
+      <c r="W209" s="1"/>
+      <c r="X209" s="1"/>
+      <c r="Y209" s="1"/>
+      <c r="Z209" s="1"/>
+      <c r="AA209" s="1"/>
+      <c r="AB209" s="1"/>
+      <c r="AC209" s="1"/>
+      <c r="AD209" s="1"/>
+      <c r="AE209" s="1"/>
+      <c r="AF209" s="1"/>
+      <c r="AG209" s="1"/>
+    </row>
+    <row r="210" spans="12:33" ht="15" customHeight="1">
+      <c r="L210" s="13"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+      <c r="O210" s="1"/>
+      <c r="P210" s="1"/>
+      <c r="Q210" s="1"/>
+      <c r="R210" s="1"/>
+      <c r="S210" s="1"/>
+      <c r="T210" s="1"/>
+      <c r="U210" s="1"/>
+      <c r="V210" s="1"/>
+      <c r="W210" s="1"/>
+      <c r="X210" s="1"/>
+      <c r="Y210" s="1"/>
+      <c r="Z210" s="1"/>
+      <c r="AA210" s="1"/>
+      <c r="AB210" s="1"/>
+      <c r="AC210" s="1"/>
+      <c r="AD210" s="1"/>
+      <c r="AE210" s="1"/>
+      <c r="AF210" s="1"/>
+      <c r="AG210" s="1"/>
+    </row>
+    <row r="211" spans="12:33" ht="15" customHeight="1">
+      <c r="L211" s="13"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+      <c r="O211" s="1"/>
+      <c r="P211" s="1"/>
+      <c r="Q211" s="1"/>
+      <c r="R211" s="1"/>
+      <c r="S211" s="1"/>
+      <c r="T211" s="1"/>
+      <c r="U211" s="1"/>
+      <c r="V211" s="1"/>
+      <c r="W211" s="1"/>
+      <c r="X211" s="1"/>
+      <c r="Y211" s="1"/>
+      <c r="Z211" s="1"/>
+      <c r="AA211" s="1"/>
+      <c r="AB211" s="1"/>
+      <c r="AC211" s="1"/>
+      <c r="AD211" s="1"/>
+      <c r="AE211" s="1"/>
+      <c r="AF211" s="1"/>
+      <c r="AG211" s="1"/>
+    </row>
+    <row r="212" spans="12:33" ht="15" customHeight="1">
+      <c r="L212" s="13"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+      <c r="O212" s="1"/>
+      <c r="P212" s="1"/>
+      <c r="Q212" s="1"/>
+      <c r="R212" s="1"/>
+      <c r="S212" s="1"/>
+      <c r="T212" s="1"/>
+      <c r="U212" s="1"/>
+      <c r="V212" s="1"/>
+      <c r="W212" s="1"/>
+      <c r="X212" s="1"/>
+      <c r="Y212" s="1"/>
+      <c r="Z212" s="1"/>
+      <c r="AA212" s="1"/>
+      <c r="AB212" s="1"/>
+      <c r="AC212" s="1"/>
+      <c r="AD212" s="1"/>
+      <c r="AE212" s="1"/>
+      <c r="AF212" s="1"/>
+      <c r="AG212" s="1"/>
+    </row>
+    <row r="213" spans="12:33" ht="15" customHeight="1">
+      <c r="L213" s="13"/>
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+      <c r="O213" s="1"/>
+      <c r="P213" s="1"/>
+      <c r="Q213" s="1"/>
+      <c r="R213" s="1"/>
+      <c r="S213" s="1"/>
+      <c r="T213" s="1"/>
+      <c r="U213" s="1"/>
+      <c r="V213" s="1"/>
+      <c r="W213" s="1"/>
+      <c r="X213" s="1"/>
+      <c r="Y213" s="1"/>
+      <c r="Z213" s="1"/>
+      <c r="AA213" s="1"/>
+      <c r="AB213" s="1"/>
+      <c r="AC213" s="1"/>
+      <c r="AD213" s="1"/>
+      <c r="AE213" s="1"/>
+      <c r="AF213" s="1"/>
+      <c r="AG213" s="1"/>
+    </row>
+    <row r="214" spans="12:33" ht="15" customHeight="1">
+      <c r="L214" s="13"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+      <c r="O214" s="1"/>
+      <c r="P214" s="1"/>
+      <c r="Q214" s="1"/>
+      <c r="R214" s="1"/>
+      <c r="S214" s="1"/>
+      <c r="T214" s="1"/>
+      <c r="U214" s="1"/>
+      <c r="V214" s="1"/>
+      <c r="W214" s="1"/>
+      <c r="X214" s="1"/>
+      <c r="Y214" s="1"/>
+      <c r="Z214" s="1"/>
+      <c r="AA214" s="1"/>
+      <c r="AB214" s="1"/>
+      <c r="AC214" s="1"/>
+      <c r="AD214" s="1"/>
+      <c r="AE214" s="1"/>
+      <c r="AF214" s="1"/>
+      <c r="AG214" s="1"/>
+    </row>
+    <row r="215" spans="12:33" ht="15" customHeight="1">
+      <c r="L215" s="13"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+      <c r="O215" s="1"/>
+      <c r="P215" s="1"/>
+      <c r="Q215" s="1"/>
+      <c r="R215" s="1"/>
+      <c r="S215" s="1"/>
+      <c r="T215" s="1"/>
+      <c r="U215" s="1"/>
+      <c r="V215" s="1"/>
+      <c r="W215" s="1"/>
+      <c r="X215" s="1"/>
+      <c r="Y215" s="1"/>
+      <c r="Z215" s="1"/>
+      <c r="AA215" s="1"/>
+      <c r="AB215" s="1"/>
+      <c r="AC215" s="1"/>
+      <c r="AD215" s="1"/>
+      <c r="AE215" s="1"/>
+      <c r="AF215" s="1"/>
+      <c r="AG215" s="1"/>
+    </row>
+    <row r="216" spans="12:33" ht="15" customHeight="1">
+      <c r="L216" s="13"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+      <c r="O216" s="1"/>
+      <c r="P216" s="1"/>
+      <c r="Q216" s="1"/>
+      <c r="R216" s="1"/>
+      <c r="S216" s="1"/>
+      <c r="T216" s="1"/>
+      <c r="U216" s="1"/>
+      <c r="V216" s="1"/>
+      <c r="W216" s="1"/>
+      <c r="X216" s="1"/>
+      <c r="Y216" s="1"/>
+      <c r="Z216" s="1"/>
+      <c r="AA216" s="1"/>
+      <c r="AB216" s="1"/>
+      <c r="AC216" s="1"/>
+      <c r="AD216" s="1"/>
+      <c r="AE216" s="1"/>
+      <c r="AF216" s="1"/>
+      <c r="AG216" s="1"/>
+    </row>
+    <row r="217" spans="12:33" ht="15" customHeight="1">
+      <c r="L217" s="13"/>
+      <c r="M217" s="1"/>
+      <c r="N217" s="1"/>
+      <c r="O217" s="1"/>
+      <c r="P217" s="1"/>
+      <c r="Q217" s="1"/>
+      <c r="R217" s="1"/>
+      <c r="S217" s="1"/>
+      <c r="T217" s="1"/>
+      <c r="U217" s="1"/>
+      <c r="V217" s="1"/>
+      <c r="W217" s="1"/>
+      <c r="X217" s="1"/>
+      <c r="Y217" s="1"/>
+      <c r="Z217" s="1"/>
+      <c r="AA217" s="1"/>
+      <c r="AB217" s="1"/>
+      <c r="AC217" s="1"/>
+      <c r="AD217" s="1"/>
+      <c r="AE217" s="1"/>
+      <c r="AF217" s="1"/>
+      <c r="AG217" s="1"/>
+    </row>
+    <row r="218" spans="12:33" ht="15" customHeight="1">
+      <c r="L218" s="13"/>
+      <c r="M218" s="1"/>
+      <c r="N218" s="1"/>
+      <c r="O218" s="1"/>
+      <c r="P218" s="1"/>
+      <c r="Q218" s="1"/>
+      <c r="R218" s="1"/>
+      <c r="S218" s="1"/>
+      <c r="T218" s="1"/>
+      <c r="U218" s="1"/>
+      <c r="V218" s="1"/>
+      <c r="W218" s="1"/>
+      <c r="X218" s="1"/>
+      <c r="Y218" s="1"/>
+      <c r="Z218" s="1"/>
+      <c r="AA218" s="1"/>
+      <c r="AB218" s="1"/>
+      <c r="AC218" s="1"/>
+      <c r="AD218" s="1"/>
+      <c r="AE218" s="1"/>
+      <c r="AF218" s="1"/>
+      <c r="AG218" s="1"/>
+    </row>
+    <row r="219" spans="12:33" ht="15" customHeight="1">
+      <c r="L219" s="13"/>
+      <c r="M219" s="1"/>
+      <c r="N219" s="1"/>
+      <c r="O219" s="1"/>
+      <c r="P219" s="1"/>
+      <c r="Q219" s="1"/>
+      <c r="R219" s="1"/>
+      <c r="S219" s="1"/>
+      <c r="T219" s="1"/>
+      <c r="U219" s="1"/>
+      <c r="V219" s="1"/>
+      <c r="W219" s="1"/>
+      <c r="X219" s="1"/>
+      <c r="Y219" s="1"/>
+      <c r="Z219" s="1"/>
+      <c r="AA219" s="1"/>
+      <c r="AB219" s="1"/>
+      <c r="AC219" s="1"/>
+      <c r="AD219" s="1"/>
+      <c r="AE219" s="1"/>
+      <c r="AF219" s="1"/>
+      <c r="AG219" s="1"/>
+    </row>
+    <row r="220" spans="12:33" ht="15" customHeight="1">
+      <c r="L220" s="13"/>
+      <c r="M220" s="1"/>
+      <c r="N220" s="1"/>
+      <c r="O220" s="1"/>
+      <c r="P220" s="1"/>
+      <c r="Q220" s="1"/>
+      <c r="R220" s="1"/>
+      <c r="S220" s="1"/>
+      <c r="T220" s="1"/>
+      <c r="U220" s="1"/>
+      <c r="V220" s="1"/>
+      <c r="W220" s="1"/>
+      <c r="X220" s="1"/>
+      <c r="Y220" s="1"/>
+      <c r="Z220" s="1"/>
+      <c r="AA220" s="1"/>
+      <c r="AB220" s="1"/>
+      <c r="AC220" s="1"/>
+      <c r="AD220" s="1"/>
+      <c r="AE220" s="1"/>
+      <c r="AF220" s="1"/>
+      <c r="AG220" s="1"/>
+    </row>
+    <row r="221" spans="12:33" ht="15" customHeight="1">
+      <c r="L221" s="13"/>
+      <c r="M221" s="1"/>
+      <c r="N221" s="1"/>
+      <c r="O221" s="1"/>
+      <c r="P221" s="1"/>
+      <c r="Q221" s="1"/>
+      <c r="R221" s="1"/>
+      <c r="S221" s="1"/>
+      <c r="T221" s="1"/>
+      <c r="U221" s="1"/>
+      <c r="V221" s="1"/>
+      <c r="W221" s="1"/>
+      <c r="X221" s="1"/>
+      <c r="Y221" s="1"/>
+      <c r="Z221" s="1"/>
+      <c r="AA221" s="1"/>
+      <c r="AB221" s="1"/>
+      <c r="AC221" s="1"/>
+      <c r="AD221" s="1"/>
+      <c r="AE221" s="1"/>
+      <c r="AF221" s="1"/>
+      <c r="AG221" s="1"/>
+    </row>
+    <row r="222" spans="12:33" ht="15" customHeight="1">
+      <c r="L222" s="13"/>
+      <c r="M222" s="1"/>
+      <c r="N222" s="1"/>
+      <c r="O222" s="1"/>
+      <c r="P222" s="1"/>
+      <c r="Q222" s="1"/>
+      <c r="R222" s="1"/>
+      <c r="S222" s="1"/>
+      <c r="T222" s="1"/>
+      <c r="U222" s="1"/>
+      <c r="V222" s="1"/>
+      <c r="W222" s="1"/>
+      <c r="X222" s="1"/>
+      <c r="Y222" s="1"/>
+      <c r="Z222" s="1"/>
+      <c r="AA222" s="1"/>
+      <c r="AB222" s="1"/>
+      <c r="AC222" s="1"/>
+      <c r="AD222" s="1"/>
+      <c r="AE222" s="1"/>
+      <c r="AF222" s="1"/>
+      <c r="AG222" s="1"/>
+    </row>
+    <row r="223" spans="12:33" ht="15" customHeight="1">
+      <c r="L223" s="13"/>
+      <c r="M223" s="1"/>
+      <c r="N223" s="1"/>
+      <c r="O223" s="1"/>
+      <c r="P223" s="1"/>
+      <c r="Q223" s="1"/>
+      <c r="R223" s="1"/>
+      <c r="S223" s="1"/>
+      <c r="T223" s="1"/>
+      <c r="U223" s="1"/>
+      <c r="V223" s="1"/>
+      <c r="W223" s="1"/>
+      <c r="X223" s="1"/>
+      <c r="Y223" s="1"/>
+      <c r="Z223" s="1"/>
+      <c r="AA223" s="1"/>
+      <c r="AB223" s="1"/>
+      <c r="AC223" s="1"/>
+      <c r="AD223" s="1"/>
+      <c r="AE223" s="1"/>
+      <c r="AF223" s="1"/>
+      <c r="AG223" s="1"/>
+    </row>
+    <row r="224" spans="12:33" ht="15" customHeight="1">
+      <c r="L224" s="13"/>
+      <c r="M224" s="1"/>
+      <c r="N224" s="1"/>
+      <c r="O224" s="1"/>
+      <c r="P224" s="1"/>
+      <c r="Q224" s="1"/>
+      <c r="R224" s="1"/>
+      <c r="S224" s="1"/>
+      <c r="T224" s="1"/>
+      <c r="U224" s="1"/>
+      <c r="V224" s="1"/>
+      <c r="W224" s="1"/>
+      <c r="X224" s="1"/>
+      <c r="Y224" s="1"/>
+      <c r="Z224" s="1"/>
+      <c r="AA224" s="1"/>
+      <c r="AB224" s="1"/>
+      <c r="AC224" s="1"/>
+      <c r="AD224" s="1"/>
+      <c r="AE224" s="1"/>
+      <c r="AF224" s="1"/>
+      <c r="AG224" s="1"/>
+    </row>
+    <row r="225" spans="12:33" ht="15" customHeight="1">
+      <c r="L225" s="13"/>
+      <c r="M225" s="1"/>
+      <c r="N225" s="1"/>
+      <c r="O225" s="1"/>
+      <c r="P225" s="1"/>
+      <c r="Q225" s="1"/>
+      <c r="R225" s="1"/>
+      <c r="S225" s="1"/>
+      <c r="T225" s="1"/>
+      <c r="U225" s="1"/>
+      <c r="V225" s="1"/>
+      <c r="W225" s="1"/>
+      <c r="X225" s="1"/>
+      <c r="Y225" s="1"/>
+      <c r="Z225" s="1"/>
+      <c r="AA225" s="1"/>
+      <c r="AB225" s="1"/>
+      <c r="AC225" s="1"/>
+      <c r="AD225" s="1"/>
+      <c r="AE225" s="1"/>
+      <c r="AF225" s="1"/>
+      <c r="AG225" s="1"/>
+    </row>
+    <row r="226" spans="12:33" ht="15" customHeight="1">
+      <c r="L226" s="13"/>
+      <c r="M226" s="1"/>
+      <c r="N226" s="1"/>
+      <c r="O226" s="1"/>
+      <c r="P226" s="1"/>
+      <c r="Q226" s="1"/>
+      <c r="R226" s="1"/>
+      <c r="S226" s="1"/>
+      <c r="T226" s="1"/>
+      <c r="U226" s="1"/>
+      <c r="V226" s="1"/>
+      <c r="W226" s="1"/>
+      <c r="X226" s="1"/>
+      <c r="Y226" s="1"/>
+      <c r="Z226" s="1"/>
+      <c r="AA226" s="1"/>
+      <c r="AB226" s="1"/>
+      <c r="AC226" s="1"/>
+      <c r="AD226" s="1"/>
+      <c r="AE226" s="1"/>
+      <c r="AF226" s="1"/>
+      <c r="AG226" s="1"/>
+    </row>
+    <row r="227" spans="12:33" ht="15" customHeight="1">
+      <c r="L227" s="13"/>
+      <c r="M227" s="1"/>
+      <c r="N227" s="1"/>
+      <c r="O227" s="1"/>
+      <c r="P227" s="1"/>
+      <c r="Q227" s="1"/>
+      <c r="R227" s="1"/>
+      <c r="S227" s="1"/>
+      <c r="T227" s="1"/>
+      <c r="U227" s="1"/>
+      <c r="V227" s="1"/>
+      <c r="W227" s="1"/>
+      <c r="X227" s="1"/>
+      <c r="Y227" s="1"/>
+      <c r="Z227" s="1"/>
+      <c r="AA227" s="1"/>
+      <c r="AB227" s="1"/>
+      <c r="AC227" s="1"/>
+      <c r="AD227" s="1"/>
+      <c r="AE227" s="1"/>
+      <c r="AF227" s="1"/>
+      <c r="AG227" s="1"/>
+    </row>
+    <row r="228" spans="12:33" ht="15" customHeight="1">
+      <c r="L228" s="13"/>
+      <c r="M228" s="1"/>
+      <c r="N228" s="1"/>
+      <c r="O228" s="1"/>
+      <c r="P228" s="1"/>
+      <c r="Q228" s="1"/>
+      <c r="R228" s="1"/>
+      <c r="S228" s="1"/>
+      <c r="T228" s="1"/>
+      <c r="U228" s="1"/>
+      <c r="V228" s="1"/>
+      <c r="W228" s="1"/>
+      <c r="X228" s="1"/>
+      <c r="Y228" s="1"/>
+      <c r="Z228" s="1"/>
+      <c r="AA228" s="1"/>
+      <c r="AB228" s="1"/>
+      <c r="AC228" s="1"/>
+      <c r="AD228" s="1"/>
+      <c r="AE228" s="1"/>
+      <c r="AF228" s="1"/>
+      <c r="AG228" s="1"/>
+    </row>
+    <row r="229" spans="12:33" ht="15" customHeight="1">
+      <c r="L229" s="13"/>
+      <c r="M229" s="1"/>
+      <c r="N229" s="1"/>
+      <c r="O229" s="1"/>
+      <c r="P229" s="1"/>
+      <c r="Q229" s="1"/>
+      <c r="R229" s="1"/>
+      <c r="S229" s="1"/>
+      <c r="T229" s="1"/>
+      <c r="U229" s="1"/>
+      <c r="V229" s="1"/>
+      <c r="W229" s="1"/>
+      <c r="X229" s="1"/>
+      <c r="Y229" s="1"/>
+      <c r="Z229" s="1"/>
+      <c r="AA229" s="1"/>
+      <c r="AB229" s="1"/>
+      <c r="AC229" s="1"/>
+      <c r="AD229" s="1"/>
+      <c r="AE229" s="1"/>
+      <c r="AF229" s="1"/>
+      <c r="AG229" s="1"/>
+    </row>
+    <row r="230" spans="12:33" ht="15" customHeight="1">
+      <c r="L230" s="13"/>
+      <c r="M230" s="1"/>
+      <c r="N230" s="1"/>
+      <c r="O230" s="1"/>
+      <c r="P230" s="1"/>
+      <c r="Q230" s="1"/>
+      <c r="R230" s="1"/>
+      <c r="S230" s="1"/>
+      <c r="T230" s="1"/>
+      <c r="U230" s="1"/>
+      <c r="V230" s="1"/>
+      <c r="W230" s="1"/>
+      <c r="X230" s="1"/>
+      <c r="Y230" s="1"/>
+      <c r="Z230" s="1"/>
+      <c r="AA230" s="1"/>
+      <c r="AB230" s="1"/>
+      <c r="AC230" s="1"/>
+      <c r="AD230" s="1"/>
+      <c r="AE230" s="1"/>
+      <c r="AF230" s="1"/>
+      <c r="AG230" s="1"/>
+    </row>
+    <row r="231" spans="12:33" ht="15" customHeight="1">
+      <c r="L231" s="13"/>
+      <c r="M231" s="1"/>
+      <c r="N231" s="1"/>
+      <c r="O231" s="1"/>
+      <c r="P231" s="1"/>
+      <c r="Q231" s="1"/>
+      <c r="R231" s="1"/>
+      <c r="S231" s="1"/>
+      <c r="T231" s="1"/>
+      <c r="U231" s="1"/>
+      <c r="V231" s="1"/>
+      <c r="W231" s="1"/>
+      <c r="X231" s="1"/>
+      <c r="Y231" s="1"/>
+      <c r="Z231" s="1"/>
+      <c r="AA231" s="1"/>
+      <c r="AB231" s="1"/>
+      <c r="AC231" s="1"/>
+      <c r="AD231" s="1"/>
+      <c r="AE231" s="1"/>
+      <c r="AF231" s="1"/>
+      <c r="AG231" s="1"/>
+    </row>
+    <row r="232" spans="12:33" ht="15" customHeight="1">
+      <c r="L232" s="13"/>
+      <c r="M232" s="1"/>
+      <c r="N232" s="1"/>
+      <c r="O232" s="1"/>
+      <c r="P232" s="1"/>
+      <c r="Q232" s="1"/>
+      <c r="R232" s="1"/>
+      <c r="S232" s="1"/>
+      <c r="T232" s="1"/>
+      <c r="U232" s="1"/>
+      <c r="V232" s="1"/>
+      <c r="W232" s="1"/>
+      <c r="X232" s="1"/>
+      <c r="Y232" s="1"/>
+      <c r="Z232" s="1"/>
+      <c r="AA232" s="1"/>
+      <c r="AB232" s="1"/>
+      <c r="AC232" s="1"/>
+      <c r="AD232" s="1"/>
+      <c r="AE232" s="1"/>
+      <c r="AF232" s="1"/>
+      <c r="AG232" s="1"/>
+    </row>
+    <row r="233" spans="12:33" ht="15" customHeight="1">
+      <c r="L233" s="13"/>
+      <c r="M233" s="1"/>
+      <c r="N233" s="1"/>
+      <c r="O233" s="1"/>
+      <c r="P233" s="1"/>
+      <c r="Q233" s="1"/>
+      <c r="R233" s="1"/>
+      <c r="S233" s="1"/>
+      <c r="T233" s="1"/>
+      <c r="U233" s="1"/>
+      <c r="V233" s="1"/>
+      <c r="W233" s="1"/>
+      <c r="X233" s="1"/>
+      <c r="Y233" s="1"/>
+      <c r="Z233" s="1"/>
+      <c r="AA233" s="1"/>
+      <c r="AB233" s="1"/>
+      <c r="AC233" s="1"/>
+      <c r="AD233" s="1"/>
+      <c r="AE233" s="1"/>
+      <c r="AF233" s="1"/>
+      <c r="AG233" s="1"/>
+    </row>
+    <row r="234" spans="12:33" ht="15" customHeight="1">
+      <c r="L234" s="13"/>
+      <c r="M234" s="1"/>
+      <c r="N234" s="1"/>
+      <c r="O234" s="1"/>
+      <c r="P234" s="1"/>
+      <c r="Q234" s="1"/>
+      <c r="R234" s="1"/>
+      <c r="S234" s="1"/>
+      <c r="T234" s="1"/>
+      <c r="U234" s="1"/>
+      <c r="V234" s="1"/>
+      <c r="W234" s="1"/>
+      <c r="X234" s="1"/>
+      <c r="Y234" s="1"/>
+      <c r="Z234" s="1"/>
+      <c r="AA234" s="1"/>
+      <c r="AB234" s="1"/>
+      <c r="AC234" s="1"/>
+      <c r="AD234" s="1"/>
+      <c r="AE234" s="1"/>
+      <c r="AF234" s="1"/>
+      <c r="AG234" s="1"/>
+    </row>
+    <row r="235" spans="12:33" ht="15" customHeight="1">
+      <c r="L235" s="13"/>
+      <c r="M235" s="1"/>
+      <c r="N235" s="1"/>
+      <c r="O235" s="1"/>
+      <c r="P235" s="1"/>
+      <c r="Q235" s="1"/>
+      <c r="R235" s="1"/>
+      <c r="S235" s="1"/>
+      <c r="T235" s="1"/>
+      <c r="U235" s="1"/>
+      <c r="V235" s="1"/>
+      <c r="W235" s="1"/>
+      <c r="X235" s="1"/>
+      <c r="Y235" s="1"/>
+      <c r="Z235" s="1"/>
+      <c r="AA235" s="1"/>
+      <c r="AB235" s="1"/>
+      <c r="AC235" s="1"/>
+      <c r="AD235" s="1"/>
+      <c r="AE235" s="1"/>
+      <c r="AF235" s="1"/>
+      <c r="AG235" s="1"/>
+    </row>
+    <row r="236" spans="12:33" ht="15" customHeight="1">
+      <c r="L236" s="13"/>
+      <c r="M236" s="1"/>
+      <c r="N236" s="1"/>
+      <c r="O236" s="1"/>
+      <c r="P236" s="1"/>
+      <c r="Q236" s="1"/>
+      <c r="R236" s="1"/>
+      <c r="S236" s="1"/>
+      <c r="T236" s="1"/>
+      <c r="U236" s="1"/>
+      <c r="V236" s="1"/>
+      <c r="W236" s="1"/>
+      <c r="X236" s="1"/>
+      <c r="Y236" s="1"/>
+      <c r="Z236" s="1"/>
+      <c r="AA236" s="1"/>
+      <c r="AB236" s="1"/>
+      <c r="AC236" s="1"/>
+      <c r="AD236" s="1"/>
+      <c r="AE236" s="1"/>
+      <c r="AF236" s="1"/>
+      <c r="AG236" s="1"/>
+    </row>
+    <row r="237" spans="12:33" ht="15" customHeight="1">
+      <c r="L237" s="13"/>
+      <c r="M237" s="1"/>
+      <c r="N237" s="1"/>
+      <c r="O237" s="1"/>
+      <c r="P237" s="1"/>
+      <c r="Q237" s="1"/>
+      <c r="R237" s="1"/>
+      <c r="S237" s="1"/>
+      <c r="T237" s="1"/>
+      <c r="U237" s="1"/>
+      <c r="V237" s="1"/>
+      <c r="W237" s="1"/>
+      <c r="X237" s="1"/>
+      <c r="Y237" s="1"/>
+      <c r="Z237" s="1"/>
+      <c r="AA237" s="1"/>
+      <c r="AB237" s="1"/>
+      <c r="AC237" s="1"/>
+      <c r="AD237" s="1"/>
+      <c r="AE237" s="1"/>
+      <c r="AF237" s="1"/>
+      <c r="AG237" s="1"/>
+    </row>
+    <row r="238" spans="12:33" ht="15" customHeight="1">
+      <c r="L238" s="13"/>
+      <c r="M238" s="1"/>
+      <c r="N238" s="1"/>
+      <c r="O238" s="1"/>
+      <c r="P238" s="1"/>
+      <c r="Q238" s="1"/>
+      <c r="R238" s="1"/>
+      <c r="S238" s="1"/>
+      <c r="T238" s="1"/>
+      <c r="U238" s="1"/>
+      <c r="V238" s="1"/>
+      <c r="W238" s="1"/>
+      <c r="X238" s="1"/>
+      <c r="Y238" s="1"/>
+      <c r="Z238" s="1"/>
+      <c r="AA238" s="1"/>
+      <c r="AB238" s="1"/>
+      <c r="AC238" s="1"/>
+      <c r="AD238" s="1"/>
+      <c r="AE238" s="1"/>
+      <c r="AF238" s="1"/>
+      <c r="AG238" s="1"/>
+    </row>
+    <row r="239" spans="12:33" ht="15" customHeight="1">
+      <c r="L239" s="13"/>
+      <c r="M239" s="1"/>
+      <c r="N239" s="1"/>
+      <c r="O239" s="1"/>
+      <c r="P239" s="1"/>
+      <c r="Q239" s="1"/>
+      <c r="R239" s="1"/>
+      <c r="S239" s="1"/>
+      <c r="T239" s="1"/>
+      <c r="U239" s="1"/>
+      <c r="V239" s="1"/>
+      <c r="W239" s="1"/>
+      <c r="X239" s="1"/>
+      <c r="Y239" s="1"/>
+      <c r="Z239" s="1"/>
+      <c r="AA239" s="1"/>
+      <c r="AB239" s="1"/>
+      <c r="AC239" s="1"/>
+      <c r="AD239" s="1"/>
+      <c r="AE239" s="1"/>
+      <c r="AF239" s="1"/>
+      <c r="AG239" s="1"/>
+    </row>
+    <row r="240" spans="12:33" ht="15" customHeight="1">
+      <c r="L240" s="13"/>
+      <c r="M240" s="1"/>
+      <c r="N240" s="1"/>
+      <c r="O240" s="1"/>
+      <c r="P240" s="1"/>
+      <c r="Q240" s="1"/>
+      <c r="R240" s="1"/>
+      <c r="S240" s="1"/>
+      <c r="T240" s="1"/>
+      <c r="U240" s="1"/>
+      <c r="V240" s="1"/>
+      <c r="W240" s="1"/>
+      <c r="X240" s="1"/>
+      <c r="Y240" s="1"/>
+      <c r="Z240" s="1"/>
+      <c r="AA240" s="1"/>
+      <c r="AB240" s="1"/>
+      <c r="AC240" s="1"/>
+      <c r="AD240" s="1"/>
+      <c r="AE240" s="1"/>
+      <c r="AF240" s="1"/>
+      <c r="AG240" s="1"/>
+    </row>
+    <row r="241" spans="12:33" ht="15" customHeight="1">
+      <c r="L241" s="13"/>
+      <c r="M241" s="1"/>
+      <c r="N241" s="1"/>
+      <c r="O241" s="1"/>
+      <c r="P241" s="1"/>
+      <c r="Q241" s="1"/>
+      <c r="R241" s="1"/>
+      <c r="S241" s="1"/>
+      <c r="T241" s="1"/>
+      <c r="U241" s="1"/>
+      <c r="V241" s="1"/>
+      <c r="W241" s="1"/>
+      <c r="X241" s="1"/>
+      <c r="Y241" s="1"/>
+      <c r="Z241" s="1"/>
+      <c r="AA241" s="1"/>
+      <c r="AB241" s="1"/>
+      <c r="AC241" s="1"/>
+      <c r="AD241" s="1"/>
+      <c r="AE241" s="1"/>
+      <c r="AF241" s="1"/>
+      <c r="AG241" s="1"/>
+    </row>
+    <row r="242" spans="12:33" ht="15" customHeight="1">
+      <c r="L242" s="13"/>
+      <c r="M242" s="1"/>
+      <c r="N242" s="1"/>
+      <c r="O242" s="1"/>
+      <c r="P242" s="1"/>
+      <c r="Q242" s="1"/>
+      <c r="R242" s="1"/>
+      <c r="S242" s="1"/>
+      <c r="T242" s="1"/>
+      <c r="U242" s="1"/>
+      <c r="V242" s="1"/>
+      <c r="W242" s="1"/>
+      <c r="X242" s="1"/>
+      <c r="Y242" s="1"/>
+      <c r="Z242" s="1"/>
+      <c r="AA242" s="1"/>
+      <c r="AB242" s="1"/>
+      <c r="AC242" s="1"/>
+      <c r="AD242" s="1"/>
+      <c r="AE242" s="1"/>
+      <c r="AF242" s="1"/>
+      <c r="AG242" s="1"/>
+    </row>
+    <row r="243" spans="12:33" ht="15" customHeight="1">
+      <c r="L243" s="13"/>
+      <c r="M243" s="1"/>
+      <c r="N243" s="1"/>
+      <c r="O243" s="1"/>
+      <c r="P243" s="1"/>
+      <c r="Q243" s="1"/>
+      <c r="R243" s="1"/>
+      <c r="S243" s="1"/>
+      <c r="T243" s="1"/>
+      <c r="U243" s="1"/>
+      <c r="V243" s="1"/>
+      <c r="W243" s="1"/>
+      <c r="X243" s="1"/>
+      <c r="Y243" s="1"/>
+      <c r="Z243" s="1"/>
+      <c r="AA243" s="1"/>
+      <c r="AB243" s="1"/>
+      <c r="AC243" s="1"/>
+      <c r="AD243" s="1"/>
+      <c r="AE243" s="1"/>
+      <c r="AF243" s="1"/>
+      <c r="AG243" s="1"/>
+    </row>
+    <row r="244" spans="12:33" ht="15" customHeight="1">
+      <c r="L244" s="13"/>
+      <c r="M244" s="1"/>
+      <c r="N244" s="1"/>
+      <c r="O244" s="1"/>
+      <c r="P244" s="1"/>
+      <c r="Q244" s="1"/>
+      <c r="R244" s="1"/>
+      <c r="S244" s="1"/>
+      <c r="T244" s="1"/>
+      <c r="U244" s="1"/>
+      <c r="V244" s="1"/>
+      <c r="W244" s="1"/>
+      <c r="X244" s="1"/>
+      <c r="Y244" s="1"/>
+      <c r="Z244" s="1"/>
+      <c r="AA244" s="1"/>
+      <c r="AB244" s="1"/>
+      <c r="AC244" s="1"/>
+      <c r="AD244" s="1"/>
+      <c r="AE244" s="1"/>
+      <c r="AF244" s="1"/>
+      <c r="AG244" s="1"/>
+    </row>
+    <row r="245" spans="12:33" ht="15" customHeight="1">
+      <c r="L245" s="13"/>
+      <c r="M245" s="1"/>
+      <c r="N245" s="1"/>
+      <c r="O245" s="1"/>
+      <c r="P245" s="1"/>
+      <c r="Q245" s="1"/>
+      <c r="R245" s="1"/>
+      <c r="S245" s="1"/>
+      <c r="T245" s="1"/>
+      <c r="U245" s="1"/>
+      <c r="V245" s="1"/>
+      <c r="W245" s="1"/>
+      <c r="X245" s="1"/>
+      <c r="Y245" s="1"/>
+      <c r="Z245" s="1"/>
+      <c r="AA245" s="1"/>
+      <c r="AB245" s="1"/>
+      <c r="AC245" s="1"/>
+      <c r="AD245" s="1"/>
+      <c r="AE245" s="1"/>
+      <c r="AF245" s="1"/>
+      <c r="AG245" s="1"/>
+    </row>
+    <row r="246" spans="12:33" ht="15" customHeight="1">
+      <c r="L246" s="13"/>
+      <c r="M246" s="1"/>
+      <c r="N246" s="1"/>
+      <c r="O246" s="1"/>
+      <c r="P246" s="1"/>
+      <c r="Q246" s="1"/>
+      <c r="R246" s="1"/>
+      <c r="S246" s="1"/>
+      <c r="T246" s="1"/>
+      <c r="U246" s="1"/>
+      <c r="V246" s="1"/>
+      <c r="W246" s="1"/>
+      <c r="X246" s="1"/>
+      <c r="Y246" s="1"/>
+      <c r="Z246" s="1"/>
+      <c r="AA246" s="1"/>
+      <c r="AB246" s="1"/>
+      <c r="AC246" s="1"/>
+      <c r="AD246" s="1"/>
+      <c r="AE246" s="1"/>
+      <c r="AF246" s="1"/>
+      <c r="AG246" s="1"/>
+    </row>
+    <row r="247" spans="12:33" ht="15" customHeight="1">
+      <c r="L247" s="13"/>
+      <c r="M247" s="1"/>
+      <c r="N247" s="1"/>
+      <c r="O247" s="1"/>
+      <c r="P247" s="1"/>
+      <c r="Q247" s="1"/>
+      <c r="R247" s="1"/>
+      <c r="S247" s="1"/>
+      <c r="T247" s="1"/>
+      <c r="U247" s="1"/>
+      <c r="V247" s="1"/>
+      <c r="W247" s="1"/>
+      <c r="X247" s="1"/>
+      <c r="Y247" s="1"/>
+      <c r="Z247" s="1"/>
+      <c r="AA247" s="1"/>
+      <c r="AB247" s="1"/>
+      <c r="AC247" s="1"/>
+      <c r="AD247" s="1"/>
+      <c r="AE247" s="1"/>
+      <c r="AF247" s="1"/>
+      <c r="AG247" s="1"/>
+    </row>
+    <row r="248" spans="12:33" ht="15" customHeight="1">
+      <c r="L248" s="13"/>
+      <c r="M248" s="1"/>
+      <c r="N248" s="1"/>
+      <c r="O248" s="1"/>
+      <c r="P248" s="1"/>
+      <c r="Q248" s="1"/>
+      <c r="R248" s="1"/>
+      <c r="S248" s="1"/>
+      <c r="T248" s="1"/>
+      <c r="U248" s="1"/>
+      <c r="V248" s="1"/>
+      <c r="W248" s="1"/>
+      <c r="X248" s="1"/>
+      <c r="Y248" s="1"/>
+      <c r="Z248" s="1"/>
+      <c r="AA248" s="1"/>
+      <c r="AB248" s="1"/>
+      <c r="AC248" s="1"/>
+      <c r="AD248" s="1"/>
+      <c r="AE248" s="1"/>
+      <c r="AF248" s="1"/>
+      <c r="AG248" s="1"/>
+    </row>
+    <row r="249" spans="12:33" ht="15" customHeight="1">
+      <c r="L249" s="13"/>
+      <c r="M249" s="1"/>
+      <c r="N249" s="1"/>
+      <c r="O249" s="1"/>
+      <c r="P249" s="1"/>
+      <c r="Q249" s="1"/>
+      <c r="R249" s="1"/>
+      <c r="S249" s="1"/>
+      <c r="T249" s="1"/>
+      <c r="U249" s="1"/>
+      <c r="V249" s="1"/>
+      <c r="W249" s="1"/>
+      <c r="X249" s="1"/>
+      <c r="Y249" s="1"/>
+      <c r="Z249" s="1"/>
+      <c r="AA249" s="1"/>
+      <c r="AB249" s="1"/>
+      <c r="AC249" s="1"/>
+      <c r="AD249" s="1"/>
+      <c r="AE249" s="1"/>
+      <c r="AF249" s="1"/>
+      <c r="AG249" s="1"/>
+    </row>
+    <row r="250" spans="12:33" ht="15" customHeight="1">
+      <c r="L250" s="13"/>
+      <c r="M250" s="1"/>
+      <c r="N250" s="1"/>
+      <c r="O250" s="1"/>
+      <c r="P250" s="1"/>
+      <c r="Q250" s="1"/>
+      <c r="R250" s="1"/>
+      <c r="S250" s="1"/>
+      <c r="T250" s="1"/>
+      <c r="U250" s="1"/>
+      <c r="V250" s="1"/>
+      <c r="W250" s="1"/>
+      <c r="X250" s="1"/>
+      <c r="Y250" s="1"/>
+      <c r="Z250" s="1"/>
+      <c r="AA250" s="1"/>
+      <c r="AB250" s="1"/>
+      <c r="AC250" s="1"/>
+      <c r="AD250" s="1"/>
+      <c r="AE250" s="1"/>
+      <c r="AF250" s="1"/>
+      <c r="AG250" s="1"/>
+    </row>
+    <row r="251" spans="12:33" ht="15" customHeight="1">
+      <c r="L251" s="13"/>
+      <c r="M251" s="1"/>
+      <c r="N251" s="1"/>
+      <c r="O251" s="1"/>
+      <c r="P251" s="1"/>
+      <c r="Q251" s="1"/>
+      <c r="R251" s="1"/>
+      <c r="S251" s="1"/>
+      <c r="T251" s="1"/>
+      <c r="U251" s="1"/>
+      <c r="V251" s="1"/>
+      <c r="W251" s="1"/>
+      <c r="X251" s="1"/>
+      <c r="Y251" s="1"/>
+      <c r="Z251" s="1"/>
+      <c r="AA251" s="1"/>
+      <c r="AB251" s="1"/>
+      <c r="AC251" s="1"/>
+      <c r="AD251" s="1"/>
+      <c r="AE251" s="1"/>
+      <c r="AF251" s="1"/>
+      <c r="AG251" s="1"/>
+    </row>
+    <row r="252" spans="12:33" ht="15" customHeight="1">
+      <c r="L252" s="13"/>
+      <c r="M252" s="1"/>
+      <c r="N252" s="1"/>
+      <c r="O252" s="1"/>
+      <c r="P252" s="1"/>
+      <c r="Q252" s="1"/>
+      <c r="R252" s="1"/>
+      <c r="S252" s="1"/>
+      <c r="T252" s="1"/>
+      <c r="U252" s="1"/>
+      <c r="V252" s="1"/>
+      <c r="W252" s="1"/>
+      <c r="X252" s="1"/>
+      <c r="Y252" s="1"/>
+      <c r="Z252" s="1"/>
+      <c r="AA252" s="1"/>
+      <c r="AB252" s="1"/>
+      <c r="AC252" s="1"/>
+      <c r="AD252" s="1"/>
+      <c r="AE252" s="1"/>
+      <c r="AF252" s="1"/>
+      <c r="AG252" s="1"/>
+    </row>
+    <row r="253" spans="12:33" ht="15" customHeight="1">
+      <c r="L253" s="13"/>
+      <c r="M253" s="1"/>
+      <c r="N253" s="1"/>
+      <c r="O253" s="1"/>
+      <c r="P253" s="1"/>
+      <c r="Q253" s="1"/>
+      <c r="R253" s="1"/>
+      <c r="S253" s="1"/>
+      <c r="T253" s="1"/>
+      <c r="U253" s="1"/>
+      <c r="V253" s="1"/>
+      <c r="W253" s="1"/>
+      <c r="X253" s="1"/>
+      <c r="Y253" s="1"/>
+      <c r="Z253" s="1"/>
+      <c r="AA253" s="1"/>
+      <c r="AB253" s="1"/>
+      <c r="AC253" s="1"/>
+      <c r="AD253" s="1"/>
+      <c r="AE253" s="1"/>
+      <c r="AF253" s="1"/>
+      <c r="AG253" s="1"/>
+    </row>
+    <row r="254" spans="12:33" ht="15" customHeight="1">
+      <c r="L254" s="13"/>
+      <c r="M254" s="1"/>
+      <c r="N254" s="1"/>
+      <c r="O254" s="1"/>
+      <c r="P254" s="1"/>
+      <c r="Q254" s="1"/>
+      <c r="R254" s="1"/>
+      <c r="S254" s="1"/>
+      <c r="T254" s="1"/>
+      <c r="U254" s="1"/>
+      <c r="V254" s="1"/>
+      <c r="W254" s="1"/>
+      <c r="X254" s="1"/>
+      <c r="Y254" s="1"/>
+      <c r="Z254" s="1"/>
+      <c r="AA254" s="1"/>
+      <c r="AB254" s="1"/>
+      <c r="AC254" s="1"/>
+      <c r="AD254" s="1"/>
+      <c r="AE254" s="1"/>
+      <c r="AF254" s="1"/>
+      <c r="AG254" s="1"/>
+    </row>
+    <row r="255" spans="12:33" ht="15" customHeight="1">
+      <c r="L255" s="13"/>
+      <c r="M255" s="1"/>
+      <c r="N255" s="1"/>
+      <c r="O255" s="1"/>
+      <c r="P255" s="1"/>
+      <c r="Q255" s="1"/>
+      <c r="R255" s="1"/>
+      <c r="S255" s="1"/>
+      <c r="T255" s="1"/>
+      <c r="U255" s="1"/>
+      <c r="V255" s="1"/>
+      <c r="W255" s="1"/>
+      <c r="X255" s="1"/>
+      <c r="Y255" s="1"/>
+      <c r="Z255" s="1"/>
+      <c r="AA255" s="1"/>
+      <c r="AB255" s="1"/>
+      <c r="AC255" s="1"/>
+      <c r="AD255" s="1"/>
+      <c r="AE255" s="1"/>
+      <c r="AF255" s="1"/>
+      <c r="AG255" s="1"/>
+    </row>
+    <row r="256" spans="12:33" ht="15" customHeight="1">
+      <c r="L256" s="13"/>
+      <c r="M256" s="1"/>
+      <c r="N256" s="1"/>
+      <c r="O256" s="1"/>
+      <c r="P256" s="1"/>
+      <c r="Q256" s="1"/>
+      <c r="R256" s="1"/>
+      <c r="S256" s="1"/>
+      <c r="T256" s="1"/>
+      <c r="U256" s="1"/>
+      <c r="V256" s="1"/>
+      <c r="W256" s="1"/>
+      <c r="X256" s="1"/>
+      <c r="Y256" s="1"/>
+      <c r="Z256" s="1"/>
+      <c r="AA256" s="1"/>
+      <c r="AB256" s="1"/>
+      <c r="AC256" s="1"/>
+      <c r="AD256" s="1"/>
+      <c r="AE256" s="1"/>
+      <c r="AF256" s="1"/>
+      <c r="AG256" s="1"/>
+    </row>
+    <row r="257" spans="12:33" ht="15" customHeight="1">
+      <c r="L257" s="13"/>
+      <c r="M257" s="1"/>
+      <c r="N257" s="1"/>
+      <c r="O257" s="1"/>
+      <c r="P257" s="1"/>
+      <c r="Q257" s="1"/>
+      <c r="R257" s="1"/>
+      <c r="S257" s="1"/>
+      <c r="T257" s="1"/>
+      <c r="U257" s="1"/>
+      <c r="V257" s="1"/>
+      <c r="W257" s="1"/>
+      <c r="X257" s="1"/>
+      <c r="Y257" s="1"/>
+      <c r="Z257" s="1"/>
+      <c r="AA257" s="1"/>
+      <c r="AB257" s="1"/>
+      <c r="AC257" s="1"/>
+      <c r="AD257" s="1"/>
+      <c r="AE257" s="1"/>
+      <c r="AF257" s="1"/>
+      <c r="AG257" s="1"/>
+    </row>
+    <row r="258" spans="12:33" ht="15" customHeight="1">
+      <c r="L258" s="13"/>
+      <c r="M258" s="1"/>
+      <c r="N258" s="1"/>
+      <c r="O258" s="1"/>
+      <c r="P258" s="1"/>
+      <c r="Q258" s="1"/>
+      <c r="R258" s="1"/>
+      <c r="S258" s="1"/>
+      <c r="T258" s="1"/>
+      <c r="U258" s="1"/>
+      <c r="V258" s="1"/>
+      <c r="W258" s="1"/>
+      <c r="X258" s="1"/>
+      <c r="Y258" s="1"/>
+      <c r="Z258" s="1"/>
+      <c r="AA258" s="1"/>
+      <c r="AB258" s="1"/>
+      <c r="AC258" s="1"/>
+      <c r="AD258" s="1"/>
+      <c r="AE258" s="1"/>
+      <c r="AF258" s="1"/>
+      <c r="AG258" s="1"/>
+    </row>
+    <row r="259" spans="12:33" ht="15" customHeight="1">
+      <c r="L259" s="13"/>
+      <c r="M259" s="1"/>
+      <c r="N259" s="1"/>
+      <c r="O259" s="1"/>
+      <c r="P259" s="1"/>
+      <c r="Q259" s="1"/>
+      <c r="R259" s="1"/>
+      <c r="S259" s="1"/>
+      <c r="T259" s="1"/>
+      <c r="U259" s="1"/>
+      <c r="V259" s="1"/>
+      <c r="W259" s="1"/>
+      <c r="X259" s="1"/>
+      <c r="Y259" s="1"/>
+      <c r="Z259" s="1"/>
+      <c r="AA259" s="1"/>
+      <c r="AB259" s="1"/>
+      <c r="AC259" s="1"/>
+      <c r="AD259" s="1"/>
+      <c r="AE259" s="1"/>
+      <c r="AF259" s="1"/>
+      <c r="AG259" s="1"/>
+    </row>
+    <row r="260" spans="12:33" ht="15" customHeight="1">
+      <c r="L260" s="13"/>
+      <c r="M260" s="1"/>
+      <c r="N260" s="1"/>
+      <c r="O260" s="1"/>
+      <c r="P260" s="1"/>
+      <c r="Q260" s="1"/>
+      <c r="R260" s="1"/>
+      <c r="S260" s="1"/>
+      <c r="T260" s="1"/>
+      <c r="U260" s="1"/>
+      <c r="V260" s="1"/>
+      <c r="W260" s="1"/>
+      <c r="X260" s="1"/>
+      <c r="Y260" s="1"/>
+      <c r="Z260" s="1"/>
+      <c r="AA260" s="1"/>
+      <c r="AB260" s="1"/>
+      <c r="AC260" s="1"/>
+      <c r="AD260" s="1"/>
+      <c r="AE260" s="1"/>
+      <c r="AF260" s="1"/>
+      <c r="AG260" s="1"/>
+    </row>
+    <row r="261" spans="12:33" ht="15" customHeight="1">
+      <c r="L261" s="13"/>
+      <c r="M261" s="1"/>
+      <c r="N261" s="1"/>
+      <c r="O261" s="1"/>
+      <c r="P261" s="1"/>
+      <c r="Q261" s="1"/>
+      <c r="R261" s="1"/>
+      <c r="S261" s="1"/>
+      <c r="T261" s="1"/>
+      <c r="U261" s="1"/>
+      <c r="V261" s="1"/>
+      <c r="W261" s="1"/>
+      <c r="X261" s="1"/>
+      <c r="Y261" s="1"/>
+      <c r="Z261" s="1"/>
+      <c r="AA261" s="1"/>
+      <c r="AB261" s="1"/>
+      <c r="AC261" s="1"/>
+      <c r="AD261" s="1"/>
+      <c r="AE261" s="1"/>
+      <c r="AF261" s="1"/>
+      <c r="AG261" s="1"/>
+    </row>
+    <row r="262" spans="12:33" ht="15" customHeight="1">
+      <c r="L262" s="13"/>
+      <c r="M262" s="1"/>
+      <c r="N262" s="1"/>
+      <c r="O262" s="1"/>
+      <c r="P262" s="1"/>
+      <c r="Q262" s="1"/>
+      <c r="R262" s="1"/>
+      <c r="S262" s="1"/>
+      <c r="T262" s="1"/>
+      <c r="U262" s="1"/>
+      <c r="V262" s="1"/>
+      <c r="W262" s="1"/>
+      <c r="X262" s="1"/>
+      <c r="Y262" s="1"/>
+      <c r="Z262" s="1"/>
+      <c r="AA262" s="1"/>
+      <c r="AB262" s="1"/>
+      <c r="AC262" s="1"/>
+      <c r="AD262" s="1"/>
+      <c r="AE262" s="1"/>
+      <c r="AF262" s="1"/>
+      <c r="AG262" s="1"/>
+    </row>
+    <row r="263" spans="12:33" ht="15" customHeight="1">
+      <c r="L263" s="13"/>
+      <c r="M263" s="1"/>
+      <c r="N263" s="1"/>
+      <c r="O263" s="1"/>
+      <c r="P263" s="1"/>
+      <c r="Q263" s="1"/>
+      <c r="R263" s="1"/>
+      <c r="S263" s="1"/>
+      <c r="T263" s="1"/>
+      <c r="U263" s="1"/>
+      <c r="V263" s="1"/>
+      <c r="W263" s="1"/>
+      <c r="X263" s="1"/>
+      <c r="Y263" s="1"/>
+      <c r="Z263" s="1"/>
+      <c r="AA263" s="1"/>
+      <c r="AB263" s="1"/>
+      <c r="AC263" s="1"/>
+      <c r="AD263" s="1"/>
+      <c r="AE263" s="1"/>
+      <c r="AF263" s="1"/>
+      <c r="AG263" s="1"/>
+    </row>
+    <row r="264" spans="12:33" ht="15" customHeight="1">
+      <c r="L264" s="13"/>
+      <c r="M264" s="1"/>
+      <c r="N264" s="1"/>
+      <c r="O264" s="1"/>
+      <c r="P264" s="1"/>
+      <c r="Q264" s="1"/>
+      <c r="R264" s="1"/>
+      <c r="S264" s="1"/>
+      <c r="T264" s="1"/>
+      <c r="U264" s="1"/>
+      <c r="V264" s="1"/>
+      <c r="W264" s="1"/>
+      <c r="X264" s="1"/>
+      <c r="Y264" s="1"/>
+      <c r="Z264" s="1"/>
+      <c r="AA264" s="1"/>
+      <c r="AB264" s="1"/>
+      <c r="AC264" s="1"/>
+      <c r="AD264" s="1"/>
+      <c r="AE264" s="1"/>
+      <c r="AF264" s="1"/>
+      <c r="AG264" s="1"/>
+    </row>
+    <row r="265" spans="12:33" ht="15" customHeight="1">
+      <c r="L265" s="13"/>
+      <c r="M265" s="1"/>
+      <c r="N265" s="1"/>
+      <c r="O265" s="1"/>
+      <c r="P265" s="1"/>
+      <c r="Q265" s="1"/>
+      <c r="R265" s="1"/>
+      <c r="S265" s="1"/>
+      <c r="T265" s="1"/>
+      <c r="U265" s="1"/>
+      <c r="V265" s="1"/>
+      <c r="W265" s="1"/>
+      <c r="X265" s="1"/>
+      <c r="Y265" s="1"/>
+      <c r="Z265" s="1"/>
+      <c r="AA265" s="1"/>
+      <c r="AB265" s="1"/>
+      <c r="AC265" s="1"/>
+      <c r="AD265" s="1"/>
+      <c r="AE265" s="1"/>
+      <c r="AF265" s="1"/>
+      <c r="AG265" s="1"/>
+    </row>
+    <row r="266" spans="12:33" ht="15" customHeight="1">
+      <c r="L266" s="13"/>
+      <c r="M266" s="1"/>
+      <c r="N266" s="1"/>
+      <c r="O266" s="1"/>
+      <c r="P266" s="1"/>
+      <c r="Q266" s="1"/>
+      <c r="R266" s="1"/>
+      <c r="S266" s="1"/>
+      <c r="T266" s="1"/>
+      <c r="U266" s="1"/>
+      <c r="V266" s="1"/>
+      <c r="W266" s="1"/>
+      <c r="X266" s="1"/>
+      <c r="Y266" s="1"/>
+      <c r="Z266" s="1"/>
+      <c r="AA266" s="1"/>
+      <c r="AB266" s="1"/>
+      <c r="AC266" s="1"/>
+      <c r="AD266" s="1"/>
+      <c r="AE266" s="1"/>
+      <c r="AF266" s="1"/>
+      <c r="AG266" s="1"/>
+    </row>
+    <row r="267" spans="12:33" ht="15" customHeight="1">
+      <c r="L267" s="13"/>
+      <c r="M267" s="1"/>
+      <c r="N267" s="1"/>
+      <c r="O267" s="1"/>
+      <c r="P267" s="1"/>
+      <c r="Q267" s="1"/>
+      <c r="R267" s="1"/>
+      <c r="S267" s="1"/>
+      <c r="T267" s="1"/>
+      <c r="U267" s="1"/>
+      <c r="V267" s="1"/>
+      <c r="W267" s="1"/>
+      <c r="X267" s="1"/>
+      <c r="Y267" s="1"/>
+      <c r="Z267" s="1"/>
+      <c r="AA267" s="1"/>
+      <c r="AB267" s="1"/>
+      <c r="AC267" s="1"/>
+      <c r="AD267" s="1"/>
+      <c r="AE267" s="1"/>
+      <c r="AF267" s="1"/>
+      <c r="AG267" s="1"/>
+    </row>
+    <row r="268" spans="12:33" ht="15" customHeight="1">
+      <c r="L268" s="13"/>
+      <c r="M268" s="1"/>
+      <c r="N268" s="1"/>
+      <c r="O268" s="1"/>
+      <c r="P268" s="1"/>
+      <c r="Q268" s="1"/>
+      <c r="R268" s="1"/>
+      <c r="S268" s="1"/>
+      <c r="T268" s="1"/>
+      <c r="U268" s="1"/>
+      <c r="V268" s="1"/>
+      <c r="W268" s="1"/>
+      <c r="X268" s="1"/>
+      <c r="Y268" s="1"/>
+      <c r="Z268" s="1"/>
+      <c r="AA268" s="1"/>
+      <c r="AB268" s="1"/>
+      <c r="AC268" s="1"/>
+      <c r="AD268" s="1"/>
+      <c r="AE268" s="1"/>
+      <c r="AF268" s="1"/>
+      <c r="AG268" s="1"/>
+    </row>
+    <row r="269" spans="12:33" ht="15" customHeight="1">
+      <c r="L269" s="13"/>
+      <c r="M269" s="1"/>
+      <c r="N269" s="1"/>
+      <c r="O269" s="1"/>
+      <c r="P269" s="1"/>
+      <c r="Q269" s="1"/>
+      <c r="R269" s="1"/>
+      <c r="S269" s="1"/>
+      <c r="T269" s="1"/>
+      <c r="U269" s="1"/>
+      <c r="V269" s="1"/>
+      <c r="W269" s="1"/>
+      <c r="X269" s="1"/>
+      <c r="Y269" s="1"/>
+      <c r="Z269" s="1"/>
+      <c r="AA269" s="1"/>
+      <c r="AB269" s="1"/>
+      <c r="AC269" s="1"/>
+      <c r="AD269" s="1"/>
+      <c r="AE269" s="1"/>
+      <c r="AF269" s="1"/>
+      <c r="AG269" s="1"/>
+    </row>
+    <row r="270" spans="12:33" ht="15" customHeight="1">
+      <c r="L270" s="13"/>
+      <c r="M270" s="1"/>
+      <c r="N270" s="1"/>
+      <c r="O270" s="1"/>
+      <c r="P270" s="1"/>
+      <c r="Q270" s="1"/>
+      <c r="R270" s="1"/>
+      <c r="S270" s="1"/>
+      <c r="T270" s="1"/>
+      <c r="U270" s="1"/>
+      <c r="V270" s="1"/>
+      <c r="W270" s="1"/>
+      <c r="X270" s="1"/>
+      <c r="Y270" s="1"/>
+      <c r="Z270" s="1"/>
+      <c r="AA270" s="1"/>
+      <c r="AB270" s="1"/>
+      <c r="AC270" s="1"/>
+      <c r="AD270" s="1"/>
+      <c r="AE270" s="1"/>
+      <c r="AF270" s="1"/>
+      <c r="AG270" s="1"/>
+    </row>
+    <row r="271" spans="12:33" ht="15" customHeight="1">
+      <c r="L271" s="13"/>
+      <c r="M271" s="1"/>
+      <c r="N271" s="1"/>
+      <c r="O271" s="1"/>
+      <c r="P271" s="1"/>
+      <c r="Q271" s="1"/>
+      <c r="R271" s="1"/>
+      <c r="S271" s="1"/>
+      <c r="T271" s="1"/>
+      <c r="U271" s="1"/>
+      <c r="V271" s="1"/>
+      <c r="W271" s="1"/>
+      <c r="X271" s="1"/>
+      <c r="Y271" s="1"/>
+      <c r="Z271" s="1"/>
+      <c r="AA271" s="1"/>
+      <c r="AB271" s="1"/>
+      <c r="AC271" s="1"/>
+      <c r="AD271" s="1"/>
+      <c r="AE271" s="1"/>
+      <c r="AF271" s="1"/>
+      <c r="AG271" s="1"/>
+    </row>
+    <row r="272" spans="12:33" ht="15" customHeight="1">
+      <c r="L272" s="13"/>
+      <c r="M272" s="1"/>
+      <c r="N272" s="1"/>
+      <c r="O272" s="1"/>
+      <c r="P272" s="1"/>
+      <c r="Q272" s="1"/>
+      <c r="R272" s="1"/>
+      <c r="S272" s="1"/>
+      <c r="T272" s="1"/>
+      <c r="U272" s="1"/>
+      <c r="V272" s="1"/>
+      <c r="W272" s="1"/>
+      <c r="X272" s="1"/>
+      <c r="Y272" s="1"/>
+      <c r="Z272" s="1"/>
+      <c r="AA272" s="1"/>
+      <c r="AB272" s="1"/>
+      <c r="AC272" s="1"/>
+      <c r="AD272" s="1"/>
+      <c r="AE272" s="1"/>
+      <c r="AF272" s="1"/>
+      <c r="AG272" s="1"/>
+    </row>
+    <row r="273" spans="12:33" ht="15" customHeight="1">
+      <c r="L273" s="13"/>
+      <c r="M273" s="1"/>
+      <c r="N273" s="1"/>
+      <c r="O273" s="1"/>
+      <c r="P273" s="1"/>
+      <c r="Q273" s="1"/>
+      <c r="R273" s="1"/>
+      <c r="S273" s="1"/>
+      <c r="T273" s="1"/>
+      <c r="U273" s="1"/>
+      <c r="V273" s="1"/>
+      <c r="W273" s="1"/>
+      <c r="X273" s="1"/>
+      <c r="Y273" s="1"/>
+      <c r="Z273" s="1"/>
+      <c r="AA273" s="1"/>
+      <c r="AB273" s="1"/>
+      <c r="AC273" s="1"/>
+      <c r="AD273" s="1"/>
+      <c r="AE273" s="1"/>
+      <c r="AF273" s="1"/>
+      <c r="AG273" s="1"/>
+    </row>
+    <row r="274" spans="12:33" ht="15" customHeight="1">
+      <c r="L274" s="13"/>
+      <c r="M274" s="1"/>
+      <c r="N274" s="1"/>
+      <c r="O274" s="1"/>
+      <c r="P274" s="1"/>
+      <c r="Q274" s="1"/>
+      <c r="R274" s="1"/>
+      <c r="S274" s="1"/>
+      <c r="T274" s="1"/>
+      <c r="U274" s="1"/>
+      <c r="V274" s="1"/>
+      <c r="W274" s="1"/>
+      <c r="X274" s="1"/>
+      <c r="Y274" s="1"/>
+      <c r="Z274" s="1"/>
+      <c r="AA274" s="1"/>
+      <c r="AB274" s="1"/>
+      <c r="AC274" s="1"/>
+      <c r="AD274" s="1"/>
+      <c r="AE274" s="1"/>
+      <c r="AF274" s="1"/>
+      <c r="AG274" s="1"/>
+    </row>
+    <row r="275" spans="12:33" ht="15" customHeight="1">
+      <c r="L275" s="13"/>
+      <c r="M275" s="1"/>
+      <c r="N275" s="1"/>
+      <c r="O275" s="1"/>
+      <c r="P275" s="1"/>
+      <c r="Q275" s="1"/>
+      <c r="R275" s="1"/>
+      <c r="S275" s="1"/>
+      <c r="T275" s="1"/>
+      <c r="U275" s="1"/>
+      <c r="V275" s="1"/>
+      <c r="W275" s="1"/>
+      <c r="X275" s="1"/>
+      <c r="Y275" s="1"/>
+      <c r="Z275" s="1"/>
+      <c r="AA275" s="1"/>
+      <c r="AB275" s="1"/>
+      <c r="AC275" s="1"/>
+      <c r="AD275" s="1"/>
+      <c r="AE275" s="1"/>
+      <c r="AF275" s="1"/>
+      <c r="AG275" s="1"/>
+    </row>
+    <row r="276" spans="12:33" ht="15" customHeight="1">
+      <c r="L276" s="13"/>
+      <c r="M276" s="1"/>
+      <c r="N276" s="1"/>
+      <c r="O276" s="1"/>
+      <c r="P276" s="1"/>
+      <c r="Q276" s="1"/>
+      <c r="R276" s="1"/>
+      <c r="S276" s="1"/>
+      <c r="T276" s="1"/>
+      <c r="U276" s="1"/>
+      <c r="V276" s="1"/>
+      <c r="W276" s="1"/>
+      <c r="X276" s="1"/>
+      <c r="Y276" s="1"/>
+      <c r="Z276" s="1"/>
+      <c r="AA276" s="1"/>
+      <c r="AB276" s="1"/>
+      <c r="AC276" s="1"/>
+      <c r="AD276" s="1"/>
+      <c r="AE276" s="1"/>
+      <c r="AF276" s="1"/>
+      <c r="AG276" s="1"/>
+    </row>
+    <row r="277" spans="12:33" ht="15" customHeight="1">
+      <c r="L277" s="13"/>
+      <c r="M277" s="1"/>
+      <c r="N277" s="1"/>
+      <c r="O277" s="1"/>
+      <c r="P277" s="1"/>
+      <c r="Q277" s="1"/>
+      <c r="R277" s="1"/>
+      <c r="S277" s="1"/>
+      <c r="T277" s="1"/>
+      <c r="U277" s="1"/>
+      <c r="V277" s="1"/>
+      <c r="W277" s="1"/>
+      <c r="X277" s="1"/>
+      <c r="Y277" s="1"/>
+      <c r="Z277" s="1"/>
+      <c r="AA277" s="1"/>
+      <c r="AB277" s="1"/>
+      <c r="AC277" s="1"/>
+      <c r="AD277" s="1"/>
+      <c r="AE277" s="1"/>
+      <c r="AF277" s="1"/>
+      <c r="AG277" s="1"/>
+    </row>
+    <row r="278" spans="12:33" ht="15" customHeight="1">
+      <c r="L278" s="13"/>
+      <c r="M278" s="1"/>
+      <c r="N278" s="1"/>
+      <c r="O278" s="1"/>
+      <c r="P278" s="1"/>
+      <c r="Q278" s="1"/>
+      <c r="R278" s="1"/>
+      <c r="S278" s="1"/>
+      <c r="T278" s="1"/>
+      <c r="U278" s="1"/>
+      <c r="V278" s="1"/>
+      <c r="W278" s="1"/>
+      <c r="X278" s="1"/>
+      <c r="Y278" s="1"/>
+      <c r="Z278" s="1"/>
+      <c r="AA278" s="1"/>
+      <c r="AB278" s="1"/>
+      <c r="AC278" s="1"/>
+      <c r="AD278" s="1"/>
+      <c r="AE278" s="1"/>
+      <c r="AF278" s="1"/>
+      <c r="AG278" s="1"/>
+    </row>
+    <row r="279" spans="12:33" ht="15" customHeight="1">
+      <c r="L279" s="13"/>
+      <c r="M279" s="1"/>
+      <c r="N279" s="1"/>
+      <c r="O279" s="1"/>
+      <c r="P279" s="1"/>
+      <c r="Q279" s="1"/>
+      <c r="R279" s="1"/>
+      <c r="S279" s="1"/>
+      <c r="T279" s="1"/>
+      <c r="U279" s="1"/>
+      <c r="V279" s="1"/>
+      <c r="W279" s="1"/>
+      <c r="X279" s="1"/>
+      <c r="Y279" s="1"/>
+      <c r="Z279" s="1"/>
+      <c r="AA279" s="1"/>
+      <c r="AB279" s="1"/>
+      <c r="AC279" s="1"/>
+      <c r="AD279" s="1"/>
+      <c r="AE279" s="1"/>
+      <c r="AF279" s="1"/>
+      <c r="AG279" s="1"/>
+    </row>
+    <row r="280" spans="12:33" ht="15" customHeight="1">
+      <c r="L280" s="13"/>
+      <c r="M280" s="1"/>
+      <c r="N280" s="1"/>
+      <c r="O280" s="1"/>
+      <c r="P280" s="1"/>
+      <c r="Q280" s="1"/>
+      <c r="R280" s="1"/>
+      <c r="S280" s="1"/>
+      <c r="T280" s="1"/>
+      <c r="U280" s="1"/>
+      <c r="V280" s="1"/>
+      <c r="W280" s="1"/>
+      <c r="X280" s="1"/>
+      <c r="Y280" s="1"/>
+      <c r="Z280" s="1"/>
+      <c r="AA280" s="1"/>
+      <c r="AB280" s="1"/>
+      <c r="AC280" s="1"/>
+      <c r="AD280" s="1"/>
+      <c r="AE280" s="1"/>
+      <c r="AF280" s="1"/>
+      <c r="AG280" s="1"/>
+    </row>
+    <row r="281" spans="12:33" ht="15" customHeight="1">
+      <c r="L281" s="13"/>
+      <c r="M281" s="1"/>
+      <c r="N281" s="1"/>
+      <c r="O281" s="1"/>
+      <c r="P281" s="1"/>
+      <c r="Q281" s="1"/>
+      <c r="R281" s="1"/>
+      <c r="S281" s="1"/>
+      <c r="T281" s="1"/>
+      <c r="U281" s="1"/>
+      <c r="V281" s="1"/>
+      <c r="W281" s="1"/>
+      <c r="X281" s="1"/>
+      <c r="Y281" s="1"/>
+      <c r="Z281" s="1"/>
+      <c r="AA281" s="1"/>
+      <c r="AB281" s="1"/>
+      <c r="AC281" s="1"/>
+      <c r="AD281" s="1"/>
+      <c r="AE281" s="1"/>
+      <c r="AF281" s="1"/>
+      <c r="AG281" s="1"/>
+    </row>
+    <row r="282" spans="12:33" ht="15" customHeight="1">
+      <c r="L282" s="13"/>
+      <c r="M282" s="1"/>
+      <c r="N282" s="1"/>
+      <c r="O282" s="1"/>
+      <c r="P282" s="1"/>
+      <c r="Q282" s="1"/>
+      <c r="R282" s="1"/>
+      <c r="S282" s="1"/>
+      <c r="T282" s="1"/>
+      <c r="U282" s="1"/>
+      <c r="V282" s="1"/>
+      <c r="W282" s="1"/>
+      <c r="X282" s="1"/>
+      <c r="Y282" s="1"/>
+      <c r="Z282" s="1"/>
+      <c r="AA282" s="1"/>
+      <c r="AB282" s="1"/>
+      <c r="AC282" s="1"/>
+      <c r="AD282" s="1"/>
+      <c r="AE282" s="1"/>
+      <c r="AF282" s="1"/>
+      <c r="AG282" s="1"/>
+    </row>
+    <row r="283" spans="12:33" ht="15" customHeight="1">
+      <c r="L283" s="13"/>
+      <c r="M283" s="1"/>
+      <c r="N283" s="1"/>
+      <c r="O283" s="1"/>
+      <c r="P283" s="1"/>
+      <c r="Q283" s="1"/>
+      <c r="R283" s="1"/>
+      <c r="S283" s="1"/>
+      <c r="T283" s="1"/>
+      <c r="U283" s="1"/>
+      <c r="V283" s="1"/>
+      <c r="W283" s="1"/>
+      <c r="X283" s="1"/>
+      <c r="Y283" s="1"/>
+      <c r="Z283" s="1"/>
+      <c r="AA283" s="1"/>
+      <c r="AB283" s="1"/>
+      <c r="AC283" s="1"/>
+      <c r="AD283" s="1"/>
+      <c r="AE283" s="1"/>
+      <c r="AF283" s="1"/>
+      <c r="AG283" s="1"/>
+    </row>
+    <row r="284" spans="12:33" ht="15" customHeight="1">
+      <c r="L284" s="13"/>
+      <c r="M284" s="1"/>
+      <c r="N284" s="1"/>
+      <c r="O284" s="1"/>
+      <c r="P284" s="1"/>
+      <c r="Q284" s="1"/>
+      <c r="R284" s="1"/>
+      <c r="S284" s="1"/>
+      <c r="T284" s="1"/>
+      <c r="U284" s="1"/>
+      <c r="V284" s="1"/>
+      <c r="W284" s="1"/>
+      <c r="X284" s="1"/>
+      <c r="Y284" s="1"/>
+      <c r="Z284" s="1"/>
+      <c r="AA284" s="1"/>
+      <c r="AB284" s="1"/>
+      <c r="AC284" s="1"/>
+      <c r="AD284" s="1"/>
+      <c r="AE284" s="1"/>
+      <c r="AF284" s="1"/>
+      <c r="AG284" s="1"/>
+    </row>
+    <row r="285" spans="12:33" ht="15" customHeight="1">
+      <c r="L285" s="13"/>
+      <c r="M285" s="1"/>
+      <c r="N285" s="1"/>
+      <c r="O285" s="1"/>
+      <c r="P285" s="1"/>
+      <c r="Q285" s="1"/>
+      <c r="R285" s="1"/>
+      <c r="S285" s="1"/>
+      <c r="T285" s="1"/>
+      <c r="U285" s="1"/>
+      <c r="V285" s="1"/>
+      <c r="W285" s="1"/>
+      <c r="X285" s="1"/>
+      <c r="Y285" s="1"/>
+      <c r="Z285" s="1"/>
+      <c r="AA285" s="1"/>
+      <c r="AB285" s="1"/>
+      <c r="AC285" s="1"/>
+      <c r="AD285" s="1"/>
+      <c r="AE285" s="1"/>
+      <c r="AF285" s="1"/>
+      <c r="AG285" s="1"/>
+    </row>
+    <row r="286" spans="12:33" ht="15" customHeight="1">
+      <c r="L286" s="13"/>
+      <c r="M286" s="1"/>
+      <c r="N286" s="1"/>
+      <c r="O286" s="1"/>
+      <c r="P286" s="1"/>
+      <c r="Q286" s="1"/>
+      <c r="R286" s="1"/>
+      <c r="S286" s="1"/>
+      <c r="T286" s="1"/>
+      <c r="U286" s="1"/>
+      <c r="V286" s="1"/>
+      <c r="W286" s="1"/>
+      <c r="X286" s="1"/>
+      <c r="Y286" s="1"/>
+      <c r="Z286" s="1"/>
+      <c r="AA286" s="1"/>
+      <c r="AB286" s="1"/>
+      <c r="AC286" s="1"/>
+      <c r="AD286" s="1"/>
+      <c r="AE286" s="1"/>
+      <c r="AF286" s="1"/>
+      <c r="AG286" s="1"/>
+    </row>
+    <row r="287" spans="12:33" ht="15" customHeight="1">
+      <c r="L287" s="13"/>
+      <c r="M287" s="1"/>
+      <c r="N287" s="1"/>
+      <c r="O287" s="1"/>
+      <c r="P287" s="1"/>
+      <c r="Q287" s="1"/>
+      <c r="R287" s="1"/>
+      <c r="S287" s="1"/>
+      <c r="T287" s="1"/>
+      <c r="U287" s="1"/>
+      <c r="V287" s="1"/>
+      <c r="W287" s="1"/>
+      <c r="X287" s="1"/>
+      <c r="Y287" s="1"/>
+      <c r="Z287" s="1"/>
+      <c r="AA287" s="1"/>
+      <c r="AB287" s="1"/>
+      <c r="AC287" s="1"/>
+      <c r="AD287" s="1"/>
+      <c r="AE287" s="1"/>
+      <c r="AF287" s="1"/>
+      <c r="AG287" s="1"/>
+    </row>
+    <row r="288" spans="12:33" ht="15" customHeight="1">
+      <c r="L288" s="13"/>
+      <c r="M288" s="1"/>
+      <c r="N288" s="1"/>
+      <c r="O288" s="1"/>
+      <c r="P288" s="1"/>
+      <c r="Q288" s="1"/>
+      <c r="R288" s="1"/>
+      <c r="S288" s="1"/>
+      <c r="T288" s="1"/>
+      <c r="U288" s="1"/>
+      <c r="V288" s="1"/>
+      <c r="W288" s="1"/>
+      <c r="X288" s="1"/>
+      <c r="Y288" s="1"/>
+      <c r="Z288" s="1"/>
+      <c r="AA288" s="1"/>
+      <c r="AB288" s="1"/>
+      <c r="AC288" s="1"/>
+      <c r="AD288" s="1"/>
+      <c r="AE288" s="1"/>
+      <c r="AF288" s="1"/>
+      <c r="AG288" s="1"/>
+    </row>
+    <row r="289" spans="12:33" ht="15" customHeight="1">
+      <c r="L289" s="13"/>
+      <c r="M289" s="1"/>
+      <c r="N289" s="1"/>
+      <c r="O289" s="1"/>
+      <c r="P289" s="1"/>
+      <c r="Q289" s="1"/>
+      <c r="R289" s="1"/>
+      <c r="S289" s="1"/>
+      <c r="T289" s="1"/>
+      <c r="U289" s="1"/>
+      <c r="V289" s="1"/>
+      <c r="W289" s="1"/>
+      <c r="X289" s="1"/>
+      <c r="Y289" s="1"/>
+      <c r="Z289" s="1"/>
+      <c r="AA289" s="1"/>
+      <c r="AB289" s="1"/>
+      <c r="AC289" s="1"/>
+      <c r="AD289" s="1"/>
+      <c r="AE289" s="1"/>
+      <c r="AF289" s="1"/>
+      <c r="AG289" s="1"/>
+    </row>
+    <row r="290" spans="12:33" ht="15" customHeight="1">
+      <c r="L290" s="13"/>
+      <c r="M290" s="1"/>
+      <c r="N290" s="1"/>
+      <c r="O290" s="1"/>
+      <c r="P290" s="1"/>
+      <c r="Q290" s="1"/>
+      <c r="R290" s="1"/>
+      <c r="S290" s="1"/>
+      <c r="T290" s="1"/>
+      <c r="U290" s="1"/>
+      <c r="V290" s="1"/>
+      <c r="W290" s="1"/>
+      <c r="X290" s="1"/>
+      <c r="Y290" s="1"/>
+      <c r="Z290" s="1"/>
+      <c r="AA290" s="1"/>
+      <c r="AB290" s="1"/>
+      <c r="AC290" s="1"/>
+      <c r="AD290" s="1"/>
+      <c r="AE290" s="1"/>
+      <c r="AF290" s="1"/>
+      <c r="AG290" s="1"/>
+    </row>
+    <row r="291" spans="12:33" ht="15" customHeight="1">
+      <c r="L291" s="13"/>
+      <c r="M291" s="1"/>
+      <c r="N291" s="1"/>
+      <c r="O291" s="1"/>
+      <c r="P291" s="1"/>
+      <c r="Q291" s="1"/>
+      <c r="R291" s="1"/>
+      <c r="S291" s="1"/>
+      <c r="T291" s="1"/>
+      <c r="U291" s="1"/>
+      <c r="V291" s="1"/>
+      <c r="W291" s="1"/>
+      <c r="X291" s="1"/>
+      <c r="Y291" s="1"/>
+      <c r="Z291" s="1"/>
+      <c r="AA291" s="1"/>
+      <c r="AB291" s="1"/>
+      <c r="AC291" s="1"/>
+      <c r="AD291" s="1"/>
+      <c r="AE291" s="1"/>
+      <c r="AF291" s="1"/>
+      <c r="AG291" s="1"/>
+    </row>
+    <row r="292" spans="12:33" ht="15" customHeight="1">
+      <c r="L292" s="13"/>
+      <c r="M292" s="1"/>
+      <c r="N292" s="1"/>
+      <c r="O292" s="1"/>
+      <c r="P292" s="1"/>
+      <c r="Q292" s="1"/>
+      <c r="R292" s="1"/>
+      <c r="S292" s="1"/>
+      <c r="T292" s="1"/>
+      <c r="U292" s="1"/>
+      <c r="V292" s="1"/>
+      <c r="W292" s="1"/>
+      <c r="X292" s="1"/>
+      <c r="Y292" s="1"/>
+      <c r="Z292" s="1"/>
+      <c r="AA292" s="1"/>
+      <c r="AB292" s="1"/>
+      <c r="AC292" s="1"/>
+      <c r="AD292" s="1"/>
+      <c r="AE292" s="1"/>
+      <c r="AF292" s="1"/>
+      <c r="AG292" s="1"/>
+    </row>
+    <row r="293" spans="12:33" ht="15" customHeight="1">
+      <c r="L293" s="13"/>
+      <c r="M293" s="1"/>
+      <c r="N293" s="1"/>
+      <c r="O293" s="1"/>
+      <c r="P293" s="1"/>
+      <c r="Q293" s="1"/>
+      <c r="R293" s="1"/>
+      <c r="S293" s="1"/>
+      <c r="T293" s="1"/>
+      <c r="U293" s="1"/>
+      <c r="V293" s="1"/>
+      <c r="W293" s="1"/>
+      <c r="X293" s="1"/>
+      <c r="Y293" s="1"/>
+      <c r="Z293" s="1"/>
+      <c r="AA293" s="1"/>
+      <c r="AB293" s="1"/>
+      <c r="AC293" s="1"/>
+      <c r="AD293" s="1"/>
+      <c r="AE293" s="1"/>
+      <c r="AF293" s="1"/>
+      <c r="AG293" s="1"/>
+    </row>
+    <row r="294" spans="12:33" ht="15" customHeight="1">
+      <c r="L294" s="13"/>
+      <c r="M294" s="1"/>
+      <c r="N294" s="1"/>
+      <c r="O294" s="1"/>
+      <c r="P294" s="1"/>
+      <c r="Q294" s="1"/>
+      <c r="R294" s="1"/>
+      <c r="S294" s="1"/>
+      <c r="T294" s="1"/>
+      <c r="U294" s="1"/>
+      <c r="V294" s="1"/>
+      <c r="W294" s="1"/>
+      <c r="X294" s="1"/>
+      <c r="Y294" s="1"/>
+      <c r="Z294" s="1"/>
+      <c r="AA294" s="1"/>
+      <c r="AB294" s="1"/>
+      <c r="AC294" s="1"/>
+      <c r="AD294" s="1"/>
+      <c r="AE294" s="1"/>
+      <c r="AF294" s="1"/>
+      <c r="AG294" s="1"/>
+    </row>
+    <row r="295" spans="12:33" ht="15" customHeight="1">
+      <c r="L295" s="13"/>
+      <c r="M295" s="1"/>
+      <c r="N295" s="1"/>
+      <c r="O295" s="1"/>
+      <c r="P295" s="1"/>
+      <c r="Q295" s="1"/>
+      <c r="R295" s="1"/>
+      <c r="S295" s="1"/>
+      <c r="T295" s="1"/>
+      <c r="U295" s="1"/>
+      <c r="V295" s="1"/>
+      <c r="W295" s="1"/>
+      <c r="X295" s="1"/>
+      <c r="Y295" s="1"/>
+      <c r="Z295" s="1"/>
+      <c r="AA295" s="1"/>
+      <c r="AB295" s="1"/>
+      <c r="AC295" s="1"/>
+      <c r="AD295" s="1"/>
+      <c r="AE295" s="1"/>
+      <c r="AF295" s="1"/>
+      <c r="AG295" s="1"/>
+    </row>
+    <row r="296" spans="12:33" ht="15" customHeight="1">
+      <c r="L296" s="13"/>
+      <c r="M296" s="1"/>
+      <c r="N296" s="1"/>
+      <c r="O296" s="1"/>
+      <c r="P296" s="1"/>
+      <c r="Q296" s="1"/>
+      <c r="R296" s="1"/>
+      <c r="S296" s="1"/>
+      <c r="T296" s="1"/>
+      <c r="U296" s="1"/>
+      <c r="V296" s="1"/>
+      <c r="W296" s="1"/>
+      <c r="X296" s="1"/>
+      <c r="Y296" s="1"/>
+      <c r="Z296" s="1"/>
+      <c r="AA296" s="1"/>
+      <c r="AB296" s="1"/>
+      <c r="AC296" s="1"/>
+      <c r="AD296" s="1"/>
+      <c r="AE296" s="1"/>
+      <c r="AF296" s="1"/>
+      <c r="AG296" s="1"/>
+    </row>
+    <row r="297" spans="12:33" ht="15" customHeight="1">
+      <c r="L297" s="13"/>
+      <c r="M297" s="1"/>
+      <c r="N297" s="1"/>
+      <c r="O297" s="1"/>
+      <c r="P297" s="1"/>
+      <c r="Q297" s="1"/>
+      <c r="R297" s="1"/>
+      <c r="S297" s="1"/>
+      <c r="T297" s="1"/>
+      <c r="U297" s="1"/>
+      <c r="V297" s="1"/>
+      <c r="W297" s="1"/>
+      <c r="X297" s="1"/>
+      <c r="Y297" s="1"/>
+      <c r="Z297" s="1"/>
+      <c r="AA297" s="1"/>
+      <c r="AB297" s="1"/>
+      <c r="AC297" s="1"/>
+      <c r="AD297" s="1"/>
+      <c r="AE297" s="1"/>
+      <c r="AF297" s="1"/>
+      <c r="AG297" s="1"/>
+    </row>
+    <row r="298" spans="12:33" ht="15" customHeight="1">
+      <c r="L298" s="13"/>
+      <c r="M298" s="1"/>
+      <c r="N298" s="1"/>
+      <c r="O298" s="1"/>
+      <c r="P298" s="1"/>
+      <c r="Q298" s="1"/>
+      <c r="R298" s="1"/>
+      <c r="S298" s="1"/>
+      <c r="T298" s="1"/>
+      <c r="U298" s="1"/>
+      <c r="V298" s="1"/>
+      <c r="W298" s="1"/>
+      <c r="X298" s="1"/>
+      <c r="Y298" s="1"/>
+      <c r="Z298" s="1"/>
+      <c r="AA298" s="1"/>
+      <c r="AB298" s="1"/>
+      <c r="AC298" s="1"/>
+      <c r="AD298" s="1"/>
+      <c r="AE298" s="1"/>
+      <c r="AF298" s="1"/>
+      <c r="AG298" s="1"/>
+    </row>
+    <row r="299" spans="12:33" ht="15" customHeight="1">
+      <c r="L299" s="13"/>
+      <c r="M299" s="1"/>
+      <c r="N299" s="1"/>
+      <c r="O299" s="1"/>
+      <c r="P299" s="1"/>
+      <c r="Q299" s="1"/>
+      <c r="R299" s="1"/>
+      <c r="S299" s="1"/>
+      <c r="T299" s="1"/>
+      <c r="U299" s="1"/>
+      <c r="V299" s="1"/>
+      <c r="W299" s="1"/>
+      <c r="X299" s="1"/>
+      <c r="Y299" s="1"/>
+      <c r="Z299" s="1"/>
+      <c r="AA299" s="1"/>
+      <c r="AB299" s="1"/>
+      <c r="AC299" s="1"/>
+      <c r="AD299" s="1"/>
+      <c r="AE299" s="1"/>
+      <c r="AF299" s="1"/>
+      <c r="AG299" s="1"/>
+    </row>
+    <row r="300" spans="12:33" ht="15" customHeight="1">
+      <c r="L300" s="13"/>
+      <c r="M300" s="1"/>
+      <c r="N300" s="1"/>
+      <c r="O300" s="1"/>
+      <c r="P300" s="1"/>
+      <c r="Q300" s="1"/>
+      <c r="R300" s="1"/>
+      <c r="S300" s="1"/>
+      <c r="T300" s="1"/>
+      <c r="U300" s="1"/>
+      <c r="V300" s="1"/>
+      <c r="W300" s="1"/>
+      <c r="X300" s="1"/>
+      <c r="Y300" s="1"/>
+      <c r="Z300" s="1"/>
+      <c r="AA300" s="1"/>
+      <c r="AB300" s="1"/>
+      <c r="AC300" s="1"/>
+      <c r="AD300" s="1"/>
+      <c r="AE300" s="1"/>
+      <c r="AF300" s="1"/>
+      <c r="AG300" s="1"/>
+    </row>
+    <row r="301" spans="12:33" ht="15" customHeight="1">
+      <c r="L301" s="13"/>
+      <c r="M301" s="1"/>
+      <c r="N301" s="1"/>
+      <c r="O301" s="1"/>
+      <c r="P301" s="1"/>
+      <c r="Q301" s="1"/>
+      <c r="R301" s="1"/>
+      <c r="S301" s="1"/>
+      <c r="T301" s="1"/>
+      <c r="U301" s="1"/>
+      <c r="V301" s="1"/>
+      <c r="W301" s="1"/>
+      <c r="X301" s="1"/>
+      <c r="Y301" s="1"/>
+      <c r="Z301" s="1"/>
+      <c r="AA301" s="1"/>
+      <c r="AB301" s="1"/>
+      <c r="AC301" s="1"/>
+      <c r="AD301" s="1"/>
+      <c r="AE301" s="1"/>
+      <c r="AF301" s="1"/>
+      <c r="AG301" s="1"/>
+    </row>
+    <row r="302" spans="12:33" ht="15" customHeight="1">
+      <c r="L302" s="13"/>
+      <c r="M302" s="1"/>
+      <c r="N302" s="1"/>
+      <c r="O302" s="1"/>
+      <c r="P302" s="1"/>
+      <c r="Q302" s="1"/>
+      <c r="R302" s="1"/>
+      <c r="S302" s="1"/>
+      <c r="T302" s="1"/>
+      <c r="U302" s="1"/>
+      <c r="V302" s="1"/>
+      <c r="W302" s="1"/>
+      <c r="X302" s="1"/>
+      <c r="Y302" s="1"/>
+      <c r="Z302" s="1"/>
+      <c r="AA302" s="1"/>
+      <c r="AB302" s="1"/>
+      <c r="AC302" s="1"/>
+      <c r="AD302" s="1"/>
+      <c r="AE302" s="1"/>
+      <c r="AF302" s="1"/>
+      <c r="AG302" s="1"/>
+    </row>
+    <row r="303" spans="12:33" ht="15" customHeight="1">
+      <c r="L303" s="13"/>
+      <c r="M303" s="1"/>
+      <c r="N303" s="1"/>
+      <c r="O303" s="1"/>
+      <c r="P303" s="1"/>
+      <c r="Q303" s="1"/>
+      <c r="R303" s="1"/>
+      <c r="S303" s="1"/>
+      <c r="T303" s="1"/>
+      <c r="U303" s="1"/>
+      <c r="V303" s="1"/>
+      <c r="W303" s="1"/>
+      <c r="X303" s="1"/>
+      <c r="Y303" s="1"/>
+      <c r="Z303" s="1"/>
+      <c r="AA303" s="1"/>
+      <c r="AB303" s="1"/>
+      <c r="AC303" s="1"/>
+      <c r="AD303" s="1"/>
+      <c r="AE303" s="1"/>
+      <c r="AF303" s="1"/>
+      <c r="AG303" s="1"/>
+    </row>
+    <row r="304" spans="12:33" ht="15" customHeight="1">
+      <c r="L304" s="13"/>
+      <c r="M304" s="1"/>
+      <c r="N304" s="1"/>
+      <c r="O304" s="1"/>
+      <c r="P304" s="1"/>
+      <c r="Q304" s="1"/>
+      <c r="R304" s="1"/>
+      <c r="S304" s="1"/>
+      <c r="T304" s="1"/>
+      <c r="U304" s="1"/>
+      <c r="V304" s="1"/>
+      <c r="W304" s="1"/>
+      <c r="X304" s="1"/>
+      <c r="Y304" s="1"/>
+      <c r="Z304" s="1"/>
+      <c r="AA304" s="1"/>
+      <c r="AB304" s="1"/>
+      <c r="AC304" s="1"/>
+      <c r="AD304" s="1"/>
+      <c r="AE304" s="1"/>
+      <c r="AF304" s="1"/>
+      <c r="AG304" s="1"/>
+    </row>
+    <row r="305" spans="12:33" ht="15" customHeight="1">
+      <c r="L305" s="13"/>
+      <c r="M305" s="1"/>
+      <c r="N305" s="1"/>
+      <c r="O305" s="1"/>
+      <c r="P305" s="1"/>
+      <c r="Q305" s="1"/>
+      <c r="R305" s="1"/>
+      <c r="S305" s="1"/>
+      <c r="T305" s="1"/>
+      <c r="U305" s="1"/>
+      <c r="V305" s="1"/>
+      <c r="W305" s="1"/>
+      <c r="X305" s="1"/>
+      <c r="Y305" s="1"/>
+      <c r="Z305" s="1"/>
+      <c r="AA305" s="1"/>
+      <c r="AB305" s="1"/>
+      <c r="AC305" s="1"/>
+      <c r="AD305" s="1"/>
+      <c r="AE305" s="1"/>
+      <c r="AF305" s="1"/>
+      <c r="AG305" s="1"/>
+    </row>
+    <row r="306" spans="12:33" ht="15" customHeight="1">
+      <c r="L306" s="13"/>
+      <c r="M306" s="1"/>
+      <c r="N306" s="1"/>
+      <c r="O306" s="1"/>
+      <c r="P306" s="1"/>
+      <c r="Q306" s="1"/>
+      <c r="R306" s="1"/>
+      <c r="S306" s="1"/>
+      <c r="T306" s="1"/>
+      <c r="U306" s="1"/>
+      <c r="V306" s="1"/>
+      <c r="W306" s="1"/>
+      <c r="X306" s="1"/>
+      <c r="Y306" s="1"/>
+      <c r="Z306" s="1"/>
+      <c r="AA306" s="1"/>
+      <c r="AB306" s="1"/>
+      <c r="AC306" s="1"/>
+      <c r="AD306" s="1"/>
+      <c r="AE306" s="1"/>
+      <c r="AF306" s="1"/>
+      <c r="AG306" s="1"/>
+    </row>
+    <row r="307" spans="12:33" ht="15" customHeight="1">
+      <c r="L307" s="13"/>
+      <c r="M307" s="1"/>
+      <c r="N307" s="1"/>
+      <c r="O307" s="1"/>
+      <c r="P307" s="1"/>
+      <c r="Q307" s="1"/>
+      <c r="R307" s="1"/>
+      <c r="S307" s="1"/>
+      <c r="T307" s="1"/>
+      <c r="U307" s="1"/>
+      <c r="V307" s="1"/>
+      <c r="W307" s="1"/>
+      <c r="X307" s="1"/>
+      <c r="Y307" s="1"/>
+      <c r="Z307" s="1"/>
+      <c r="AA307" s="1"/>
+      <c r="AB307" s="1"/>
+      <c r="AC307" s="1"/>
+      <c r="AD307" s="1"/>
+      <c r="AE307" s="1"/>
+      <c r="AF307" s="1"/>
+      <c r="AG307" s="1"/>
+    </row>
+    <row r="308" spans="12:33" ht="15" customHeight="1">
+      <c r="L308" s="13"/>
+      <c r="M308" s="1"/>
+      <c r="N308" s="1"/>
+      <c r="O308" s="1"/>
+      <c r="P308" s="1"/>
+      <c r="Q308" s="1"/>
+      <c r="R308" s="1"/>
+      <c r="S308" s="1"/>
+      <c r="T308" s="1"/>
+      <c r="U308" s="1"/>
+      <c r="V308" s="1"/>
+      <c r="W308" s="1"/>
+      <c r="X308" s="1"/>
+      <c r="Y308" s="1"/>
+      <c r="Z308" s="1"/>
+      <c r="AA308" s="1"/>
+      <c r="AB308" s="1"/>
+      <c r="AC308" s="1"/>
+      <c r="AD308" s="1"/>
+      <c r="AE308" s="1"/>
+      <c r="AF308" s="1"/>
+      <c r="AG308" s="1"/>
+    </row>
+    <row r="309" spans="12:33" ht="15" customHeight="1">
+      <c r="L309" s="13"/>
+      <c r="M309" s="1"/>
+      <c r="N309" s="1"/>
+      <c r="O309" s="1"/>
+      <c r="P309" s="1"/>
+      <c r="Q309" s="1"/>
+      <c r="R309" s="1"/>
+      <c r="S309" s="1"/>
+      <c r="T309" s="1"/>
+      <c r="U309" s="1"/>
+      <c r="V309" s="1"/>
+      <c r="W309" s="1"/>
+      <c r="X309" s="1"/>
+      <c r="Y309" s="1"/>
+      <c r="Z309" s="1"/>
+      <c r="AA309" s="1"/>
+      <c r="AB309" s="1"/>
+      <c r="AC309" s="1"/>
+      <c r="AD309" s="1"/>
+      <c r="AE309" s="1"/>
+      <c r="AF309" s="1"/>
+      <c r="AG309" s="1"/>
+    </row>
+    <row r="310" spans="12:33" ht="15" customHeight="1">
+      <c r="L310" s="13"/>
+      <c r="M310" s="1"/>
+      <c r="N310" s="1"/>
+      <c r="O310" s="1"/>
+      <c r="P310" s="1"/>
+      <c r="Q310" s="1"/>
+      <c r="R310" s="1"/>
+      <c r="S310" s="1"/>
+      <c r="T310" s="1"/>
+      <c r="U310" s="1"/>
+      <c r="V310" s="1"/>
+      <c r="W310" s="1"/>
+      <c r="X310" s="1"/>
+      <c r="Y310" s="1"/>
+      <c r="Z310" s="1"/>
+      <c r="AA310" s="1"/>
+      <c r="AB310" s="1"/>
+      <c r="AC310" s="1"/>
+      <c r="AD310" s="1"/>
+      <c r="AE310" s="1"/>
+      <c r="AF310" s="1"/>
+      <c r="AG310" s="1"/>
+    </row>
+    <row r="311" spans="12:33" ht="15" customHeight="1">
+      <c r="L311" s="13"/>
+      <c r="M311" s="1"/>
+      <c r="N311" s="1"/>
+      <c r="O311" s="1"/>
+      <c r="P311" s="1"/>
+      <c r="Q311" s="1"/>
+      <c r="R311" s="1"/>
+      <c r="S311" s="1"/>
+      <c r="T311" s="1"/>
+      <c r="U311" s="1"/>
+      <c r="V311" s="1"/>
+      <c r="W311" s="1"/>
+      <c r="X311" s="1"/>
+      <c r="Y311" s="1"/>
+      <c r="Z311" s="1"/>
+      <c r="AA311" s="1"/>
+      <c r="AB311" s="1"/>
+      <c r="AC311" s="1"/>
+      <c r="AD311" s="1"/>
+      <c r="AE311" s="1"/>
+      <c r="AF311" s="1"/>
+      <c r="AG311" s="1"/>
+    </row>
+    <row r="312" spans="12:33" ht="15" customHeight="1">
+      <c r="L312" s="13"/>
+      <c r="M312" s="1"/>
+      <c r="N312" s="1"/>
+      <c r="O312" s="1"/>
+      <c r="P312" s="1"/>
+      <c r="Q312" s="1"/>
+      <c r="R312" s="1"/>
+      <c r="S312" s="1"/>
+      <c r="T312" s="1"/>
+      <c r="U312" s="1"/>
+      <c r="V312" s="1"/>
+      <c r="W312" s="1"/>
+      <c r="X312" s="1"/>
+      <c r="Y312" s="1"/>
+      <c r="Z312" s="1"/>
+      <c r="AA312" s="1"/>
+      <c r="AB312" s="1"/>
+      <c r="AC312" s="1"/>
+      <c r="AD312" s="1"/>
+      <c r="AE312" s="1"/>
+      <c r="AF312" s="1"/>
+      <c r="AG312" s="1"/>
+    </row>
+    <row r="313" spans="12:33" ht="15" customHeight="1">
+      <c r="L313" s="13"/>
+      <c r="M313" s="1"/>
+      <c r="N313" s="1"/>
+      <c r="O313" s="1"/>
+      <c r="P313" s="1"/>
+      <c r="Q313" s="1"/>
+      <c r="R313" s="1"/>
+      <c r="S313" s="1"/>
+      <c r="T313" s="1"/>
+      <c r="U313" s="1"/>
+      <c r="V313" s="1"/>
+      <c r="W313" s="1"/>
+      <c r="X313" s="1"/>
+      <c r="Y313" s="1"/>
+      <c r="Z313" s="1"/>
+      <c r="AA313" s="1"/>
+      <c r="AB313" s="1"/>
+      <c r="AC313" s="1"/>
+      <c r="AD313" s="1"/>
+      <c r="AE313" s="1"/>
+      <c r="AF313" s="1"/>
+      <c r="AG313" s="1"/>
+    </row>
+    <row r="314" spans="12:33" ht="15" customHeight="1">
+      <c r="L314" s="13"/>
+      <c r="M314" s="1"/>
+      <c r="N314" s="1"/>
+      <c r="O314" s="1"/>
+      <c r="P314" s="1"/>
+      <c r="Q314" s="1"/>
+      <c r="R314" s="1"/>
+      <c r="S314" s="1"/>
+      <c r="T314" s="1"/>
+      <c r="U314" s="1"/>
+      <c r="V314" s="1"/>
+      <c r="W314" s="1"/>
+      <c r="X314" s="1"/>
+      <c r="Y314" s="1"/>
+      <c r="Z314" s="1"/>
+      <c r="AA314" s="1"/>
+      <c r="AB314" s="1"/>
+      <c r="AC314" s="1"/>
+      <c r="AD314" s="1"/>
+      <c r="AE314" s="1"/>
+      <c r="AF314" s="1"/>
+      <c r="AG314" s="1"/>
+    </row>
+    <row r="315" spans="12:33" ht="15" customHeight="1">
+      <c r="L315" s="13"/>
+      <c r="M315" s="1"/>
+      <c r="N315" s="1"/>
+      <c r="O315" s="1"/>
+      <c r="P315" s="1"/>
+      <c r="Q315" s="1"/>
+      <c r="R315" s="1"/>
+      <c r="S315" s="1"/>
+      <c r="T315" s="1"/>
+      <c r="U315" s="1"/>
+      <c r="V315" s="1"/>
+      <c r="W315" s="1"/>
+      <c r="X315" s="1"/>
+      <c r="Y315" s="1"/>
+      <c r="Z315" s="1"/>
+      <c r="AA315" s="1"/>
+      <c r="AB315" s="1"/>
+      <c r="AC315" s="1"/>
+      <c r="AD315" s="1"/>
+      <c r="AE315" s="1"/>
+      <c r="AF315" s="1"/>
+      <c r="AG315" s="1"/>
+    </row>
+    <row r="316" spans="12:33" ht="15" customHeight="1">
+      <c r="L316" s="13"/>
+      <c r="M316" s="1"/>
+      <c r="N316" s="1"/>
+      <c r="O316" s="1"/>
+      <c r="P316" s="1"/>
+      <c r="Q316" s="1"/>
+      <c r="R316" s="1"/>
+      <c r="S316" s="1"/>
+      <c r="T316" s="1"/>
+      <c r="U316" s="1"/>
+      <c r="V316" s="1"/>
+      <c r="W316" s="1"/>
+      <c r="X316" s="1"/>
+      <c r="Y316" s="1"/>
+      <c r="Z316" s="1"/>
+      <c r="AA316" s="1"/>
+      <c r="AB316" s="1"/>
+      <c r="AC316" s="1"/>
+      <c r="AD316" s="1"/>
+      <c r="AE316" s="1"/>
+      <c r="AF316" s="1"/>
+      <c r="AG316" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2692,19 +9043,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24842CE5-DDEB-44F0-A9B9-976BA15ED865}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="27" t="s">
-        <v>88</v>
-      </c>
+      <c r="A1" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelToXML/UploadExcels/Statement_117904113 (2).xlsx
+++ b/ExcelToXML/UploadExcels/Statement_117904113 (2).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="89">
   <si>
     <t>ამონაწერი</t>
   </si>
@@ -277,9 +277,6 @@
     <t>202462218</t>
   </si>
   <si>
-    <t>1024064873</t>
-  </si>
-  <si>
     <t>26001008155</t>
   </si>
   <si>
@@ -290,9 +287,6 @@
   </si>
   <si>
     <t>1017006382</t>
-  </si>
-  <si>
-    <t>416298875</t>
   </si>
 </sst>
 </file>
@@ -978,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AG316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -1131,7 +1125,7 @@
       <c r="H11" s="23"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:33" ht="15" customHeight="1">
+    <row r="12" spans="1:33" ht="15" customHeight="1" thickBot="1">
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1444,7 +1438,7 @@
         <v>60</v>
       </c>
       <c r="P16" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="8" t="s">
         <v>61</v>
@@ -1522,7 +1516,7 @@
         <v>60</v>
       </c>
       <c r="P17" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="8" t="s">
         <v>61</v>
@@ -1600,7 +1594,7 @@
         <v>73</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q18" s="8" t="s">
         <v>71</v>
@@ -1678,7 +1672,7 @@
         <v>78</v>
       </c>
       <c r="P19" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q19" s="8" t="s">
         <v>79</v>
@@ -1756,7 +1750,7 @@
         <v>78</v>
       </c>
       <c r="P20" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q20" s="8" t="s">
         <v>79</v>

--- a/ExcelToXML/UploadExcels/Statement_117904113 (2).xlsx
+++ b/ExcelToXML/UploadExcels/Statement_117904113 (2).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="88">
   <si>
     <t>ამონაწერი</t>
   </si>
@@ -281,9 +281,6 @@
   </si>
   <si>
     <t>40001002221</t>
-  </si>
-  <si>
-    <t>26001026819</t>
   </si>
   <si>
     <t>1017006382</t>
@@ -972,7 +969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AG316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
@@ -993,7 +990,7 @@
     <col min="13" max="13" width="14.42578125" style="10" customWidth="1"/>
     <col min="14" max="14" width="31.28515625" style="10" customWidth="1"/>
     <col min="15" max="15" width="35.5703125" style="10" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="34.85546875" style="8" customWidth="1"/>
     <col min="17" max="17" width="28.5703125" style="8" customWidth="1"/>
     <col min="18" max="18" width="14.140625" style="10" customWidth="1"/>
     <col min="19" max="19" width="31.5703125" style="10" customWidth="1"/>
@@ -1130,7 +1127,9 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="Q12" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="3"/>
@@ -1194,7 +1193,7 @@
       <c r="O13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" s="12" t="s">
         <v>28</v>
       </c>
       <c r="Q13" s="5" t="s">
@@ -1281,7 +1280,7 @@
       <c r="O14" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P14" s="31" t="s">
+      <c r="P14" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Q14" s="8" t="s">
@@ -1594,7 +1593,7 @@
         <v>73</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q18" s="8" t="s">
         <v>71</v>
@@ -1672,7 +1671,7 @@
         <v>78</v>
       </c>
       <c r="P19" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q19" s="8" t="s">
         <v>79</v>
@@ -1750,7 +1749,7 @@
         <v>78</v>
       </c>
       <c r="P20" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q20" s="8" t="s">
         <v>79</v>

--- a/ExcelToXML/UploadExcels/Statement_117904113 (2).xlsx
+++ b/ExcelToXML/UploadExcels/Statement_117904113 (2).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azenaishvili.MOLHSA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azenaishvili.MOLHSA\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="14100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="Statement of Account" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="90">
   <si>
     <t>ამონაწერი</t>
   </si>
@@ -285,6 +285,12 @@
   <si>
     <t>1017006382</t>
   </si>
+  <si>
+    <t>26001008155avto</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
 </sst>
 </file>
 
@@ -428,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -523,6 +529,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,8 +655,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tableStatement" displayName="tableStatement" ref="A13:Z20" totalsRowShown="0">
-  <autoFilter ref="A13:Z20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tableStatement" displayName="tableStatement" ref="A13:Z22" totalsRowShown="0">
+  <autoFilter ref="A13:Z22"/>
   <tableColumns count="26">
     <tableColumn id="1" name="თარიღი" dataDxfId="4"/>
     <tableColumn id="2" name="საბუთის N"/>
@@ -969,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AG316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -1783,18 +1792,26 @@
       </c>
     </row>
     <row r="21" spans="1:33" ht="15" customHeight="1">
-      <c r="A21" s="10"/>
+      <c r="A21" s="29">
+        <v>44595</v>
+      </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="8"/>
+      <c r="D21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="H21" s="8"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="P21" s="31"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -1814,11 +1831,11 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="15" customHeight="1">
-      <c r="A22" s="10"/>
+      <c r="A22" s="29"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
       <c r="H22" s="8"/>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
@@ -1826,7 +1843,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="P22" s="31"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>

--- a/ExcelToXML/UploadExcels/Statement_117904113 (2).xlsx
+++ b/ExcelToXML/UploadExcels/Statement_117904113 (2).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azenaishvili.MOLHSA\Pictures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azenaishvili.MOLHSA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="Statement of Account" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="88">
   <si>
     <t>ამონაწერი</t>
   </si>
@@ -178,9 +178,6 @@
     <t>GE18BG0000000365814743GEL</t>
   </si>
   <si>
-    <t>ბიომრავალფეროვნების, ჰიდროლოგიური გარემოს და კლიმატის კვლევის ჩასატარებლად. ხელშეკრულება 460, მიღებაჩაბარების აქტი 83376. CC103 შპს ესდიესსი GE18BG0000000365814743GEL სს "საქართველოს ბანკი" BAGAGE22</t>
-  </si>
-  <si>
     <t>PMD</t>
   </si>
   <si>
@@ -286,10 +283,7 @@
     <t>1017006382</t>
   </si>
   <si>
-    <t>26001008155avto</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>ბიომრავალფეროვნების, ჰიდროლოგიური გარემოს და კლიმატის შპს კვლევის ჩასატარებლად. ხელშეკრულება 460, მიღებაჩაბარების აქტი 83376. CC103 შპს ესდიესსი GE18BG0000000365814743GEL სს "საქართველოს ბანკი" BAGAGE22</t>
   </si>
 </sst>
 </file>
@@ -434,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -529,9 +523,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,8 +646,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tableStatement" displayName="tableStatement" ref="A13:Z22" totalsRowShown="0">
-  <autoFilter ref="A13:Z22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tableStatement" displayName="tableStatement" ref="A13:Z20" totalsRowShown="0">
+  <autoFilter ref="A13:Z20"/>
   <tableColumns count="26">
     <tableColumn id="1" name="თარიღი" dataDxfId="4"/>
     <tableColumn id="2" name="საბუთის N"/>
@@ -978,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AG316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -1137,7 +1128,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -1290,7 +1281,7 @@
         <v>2</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="8" t="s">
         <v>47</v>
@@ -1338,10 +1329,10 @@
       </c>
       <c r="E15" s="30"/>
       <c r="F15" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>53</v>
       </c>
       <c r="H15" s="18">
         <v>48150311818</v>
@@ -1365,10 +1356,10 @@
         <v>46</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P15" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q15" s="8" t="s">
         <v>51</v>
@@ -1380,10 +1371,10 @@
         <v>46</v>
       </c>
       <c r="T15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V15" s="13">
         <v>-11339.32</v>
@@ -1398,7 +1389,7 @@
         <v>13057.87</v>
       </c>
       <c r="Z15" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="12.75">
@@ -1406,20 +1397,20 @@
         <v>44595</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>58</v>
       </c>
       <c r="D16" s="30">
         <v>30286</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H16" s="18">
         <v>48150858701</v>
@@ -1443,25 +1434,25 @@
         <v>46</v>
       </c>
       <c r="O16" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q16" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="P16" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q16" s="8" t="s">
+      <c r="R16" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="R16" s="10" t="s">
+      <c r="S16" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="S16" s="10" t="s">
+      <c r="T16" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="T16" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="U16" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V16" s="13">
         <v>-30286</v>
@@ -1476,7 +1467,7 @@
         <v>13057.87</v>
       </c>
       <c r="Z16" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="12.75">
@@ -1484,20 +1475,20 @@
         <v>44595</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="30">
         <v>15.14</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="H17" s="18">
         <v>48150858702</v>
@@ -1521,25 +1512,25 @@
         <v>46</v>
       </c>
       <c r="O17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="P17" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q17" s="8" t="s">
+      <c r="R17" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="R17" s="10" t="s">
+      <c r="S17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="S17" s="10" t="s">
+      <c r="T17" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="T17" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="U17" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V17" s="13">
         <v>-15.14</v>
@@ -1554,7 +1545,7 @@
         <v>13057.87</v>
       </c>
       <c r="Z17" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="12.75">
@@ -1562,20 +1553,20 @@
         <v>44595</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="D18" s="30">
         <v>862</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H18" s="18">
         <v>48156227789</v>
@@ -1599,13 +1590,13 @@
         <v>46</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R18" s="10" t="s">
         <v>45</v>
@@ -1614,10 +1605,10 @@
         <v>46</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V18" s="13">
         <v>-862</v>
@@ -1632,7 +1623,7 @@
         <v>13057.87</v>
       </c>
       <c r="Z18" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="12.75">
@@ -1640,20 +1631,20 @@
         <v>44595</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="30">
         <v>9497.6</v>
       </c>
       <c r="E19" s="30"/>
       <c r="F19" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H19" s="18">
         <v>48159943499</v>
@@ -1677,25 +1668,25 @@
         <v>46</v>
       </c>
       <c r="O19" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P19" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q19" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P19" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q19" s="8" t="s">
+      <c r="R19" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="T19" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="R19" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="S19" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="T19" s="8" t="s">
-        <v>80</v>
-      </c>
       <c r="U19" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V19" s="13">
         <v>-9497.6</v>
@@ -1710,7 +1701,7 @@
         <v>13057.87</v>
       </c>
       <c r="Z19" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:33" ht="12.75">
@@ -1718,20 +1709,20 @@
         <v>44595</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="30">
         <v>4.75</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H20" s="18">
         <v>48159943502</v>
@@ -1755,25 +1746,25 @@
         <v>46</v>
       </c>
       <c r="O20" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q20" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P20" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q20" s="8" t="s">
+      <c r="R20" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="T20" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="R20" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="S20" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="T20" s="8" t="s">
-        <v>80</v>
-      </c>
       <c r="U20" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V20" s="13">
         <v>-4.75</v>
@@ -1788,30 +1779,22 @@
         <v>13057.87</v>
       </c>
       <c r="Z20" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="15" customHeight="1">
-      <c r="A21" s="29">
-        <v>44595</v>
-      </c>
+      <c r="A21" s="10"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="31"/>
+      <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -1831,11 +1814,11 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="15" customHeight="1">
-      <c r="A22" s="29"/>
+      <c r="A22" s="10"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
       <c r="H22" s="8"/>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
@@ -1843,7 +1826,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="31"/>
+      <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>

--- a/ExcelToXML/UploadExcels/Statement_117904113 (2).xlsx
+++ b/ExcelToXML/UploadExcels/Statement_117904113 (2).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="90">
   <si>
     <t>ამონაწერი</t>
   </si>
@@ -285,6 +285,12 @@
   <si>
     <t>ბიომრავალფეროვნების, ჰიდროლოგიური გარემოს და კლიმატის შპს კვლევის ჩასატარებლად. ხელშეკრულება 460, მიღებაჩაბარების აქტი 83376. CC103 შპს ესდიესსი GE18BG0000000365814743GEL სს "საქართველოს ბანკი" BAGAGE22</t>
   </si>
+  <si>
+    <t>xelfasi</t>
+  </si>
+  <si>
+    <t>bonusi</t>
+  </si>
 </sst>
 </file>
 
@@ -293,7 +299,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[Black]#,##0.00;[Red]\(#,##0.00\);[Black]#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +361,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="EY Geo Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -428,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -524,6 +536,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -969,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AG316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -1392,7 +1405,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="12.75">
+    <row r="16" spans="1:33">
       <c r="A16" s="29">
         <v>44595</v>
       </c>
@@ -1448,8 +1461,8 @@
       <c r="S16" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="T16" s="8" t="s">
-        <v>63</v>
+      <c r="T16" s="33" t="s">
+        <v>89</v>
       </c>
       <c r="U16" s="10" t="s">
         <v>63</v>
@@ -1470,7 +1483,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="12.75">
+    <row r="17" spans="1:33">
       <c r="A17" s="29">
         <v>44595</v>
       </c>
@@ -1526,8 +1539,8 @@
       <c r="S17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="T17" s="8" t="s">
-        <v>63</v>
+      <c r="T17" s="33" t="s">
+        <v>88</v>
       </c>
       <c r="U17" s="10" t="s">
         <v>63</v>
@@ -9027,10 +9040,10 @@
     <mergeCell ref="A4:F4"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.1" top="0.2" bottom="0.2" header="0.2" footer="0.2"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/ExcelToXML/UploadExcels/Statement_117904113 (2).xlsx
+++ b/ExcelToXML/UploadExcels/Statement_117904113 (2).xlsx
@@ -196,9 +196,6 @@
     <t>48319810200100000000</t>
   </si>
   <si>
-    <t>საქართველოს ბიზნეს ასოციაციის საწევროს წლიური გადასახადი, ინვოისი 22/10 საქართველოს ბიზნეს ასოციაცია - ააიპ GE84TB7887336080100001 სს "თიბისი  ბანკი" TBCBGE22</t>
-  </si>
-  <si>
     <t>საქართველოს ბიზნეს ასოციაცია - ააიპ</t>
   </si>
   <si>
@@ -283,13 +280,16 @@
     <t>1017006382</t>
   </si>
   <si>
-    <t>ბიომრავალფეროვნების, ჰიდროლოგიური გარემოს და კლიმატის შპს კვლევის ჩასატარებლად. ხელშეკრულება 460, მიღებაჩაბარების აქტი 83376. CC103 შპს ესდიესსი GE18BG0000000365814743GEL სს "საქართველოს ბანკი" BAGAGE22</t>
-  </si>
-  <si>
     <t>xelfasi</t>
   </si>
   <si>
     <t>bonusi</t>
+  </si>
+  <si>
+    <t>ბიომრავალფეროვნების, ჰიდროლოგიური [60015117] გარემოს და კლიმატის შპს კვლევის ჩასატარებლად. ხელშეკრულება 460, მიღებაჩაბარების აქტი 83376. CC103 შპს ესდიესსი GE18BG0000000365814743GEL სს "საქართველოს ბანკი" BAGAGE22</t>
+  </si>
+  <si>
+    <t>საქართველოს ბიზნეს ა [60015117]სოციაციის საწევროს წლიური გადასახადი, ინვოისი 22/10 საქართველოს ბიზნეს ასოციაცია - ააიპ GE84TB7887336080100001 სს "თიბისი  ბანკი" TBCBGE22</t>
   </si>
 </sst>
 </file>
@@ -533,10 +533,10 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -982,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AG316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -1018,14 +1018,14 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:33" ht="15" customHeight="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="21"/>
       <c r="H4" s="22"/>
       <c r="I4" s="21"/>
@@ -1141,7 +1141,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="8" t="s">
         <v>47</v>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="E15" s="30"/>
       <c r="F15" s="30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>52</v>
@@ -1372,7 +1372,7 @@
         <v>53</v>
       </c>
       <c r="P15" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q15" s="8" t="s">
         <v>51</v>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>52</v>
@@ -1447,25 +1447,25 @@
         <v>46</v>
       </c>
       <c r="O16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q16" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="P16" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q16" s="8" t="s">
+      <c r="R16" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="R16" s="10" t="s">
+      <c r="S16" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="S16" s="10" t="s">
+      <c r="T16" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="U16" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="T16" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="U16" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="V16" s="13">
         <v>-30286</v>
@@ -1480,7 +1480,7 @@
         <v>13057.87</v>
       </c>
       <c r="Z16" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:33">
@@ -1491,17 +1491,17 @@
         <v>56</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="30">
         <v>15.14</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>67</v>
       </c>
       <c r="H17" s="18">
         <v>48150858702</v>
@@ -1525,25 +1525,25 @@
         <v>46</v>
       </c>
       <c r="O17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="P17" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q17" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="P17" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q17" s="8" t="s">
+      <c r="R17" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="R17" s="10" t="s">
+      <c r="S17" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="S17" s="10" t="s">
+      <c r="T17" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="U17" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="T17" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="U17" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="V17" s="13">
         <v>-15.14</v>
@@ -1558,7 +1558,7 @@
         <v>13057.87</v>
       </c>
       <c r="Z17" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="12.75">
@@ -1566,17 +1566,17 @@
         <v>44595</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="D18" s="30">
         <v>862</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>52</v>
@@ -1603,13 +1603,13 @@
         <v>46</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R18" s="10" t="s">
         <v>45</v>
@@ -1618,10 +1618,10 @@
         <v>46</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V18" s="13">
         <v>-862</v>
@@ -1636,7 +1636,7 @@
         <v>13057.87</v>
       </c>
       <c r="Z18" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="12.75">
@@ -1644,7 +1644,7 @@
         <v>44595</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>57</v>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="E19" s="30"/>
       <c r="F19" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>52</v>
@@ -1681,25 +1681,25 @@
         <v>46</v>
       </c>
       <c r="O19" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="P19" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q19" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="P19" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q19" s="8" t="s">
+      <c r="R19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="T19" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="R19" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="S19" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="T19" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="U19" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V19" s="13">
         <v>-9497.6</v>
@@ -1714,7 +1714,7 @@
         <v>13057.87</v>
       </c>
       <c r="Z19" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:33" ht="12.75">
@@ -1722,20 +1722,20 @@
         <v>44595</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="30">
         <v>4.75</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H20" s="18">
         <v>48159943502</v>
@@ -1759,25 +1759,25 @@
         <v>46</v>
       </c>
       <c r="O20" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q20" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="P20" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q20" s="8" t="s">
+      <c r="R20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="T20" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="R20" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="S20" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="T20" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="U20" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V20" s="13">
         <v>-4.75</v>
@@ -1792,7 +1792,7 @@
         <v>13057.87</v>
       </c>
       <c r="Z20" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="15" customHeight="1">

--- a/ExcelToXML/UploadExcels/Statement_117904113 (2).xlsx
+++ b/ExcelToXML/UploadExcels/Statement_117904113 (2).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="14100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Statement of Account" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="90">
   <si>
     <t>ამონაწერი</t>
   </si>
@@ -982,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AG316"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -1527,9 +1527,7 @@
       <c r="O17" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="P17" s="31" t="s">
-        <v>84</v>
-      </c>
+      <c r="P17" s="31"/>
       <c r="Q17" s="8" t="s">
         <v>59</v>
       </c>
@@ -1757,9 +1755,6 @@
       </c>
       <c r="N20" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="P20" s="31" t="s">
         <v>85</v>

--- a/ExcelToXML/UploadExcels/Statement_117904113 (2).xlsx
+++ b/ExcelToXML/UploadExcels/Statement_117904113 (2).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="90">
   <si>
     <t>ამონაწერი</t>
   </si>
@@ -982,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AG316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -1527,7 +1527,9 @@
       <c r="O17" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="P17" s="31"/>
+      <c r="P17" s="31" t="s">
+        <v>84</v>
+      </c>
       <c r="Q17" s="8" t="s">
         <v>59</v>
       </c>
@@ -1755,6 +1757,9 @@
       </c>
       <c r="N20" s="10" t="s">
         <v>46</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="P20" s="31" t="s">
         <v>85</v>
